--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,76 +665,83 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>200</v>
+      <c r="D8" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E8" s="3">
         <v>200</v>
@@ -746,20 +753,20 @@
         <v>100</v>
       </c>
       <c r="H8" s="3">
+        <v>100</v>
+      </c>
+      <c r="I8" s="3">
+        <v>100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>100</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>200</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>4</v>
       </c>
@@ -769,8 +776,14 @@
       <c r="O8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -778,7 +791,7 @@
         <v>100</v>
       </c>
       <c r="E9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
@@ -795,11 +808,11 @@
       <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
+      <c r="K9" s="3">
+        <v>100</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
@@ -810,13 +823,19 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -831,17 +850,17 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>100</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
@@ -851,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,49 +893,57 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>2500</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G12" s="3">
         <v>1700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>700</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1200</v>
       </c>
       <c r="K12" s="3">
         <v>1300</v>
       </c>
       <c r="L12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N12" s="3">
         <v>600</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>500</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -950,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -964,35 +1003,41 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>1000</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1006,19 +1051,19 @@
         <v>200</v>
       </c>
       <c r="G15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>100</v>
       </c>
       <c r="J15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>0</v>
@@ -1032,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1046,79 +1097,87 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6000</v>
+        <v>5100</v>
       </c>
       <c r="E17" s="3">
-        <v>3800</v>
+        <v>6300</v>
       </c>
       <c r="F17" s="3">
-        <v>4800</v>
+        <v>5800</v>
       </c>
       <c r="G17" s="3">
         <v>3700</v>
       </c>
       <c r="H17" s="3">
-        <v>3100</v>
+        <v>4600</v>
       </c>
       <c r="I17" s="3">
         <v>3600</v>
       </c>
       <c r="J17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="L17" s="3">
         <v>2800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1200</v>
       </c>
       <c r="N17" s="3">
         <v>1600</v>
       </c>
       <c r="O17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="Q17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>-5900</v>
+      <c r="D18" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3700</v>
+        <v>-6000</v>
       </c>
       <c r="F18" s="3">
-        <v>-4700</v>
+        <v>-5700</v>
       </c>
       <c r="G18" s="3">
         <v>-3600</v>
       </c>
       <c r="H18" s="3">
-        <v>-2900</v>
+        <v>-4600</v>
       </c>
       <c r="I18" s="3">
+        <v>-3500</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-2700</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1128,8 +1187,14 @@
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1145,38 +1210,40 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>1900</v>
+      <c r="D20" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>6200</v>
+        <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>-10800</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="I20" s="3">
         <v>2000</v>
       </c>
-      <c r="H20" s="3">
-        <v>800</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>700</v>
+      </c>
+      <c r="K20" s="3">
         <v>1400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>900</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1186,38 +1253,44 @@
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-3800</v>
+      <c r="D21" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>2700</v>
+        <v>-5700</v>
       </c>
       <c r="F21" s="3">
-        <v>-15300</v>
+        <v>-3700</v>
       </c>
       <c r="G21" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-2100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-1900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-1800</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1227,19 +1300,25 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1253,64 +1332,76 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K23" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L23" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-4000</v>
       </c>
-      <c r="E23" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-15600</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N23" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1326,20 +1417,20 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>4</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -1350,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1391,90 +1488,108 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L26" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-4000</v>
       </c>
-      <c r="E26" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N26" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G27" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L27" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-4000</v>
       </c>
-      <c r="E27" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1514,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1555,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1596,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1637,38 +1770,44 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>-1900</v>
+      <c r="D32" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-6200</v>
+        <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>10800</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>10400</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2000</v>
       </c>
-      <c r="H32" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-900</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1678,49 +1817,61 @@
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L33" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-4000</v>
       </c>
-      <c r="E33" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1760,95 +1911,113 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G35" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L35" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-4000</v>
       </c>
-      <c r="E35" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1864,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1881,49 +2052,57 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>12200</v>
+        <v>5500</v>
       </c>
       <c r="E41" s="3">
-        <v>16100</v>
+        <v>8100</v>
       </c>
       <c r="F41" s="3">
-        <v>23100</v>
+        <v>11800</v>
       </c>
       <c r="G41" s="3">
-        <v>14200</v>
+        <v>15500</v>
       </c>
       <c r="H41" s="3">
-        <v>9100</v>
+        <v>22300</v>
       </c>
       <c r="I41" s="3">
+        <v>13800</v>
+      </c>
+      <c r="J41" s="3">
+        <v>8800</v>
+      </c>
+      <c r="K41" s="3">
         <v>3200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>4400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>6400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>2600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1200</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1963,172 +2142,202 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>300</v>
       </c>
-      <c r="E43" s="3">
-        <v>1300</v>
-      </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>500</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>500</v>
+      </c>
+      <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E44" s="3">
-        <v>800</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
         <v>300</v>
       </c>
-      <c r="H44" s="3">
-        <v>800</v>
-      </c>
-      <c r="I44" s="3">
-        <v>200</v>
-      </c>
       <c r="J44" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="K44" s="3">
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
-      </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>4700</v>
+        <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>5300</v>
+        <v>4800</v>
       </c>
       <c r="F45" s="3">
-        <v>3100</v>
+        <v>4500</v>
       </c>
       <c r="G45" s="3">
-        <v>1700</v>
+        <v>5200</v>
       </c>
       <c r="H45" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J45" s="3">
         <v>800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>400</v>
-      </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
-      <c r="N45" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17800</v>
+        <v>11000</v>
       </c>
       <c r="E46" s="3">
-        <v>23500</v>
+        <v>13700</v>
       </c>
       <c r="F46" s="3">
-        <v>27700</v>
+        <v>17200</v>
       </c>
       <c r="G46" s="3">
-        <v>17200</v>
+        <v>22700</v>
       </c>
       <c r="H46" s="3">
-        <v>11000</v>
+        <v>26800</v>
       </c>
       <c r="I46" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J46" s="3">
+        <v>10600</v>
+      </c>
+      <c r="K46" s="3">
         <v>4400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>5500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>7400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>3100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2157,60 +2366,72 @@
         <v>0</v>
       </c>
       <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>200</v>
-      </c>
-      <c r="M47" s="3">
-        <v>100</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7700</v>
+        <v>7000</v>
       </c>
       <c r="E48" s="3">
-        <v>6100</v>
+        <v>7300</v>
       </c>
       <c r="F48" s="3">
-        <v>5600</v>
+        <v>7400</v>
       </c>
       <c r="G48" s="3">
-        <v>4000</v>
+        <v>5900</v>
       </c>
       <c r="H48" s="3">
-        <v>3800</v>
+        <v>5400</v>
       </c>
       <c r="I48" s="3">
+        <v>3900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="K48" s="3">
         <v>3500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>200</v>
-      </c>
-      <c r="M48" s="3">
-        <v>200</v>
-      </c>
-      <c r="N48" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2239,19 +2460,25 @@
         <v>900</v>
       </c>
       <c r="L49" s="3">
+        <v>900</v>
+      </c>
+      <c r="M49" s="3">
+        <v>900</v>
+      </c>
+      <c r="N49" s="3">
         <v>100</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2291,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2332,13 +2565,19 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E52" s="3">
         <v>100</v>
@@ -2358,11 +2597,11 @@
       <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>4</v>
+      <c r="K52" s="3">
+        <v>100</v>
+      </c>
+      <c r="L52" s="3">
+        <v>100</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>4</v>
@@ -2373,8 +2612,14 @@
       <c r="O52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2414,49 +2659,61 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>26500</v>
+        <v>19200</v>
       </c>
       <c r="E54" s="3">
-        <v>30700</v>
+        <v>22000</v>
       </c>
       <c r="F54" s="3">
-        <v>34400</v>
+        <v>25600</v>
       </c>
       <c r="G54" s="3">
-        <v>22200</v>
+        <v>29600</v>
       </c>
       <c r="H54" s="3">
-        <v>15900</v>
+        <v>33200</v>
       </c>
       <c r="I54" s="3">
+        <v>21400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>15300</v>
+      </c>
+      <c r="K54" s="3">
         <v>9000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>9400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1900</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2472,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2489,66 +2748,74 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>300</v>
+      </c>
+      <c r="H57" s="3">
+        <v>500</v>
+      </c>
+      <c r="I57" s="3">
+        <v>900</v>
+      </c>
+      <c r="J57" s="3">
+        <v>900</v>
+      </c>
+      <c r="K57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="M57" s="3">
+        <v>800</v>
+      </c>
+      <c r="N57" s="3">
+        <v>700</v>
+      </c>
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="P57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>500</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="H57" s="3">
-        <v>900</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>800</v>
-      </c>
-      <c r="L57" s="3">
-        <v>700</v>
-      </c>
-      <c r="M57" s="3">
-        <v>400</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F58" s="3">
         <v>500</v>
       </c>
       <c r="G58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -2557,39 +2824,45 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
+      <c r="N58" s="3">
+        <v>0</v>
       </c>
       <c r="O58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="F59" s="3">
-        <v>700</v>
-      </c>
-      <c r="G59" s="3">
-        <v>400</v>
-      </c>
       <c r="H59" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="I59" s="3">
         <v>400</v>
@@ -2601,77 +2874,89 @@
         <v>400</v>
       </c>
       <c r="L59" s="3">
+        <v>400</v>
+      </c>
+      <c r="M59" s="3">
+        <v>400</v>
+      </c>
+      <c r="N59" s="3">
         <v>1100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>1800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="F60" s="3">
-        <v>1600</v>
       </c>
       <c r="G60" s="3">
         <v>1400</v>
       </c>
       <c r="H60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I60" s="3">
         <v>1300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K60" s="3">
         <v>2000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>500</v>
+      </c>
+      <c r="E61" s="3">
+        <v>600</v>
+      </c>
+      <c r="F61" s="3">
+        <v>700</v>
+      </c>
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="E61" s="3">
-        <v>900</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2694,49 +2979,61 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>5700</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
-        <v>7300</v>
+        <v>5100</v>
       </c>
       <c r="F62" s="3">
-        <v>13700</v>
+        <v>5500</v>
       </c>
       <c r="G62" s="3">
-        <v>3600</v>
+        <v>7000</v>
       </c>
       <c r="H62" s="3">
-        <v>1900</v>
+        <v>13200</v>
       </c>
       <c r="I62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>2400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>2700</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2817,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2858,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>8300</v>
+        <v>5200</v>
       </c>
       <c r="E66" s="3">
-        <v>9500</v>
+        <v>8200</v>
       </c>
       <c r="F66" s="3">
-        <v>16400</v>
+        <v>8000</v>
       </c>
       <c r="G66" s="3">
-        <v>4900</v>
+        <v>9200</v>
       </c>
       <c r="H66" s="3">
-        <v>3200</v>
+        <v>15800</v>
       </c>
       <c r="I66" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>5200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>1700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>800</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2916,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2957,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2998,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3039,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3080,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-40700</v>
+        <v>-46500</v>
       </c>
       <c r="E72" s="3">
-        <v>-36700</v>
+        <v>-45100</v>
       </c>
       <c r="F72" s="3">
-        <v>-39100</v>
+        <v>-39300</v>
       </c>
       <c r="G72" s="3">
-        <v>-23600</v>
+        <v>-35400</v>
       </c>
       <c r="H72" s="3">
-        <v>-22000</v>
+        <v>-37800</v>
       </c>
       <c r="I72" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-21300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-19800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-17900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-15900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-12400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-10200</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3162,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3203,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3244,49 +3609,61 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>18300</v>
+        <v>14000</v>
       </c>
       <c r="E76" s="3">
-        <v>21100</v>
+        <v>13800</v>
       </c>
       <c r="F76" s="3">
-        <v>18000</v>
+        <v>17600</v>
       </c>
       <c r="G76" s="3">
-        <v>17200</v>
+        <v>20400</v>
       </c>
       <c r="H76" s="3">
-        <v>12700</v>
+        <v>17300</v>
       </c>
       <c r="I76" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>12200</v>
+      </c>
+      <c r="K76" s="3">
         <v>6000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>4400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>4200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3326,95 +3703,113 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-5900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="G81" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L81" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-3400</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-4000</v>
       </c>
-      <c r="E81" s="3">
-        <v>2500</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-15500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-3400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-4000</v>
-      </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3430,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3445,19 +3842,19 @@
         <v>200</v>
       </c>
       <c r="G83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3471,8 +3868,14 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3512,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3553,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3594,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3635,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3676,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2100</v>
+        <v>-2300</v>
       </c>
       <c r="E89" s="3">
-        <v>-6200</v>
+        <v>-3500</v>
       </c>
       <c r="F89" s="3">
-        <v>-5000</v>
+        <v>-2000</v>
       </c>
       <c r="G89" s="3">
-        <v>-4000</v>
+        <v>-6000</v>
       </c>
       <c r="H89" s="3">
-        <v>-3700</v>
+        <v>-4800</v>
       </c>
       <c r="I89" s="3">
-        <v>-2200</v>
+        <v>-3900</v>
       </c>
       <c r="J89" s="3">
-        <v>-1700</v>
+        <v>-3600</v>
       </c>
       <c r="K89" s="3">
         <v>-2200</v>
       </c>
       <c r="L89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-1100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-1400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3734,49 +4173,57 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F91" s="3">
         <v>-1600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="M91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3816,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3857,49 +4310,61 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1300</v>
-      </c>
       <c r="J94" s="3">
-        <v>-1000</v>
+        <v>-700</v>
       </c>
       <c r="K94" s="3">
         <v>-1300</v>
       </c>
       <c r="L94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3915,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3956,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3997,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4038,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4079,54 +4564,66 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>14000</v>
+        <v>-100</v>
       </c>
       <c r="G100" s="3">
-        <v>9400</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>10500</v>
+        <v>13500</v>
       </c>
       <c r="I100" s="3">
+        <v>9100</v>
+      </c>
+      <c r="J100" s="3">
+        <v>10100</v>
+      </c>
+      <c r="K100" s="3">
         <v>2300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>7300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>2600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -4137,20 +4634,20 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>4</v>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
       </c>
       <c r="J101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4161,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-3900</v>
+        <v>-2600</v>
       </c>
       <c r="E102" s="3">
-        <v>-7000</v>
+        <v>-3700</v>
       </c>
       <c r="F102" s="3">
-        <v>8900</v>
+        <v>-3800</v>
       </c>
       <c r="G102" s="3">
-        <v>5100</v>
+        <v>-6800</v>
       </c>
       <c r="H102" s="3">
-        <v>5900</v>
+        <v>8600</v>
       </c>
       <c r="I102" s="3">
+        <v>4900</v>
+      </c>
+      <c r="J102" s="3">
+        <v>5700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-1200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>3800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-500</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-1300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,82 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -744,16 +748,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>100</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>100</v>
-      </c>
       <c r="G8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
         <v>100</v>
@@ -762,13 +766,13 @@
         <v>100</v>
       </c>
       <c r="K8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>4</v>
+      <c r="M8" s="3">
+        <v>200</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>4</v>
@@ -782,19 +786,22 @@
       <c r="Q8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>200</v>
-      </c>
-      <c r="F9" s="3">
-        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
@@ -814,8 +821,8 @@
       <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="M9" s="3" t="s">
-        <v>4</v>
+      <c r="M9" s="3">
+        <v>100</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>4</v>
@@ -829,8 +836,11 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,7 +848,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
         <v>0</v>
@@ -856,13 +866,13 @@
         <v>0</v>
       </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L10" s="3">
         <v>100</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>4</v>
+      <c r="M10" s="3">
+        <v>100</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>4</v>
@@ -876,8 +886,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,55 +908,59 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J12" s="3">
         <v>1100</v>
       </c>
-      <c r="E12" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>2400</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
+        <v>700</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M12" s="3">
         <v>1200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="N12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O12" s="3">
+        <v>600</v>
+      </c>
+      <c r="P12" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
-        <v>700</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="O12" s="3">
-        <v>500</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="Q12" s="3">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,8 +1006,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1009,11 +1029,11 @@
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1021,12 +1041,12 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>1000</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1036,8 +1056,11 @@
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,7 +1080,7 @@
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>100</v>
@@ -1066,7 +1089,7 @@
         <v>100</v>
       </c>
       <c r="L15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>0</v>
@@ -1083,8 +1106,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,55 +1125,59 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>5100</v>
+        <v>4700</v>
       </c>
       <c r="E17" s="3">
-        <v>6300</v>
+        <v>5300</v>
       </c>
       <c r="F17" s="3">
-        <v>5800</v>
+        <v>6600</v>
       </c>
       <c r="G17" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="H17" s="3">
-        <v>4600</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L17" s="3">
         <v>3600</v>
       </c>
-      <c r="J17" s="3">
-        <v>3000</v>
-      </c>
-      <c r="K17" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,32 +1185,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-6000</v>
+        <v>-5300</v>
       </c>
       <c r="F18" s="3">
-        <v>-5700</v>
+        <v>-6300</v>
       </c>
       <c r="G18" s="3">
-        <v>-3600</v>
+        <v>-5900</v>
       </c>
       <c r="H18" s="3">
-        <v>-4600</v>
+        <v>-3700</v>
       </c>
       <c r="I18" s="3">
-        <v>-3500</v>
+        <v>-4800</v>
       </c>
       <c r="J18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-2800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2700</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1193,8 +1223,11 @@
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1245,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,32 +1255,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
-        <v>1800</v>
-      </c>
       <c r="G20" s="3">
-        <v>6000</v>
+        <v>1900</v>
       </c>
       <c r="H20" s="3">
-        <v>-10400</v>
+        <v>6200</v>
       </c>
       <c r="I20" s="3">
-        <v>2000</v>
+        <v>-10900</v>
       </c>
       <c r="J20" s="3">
+        <v>2100</v>
+      </c>
+      <c r="K20" s="3">
         <v>700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>1400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1293,11 @@
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,32 +1305,32 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-5700</v>
+        <v>-1300</v>
       </c>
       <c r="F21" s="3">
-        <v>-3700</v>
+        <v>-6000</v>
       </c>
       <c r="G21" s="3">
-        <v>2600</v>
+        <v>-3900</v>
       </c>
       <c r="H21" s="3">
-        <v>-14800</v>
+        <v>2700</v>
       </c>
       <c r="I21" s="3">
-        <v>-1500</v>
+        <v>-15500</v>
       </c>
       <c r="J21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1800</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1306,8 +1343,11 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1320,8 +1360,8 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1338,70 +1378,76 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="E23" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="F23" s="3">
-        <v>-3900</v>
+        <v>-6200</v>
       </c>
       <c r="G23" s="3">
-        <v>2400</v>
+        <v>-4100</v>
       </c>
       <c r="H23" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="I23" s="3">
-        <v>-1500</v>
+        <v>-15700</v>
       </c>
       <c r="J23" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1423,8 +1469,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>4</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>4</v>
@@ -1432,8 +1478,8 @@
       <c r="L24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="3">
-        <v>0</v>
+      <c r="M24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N24" s="3">
         <v>0</v>
@@ -1447,8 +1493,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,102 +1543,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="E26" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="F26" s="3">
-        <v>-3900</v>
+        <v>-6100</v>
       </c>
       <c r="G26" s="3">
-        <v>2400</v>
+        <v>-4100</v>
       </c>
       <c r="H26" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1500</v>
+        <v>-15700</v>
       </c>
       <c r="J26" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3400</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="E27" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="F27" s="3">
-        <v>-3900</v>
+        <v>-6100</v>
       </c>
       <c r="G27" s="3">
-        <v>2400</v>
+        <v>-4100</v>
       </c>
       <c r="H27" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="I27" s="3">
-        <v>-1500</v>
+        <v>-15700</v>
       </c>
       <c r="J27" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1693,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1743,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1793,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1843,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,32 +1855,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
-        <v>-1800</v>
-      </c>
       <c r="G32" s="3">
-        <v>-6000</v>
+        <v>-1900</v>
       </c>
       <c r="H32" s="3">
-        <v>10400</v>
+        <v>-6200</v>
       </c>
       <c r="I32" s="3">
-        <v>-2000</v>
+        <v>10900</v>
       </c>
       <c r="J32" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-1400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1823,55 +1893,61 @@
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="E33" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="F33" s="3">
-        <v>-3900</v>
+        <v>-6100</v>
       </c>
       <c r="G33" s="3">
-        <v>2400</v>
+        <v>-4100</v>
       </c>
       <c r="H33" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="I33" s="3">
-        <v>-1500</v>
+        <v>-15700</v>
       </c>
       <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,107 +1993,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="E35" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="F35" s="3">
-        <v>-3900</v>
+        <v>-6100</v>
       </c>
       <c r="G35" s="3">
-        <v>2400</v>
+        <v>-4100</v>
       </c>
       <c r="H35" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="I35" s="3">
-        <v>-1500</v>
+        <v>-15700</v>
       </c>
       <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2120,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,55 +2140,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>5500</v>
+        <v>39000</v>
       </c>
       <c r="E41" s="3">
-        <v>8100</v>
+        <v>5700</v>
       </c>
       <c r="F41" s="3">
-        <v>11800</v>
+        <v>8400</v>
       </c>
       <c r="G41" s="3">
-        <v>15500</v>
+        <v>12300</v>
       </c>
       <c r="H41" s="3">
-        <v>22300</v>
+        <v>16300</v>
       </c>
       <c r="I41" s="3">
-        <v>13800</v>
+        <v>23400</v>
       </c>
       <c r="J41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="K41" s="3">
         <v>8800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>3200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>4400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>6400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>2600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1200</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,8 +2238,11 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2157,72 +2250,75 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
-        <v>1200</v>
+        <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>800</v>
+        <v>1300</v>
       </c>
       <c r="I43" s="3">
         <v>900</v>
       </c>
       <c r="J43" s="3">
+        <v>900</v>
+      </c>
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q43" s="3">
+      <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E44" s="3">
         <v>600</v>
-      </c>
-      <c r="E44" s="3">
-        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>700</v>
+      </c>
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
-        <v>600</v>
-      </c>
       <c r="I44" s="3">
+        <v>700</v>
+      </c>
+      <c r="J44" s="3">
         <v>300</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>200</v>
@@ -2231,19 +2327,22 @@
         <v>200</v>
       </c>
       <c r="N44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2251,93 +2350,99 @@
         <v>4800</v>
       </c>
       <c r="E45" s="3">
-        <v>4800</v>
+        <v>5000</v>
       </c>
       <c r="F45" s="3">
-        <v>4500</v>
+        <v>5000</v>
       </c>
       <c r="G45" s="3">
-        <v>5200</v>
+        <v>4700</v>
       </c>
       <c r="H45" s="3">
-        <v>3000</v>
+        <v>5400</v>
       </c>
       <c r="I45" s="3">
-        <v>1600</v>
+        <v>3200</v>
       </c>
       <c r="J45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K45" s="3">
         <v>800</v>
-      </c>
-      <c r="K45" s="3">
-        <v>600</v>
       </c>
       <c r="L45" s="3">
         <v>600</v>
       </c>
       <c r="M45" s="3">
+        <v>600</v>
+      </c>
+      <c r="N45" s="3">
         <v>700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>200</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>11000</v>
+        <v>45000</v>
       </c>
       <c r="E46" s="3">
-        <v>13700</v>
+        <v>11500</v>
       </c>
       <c r="F46" s="3">
-        <v>17200</v>
+        <v>14400</v>
       </c>
       <c r="G46" s="3">
-        <v>22700</v>
+        <v>18000</v>
       </c>
       <c r="H46" s="3">
-        <v>26800</v>
+        <v>23800</v>
       </c>
       <c r="I46" s="3">
-        <v>16600</v>
+        <v>28000</v>
       </c>
       <c r="J46" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K46" s="3">
         <v>10600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>5500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>7400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2372,66 +2477,72 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
         <v>200</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>100</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7000</v>
+        <v>7500</v>
       </c>
       <c r="E48" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F48" s="3">
-        <v>7400</v>
+        <v>7600</v>
       </c>
       <c r="G48" s="3">
-        <v>5900</v>
+        <v>7700</v>
       </c>
       <c r="H48" s="3">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="I48" s="3">
-        <v>3900</v>
+        <v>5700</v>
       </c>
       <c r="J48" s="3">
+        <v>4100</v>
+      </c>
+      <c r="K48" s="3">
         <v>3700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1000</v>
-      </c>
-      <c r="N48" s="3">
-        <v>200</v>
       </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2466,19 +2577,22 @@
         <v>900</v>
       </c>
       <c r="N49" s="3">
+        <v>900</v>
+      </c>
+      <c r="O49" s="3">
         <v>100</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2638,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,8 +2688,11 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2580,7 +2700,7 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="F52" s="3">
         <v>100</v>
@@ -2603,8 +2723,8 @@
       <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>4</v>
+      <c r="M52" s="3">
+        <v>100</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>4</v>
@@ -2618,8 +2738,11 @@
       <c r="Q52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,55 +2788,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19200</v>
+        <v>53700</v>
       </c>
       <c r="E54" s="3">
-        <v>22000</v>
+        <v>20100</v>
       </c>
       <c r="F54" s="3">
-        <v>25600</v>
+        <v>23000</v>
       </c>
       <c r="G54" s="3">
-        <v>29600</v>
+        <v>26800</v>
       </c>
       <c r="H54" s="3">
-        <v>33200</v>
+        <v>31000</v>
       </c>
       <c r="I54" s="3">
-        <v>21400</v>
+        <v>34700</v>
       </c>
       <c r="J54" s="3">
+        <v>22400</v>
+      </c>
+      <c r="K54" s="3">
         <v>15300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1900</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2860,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,60 +2880,64 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>500</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="M57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="N57" s="3">
+        <v>800</v>
+      </c>
+      <c r="O57" s="3">
+        <v>700</v>
+      </c>
+      <c r="P57" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>500</v>
-      </c>
-      <c r="I57" s="3">
-        <v>900</v>
-      </c>
-      <c r="J57" s="3">
-        <v>900</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="M57" s="3">
-        <v>800</v>
-      </c>
-      <c r="N57" s="3">
-        <v>700</v>
-      </c>
-      <c r="O57" s="3">
-        <v>400</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E58" s="3">
         <v>400</v>
@@ -2818,7 +2952,7 @@
         <v>500</v>
       </c>
       <c r="I58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
@@ -2830,42 +2964,45 @@
         <v>0</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>200</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
-        <v>1500</v>
-      </c>
       <c r="F59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G59" s="3">
         <v>1000</v>
-      </c>
-      <c r="G59" s="3">
-        <v>600</v>
       </c>
       <c r="H59" s="3">
         <v>600</v>
       </c>
       <c r="I59" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="J59" s="3">
         <v>400</v>
@@ -2880,71 +3017,77 @@
         <v>400</v>
       </c>
       <c r="N59" s="3">
+        <v>400</v>
+      </c>
+      <c r="O59" s="3">
         <v>1100</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2400</v>
+        <v>1700</v>
       </c>
       <c r="E60" s="3">
         <v>2500</v>
       </c>
       <c r="F60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1300</v>
       </c>
-      <c r="J60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>2000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1600</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2500</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>800</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
@@ -2956,10 +3099,10 @@
         <v>800</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2985,55 +3128,61 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200</v>
+        <v>7600</v>
       </c>
       <c r="E62" s="3">
-        <v>5100</v>
+        <v>2300</v>
       </c>
       <c r="F62" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="G62" s="3">
-        <v>7000</v>
+        <v>5800</v>
       </c>
       <c r="H62" s="3">
-        <v>13200</v>
+        <v>7400</v>
       </c>
       <c r="I62" s="3">
-        <v>3500</v>
+        <v>13900</v>
       </c>
       <c r="J62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K62" s="3">
         <v>1800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>2400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2700</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3228,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3278,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,55 +3328,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8600</v>
+      </c>
+      <c r="G66" s="3">
+        <v>8400</v>
+      </c>
+      <c r="H66" s="3">
+        <v>9600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J66" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="N66" s="3">
         <v>5200</v>
       </c>
-      <c r="E66" s="3">
-        <v>8200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>8000</v>
-      </c>
-      <c r="G66" s="3">
-        <v>9200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>15800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>4800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>4000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>5200</v>
-      </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>800</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3400,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3448,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3498,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3548,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,55 +3598,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-46500</v>
+        <v>-58600</v>
       </c>
       <c r="E72" s="3">
-        <v>-45100</v>
+        <v>-48700</v>
       </c>
       <c r="F72" s="3">
-        <v>-39300</v>
+        <v>-47300</v>
       </c>
       <c r="G72" s="3">
-        <v>-35400</v>
+        <v>-41100</v>
       </c>
       <c r="H72" s="3">
-        <v>-37800</v>
+        <v>-37100</v>
       </c>
       <c r="I72" s="3">
-        <v>-22800</v>
+        <v>-39600</v>
       </c>
       <c r="J72" s="3">
+        <v>-23900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-21300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-19800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-15900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-12400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-10200</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3698,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3748,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,55 +3798,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>14000</v>
+        <v>43800</v>
       </c>
       <c r="E76" s="3">
-        <v>13800</v>
+        <v>14700</v>
       </c>
       <c r="F76" s="3">
-        <v>17600</v>
+        <v>14400</v>
       </c>
       <c r="G76" s="3">
-        <v>20400</v>
+        <v>18500</v>
       </c>
       <c r="H76" s="3">
-        <v>17300</v>
+        <v>21400</v>
       </c>
       <c r="I76" s="3">
-        <v>16600</v>
+        <v>18200</v>
       </c>
       <c r="J76" s="3">
+        <v>17400</v>
+      </c>
+      <c r="K76" s="3">
         <v>12200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>6000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>4400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1100</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,107 +3898,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1400</v>
+        <v>-9800</v>
       </c>
       <c r="E81" s="3">
-        <v>-5900</v>
+        <v>-1500</v>
       </c>
       <c r="F81" s="3">
-        <v>-3900</v>
+        <v>-6100</v>
       </c>
       <c r="G81" s="3">
-        <v>2400</v>
+        <v>-4100</v>
       </c>
       <c r="H81" s="3">
-        <v>-15000</v>
+        <v>2500</v>
       </c>
       <c r="I81" s="3">
-        <v>-1500</v>
+        <v>-15700</v>
       </c>
       <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4025,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3848,7 +4047,7 @@
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>100</v>
@@ -3857,7 +4056,7 @@
         <v>100</v>
       </c>
       <c r="L83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3874,8 +4073,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4123,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4173,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4223,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4273,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,55 +4323,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2300</v>
+        <v>-4400</v>
       </c>
       <c r="E89" s="3">
-        <v>-3500</v>
+        <v>-2500</v>
       </c>
       <c r="F89" s="3">
-        <v>-2000</v>
+        <v>-3700</v>
       </c>
       <c r="G89" s="3">
-        <v>-6000</v>
+        <v>-2100</v>
       </c>
       <c r="H89" s="3">
-        <v>-4800</v>
+        <v>-6300</v>
       </c>
       <c r="I89" s="3">
-        <v>-3900</v>
+        <v>-5100</v>
       </c>
       <c r="J89" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-3600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,55 +4395,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-1600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-800</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,55 +4543,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-1600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="Q94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4615,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4663,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4713,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4763,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,64 +4813,70 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>37700</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="H100" s="3">
-        <v>13500</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>9100</v>
+        <v>14100</v>
       </c>
       <c r="J100" s="3">
+        <v>9500</v>
+      </c>
+      <c r="K100" s="3">
         <v>10100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>2300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>7300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2600</v>
-      </c>
-      <c r="O100" s="3">
-        <v>300</v>
       </c>
       <c r="P100" s="3">
         <v>300</v>
       </c>
       <c r="Q100" s="3">
+        <v>300</v>
+      </c>
+      <c r="R100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-200</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
@@ -4640,8 +4889,8 @@
       <c r="I101" s="3">
         <v>0</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>4</v>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>4</v>
@@ -4649,8 +4898,8 @@
       <c r="L101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4664,51 +4913,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2600</v>
+        <v>33300</v>
       </c>
       <c r="E102" s="3">
-        <v>-3700</v>
+        <v>-2700</v>
       </c>
       <c r="F102" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="G102" s="3">
-        <v>-6800</v>
+        <v>-3900</v>
       </c>
       <c r="H102" s="3">
-        <v>8600</v>
+        <v>-7100</v>
       </c>
       <c r="I102" s="3">
-        <v>4900</v>
+        <v>9000</v>
       </c>
       <c r="J102" s="3">
+        <v>5200</v>
+      </c>
+      <c r="K102" s="3">
         <v>5700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-1200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>3800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-500</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,93 +665,97 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>4</v>
+      <c r="D8" s="3">
+        <v>200</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>100</v>
-      </c>
-      <c r="F8" s="3">
-        <v>200</v>
       </c>
       <c r="G8" s="3">
         <v>200</v>
@@ -760,7 +764,7 @@
         <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>100</v>
@@ -769,13 +773,13 @@
         <v>100</v>
       </c>
       <c r="L8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
+      <c r="N8" s="3">
+        <v>200</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>4</v>
@@ -789,22 +793,25 @@
       <c r="R8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>200</v>
-      </c>
-      <c r="G9" s="3">
-        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
@@ -824,8 +831,8 @@
       <c r="M9" s="3">
         <v>100</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>4</v>
+      <c r="N9" s="3">
+        <v>100</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>4</v>
@@ -839,25 +846,28 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>4</v>
+      <c r="D10" s="3">
+        <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -869,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="L10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>4</v>
+      <c r="N10" s="3">
+        <v>100</v>
       </c>
       <c r="O10" s="3" t="s">
         <v>4</v>
@@ -889,8 +899,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -909,58 +922,62 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E12" s="3">
         <v>1500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>1200</v>
       </c>
-      <c r="F12" s="3">
-        <v>2200</v>
-      </c>
       <c r="G12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H12" s="3">
         <v>2500</v>
       </c>
-      <c r="H12" s="3">
-        <v>1700</v>
-      </c>
       <c r="I12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J12" s="3">
         <v>1300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>1100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1200</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>600</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>500</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1000</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,16 +1026,19 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-400</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1032,11 +1052,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1044,12 +1064,12 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>1000</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,13 +1079,16 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
@@ -1083,7 +1106,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K15" s="3">
         <v>100</v>
@@ -1092,7 +1115,7 @@
         <v>100</v>
       </c>
       <c r="M15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1109,8 +1132,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1126,94 +1152,98 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>4700</v>
+        <v>7000</v>
       </c>
       <c r="E17" s="3">
-        <v>5300</v>
+        <v>4300</v>
       </c>
       <c r="F17" s="3">
+        <v>5400</v>
+      </c>
+      <c r="G17" s="3">
         <v>6600</v>
       </c>
-      <c r="G17" s="3">
-        <v>6100</v>
-      </c>
       <c r="H17" s="3">
+        <v>6200</v>
+      </c>
+      <c r="I17" s="3">
         <v>3900</v>
       </c>
-      <c r="I17" s="3">
-        <v>4800</v>
-      </c>
       <c r="J17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>4</v>
+      <c r="D18" s="3">
+        <v>-6800</v>
       </c>
       <c r="E18" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-5300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-6300</v>
-      </c>
       <c r="G18" s="3">
-        <v>-5900</v>
+        <v>-6400</v>
       </c>
       <c r="H18" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="I18" s="3">
-        <v>-4800</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-3700</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-2800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3400</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2700</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,8 +1256,11 @@
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1246,44 +1279,45 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>4</v>
+      <c r="D20" s="3">
+        <v>-4700</v>
       </c>
       <c r="E20" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="F20" s="3">
         <v>3800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1900</v>
       </c>
-      <c r="H20" s="3">
-        <v>6200</v>
-      </c>
       <c r="I20" s="3">
-        <v>-10900</v>
+        <v>6300</v>
       </c>
       <c r="J20" s="3">
+        <v>-11100</v>
+      </c>
+      <c r="K20" s="3">
         <v>2100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>1400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1296,44 +1330,47 @@
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>4</v>
+      <c r="D21" s="3">
+        <v>-11000</v>
       </c>
       <c r="E21" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-6000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>2700</v>
       </c>
-      <c r="I21" s="3">
-        <v>-15500</v>
-      </c>
       <c r="J21" s="3">
+        <v>-15700</v>
+      </c>
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-2100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1346,8 +1383,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1363,8 +1403,8 @@
       <c r="G22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
+      <c r="H22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -1381,73 +1421,79 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" s="3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9800</v>
+        <v>-11500</v>
       </c>
       <c r="E23" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-6200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-4100</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>2500</v>
       </c>
-      <c r="I23" s="3">
-        <v>-15700</v>
-      </c>
       <c r="J23" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-2100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-3400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1472,8 +1518,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>4</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>4</v>
@@ -1481,8 +1527,8 @@
       <c r="M24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O24" s="3">
         <v>0</v>
@@ -1496,8 +1542,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1546,108 +1595,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9800</v>
+        <v>-11500</v>
       </c>
       <c r="E26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1500</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G26" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H26" s="3">
         <v>-4100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2500</v>
       </c>
-      <c r="I26" s="3">
-        <v>-15700</v>
-      </c>
       <c r="J26" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-2100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-3400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9800</v>
+        <v>-11500</v>
       </c>
       <c r="E27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1500</v>
       </c>
-      <c r="F27" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G27" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H27" s="3">
         <v>-4100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2500</v>
       </c>
-      <c r="I27" s="3">
-        <v>-15700</v>
-      </c>
       <c r="J27" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-2100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-3400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1696,8 +1754,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1746,8 +1807,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1796,8 +1860,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1846,44 +1913,47 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>4</v>
+      <c r="D32" s="3">
+        <v>4700</v>
       </c>
       <c r="E32" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F32" s="3">
         <v>-3800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1900</v>
       </c>
-      <c r="H32" s="3">
-        <v>-6200</v>
-      </c>
       <c r="I32" s="3">
-        <v>10900</v>
+        <v>-6300</v>
       </c>
       <c r="J32" s="3">
+        <v>11100</v>
+      </c>
+      <c r="K32" s="3">
         <v>-2100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-1400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1896,58 +1966,64 @@
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9800</v>
+        <v>-11500</v>
       </c>
       <c r="E33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-1500</v>
       </c>
-      <c r="F33" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G33" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H33" s="3">
         <v>-4100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2500</v>
       </c>
-      <c r="I33" s="3">
-        <v>-15700</v>
-      </c>
       <c r="J33" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-2100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-3400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1996,113 +2072,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9800</v>
+        <v>-11500</v>
       </c>
       <c r="E35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-1500</v>
       </c>
-      <c r="F35" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G35" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H35" s="3">
         <v>-4100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2500</v>
       </c>
-      <c r="I35" s="3">
-        <v>-15700</v>
-      </c>
       <c r="J35" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-2100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-3400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2121,8 +2206,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2141,58 +2227,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>39000</v>
+        <v>77800</v>
       </c>
       <c r="E41" s="3">
-        <v>5700</v>
+        <v>39500</v>
       </c>
       <c r="F41" s="3">
-        <v>8400</v>
+        <v>5800</v>
       </c>
       <c r="G41" s="3">
-        <v>12300</v>
+        <v>8500</v>
       </c>
       <c r="H41" s="3">
-        <v>16300</v>
+        <v>12500</v>
       </c>
       <c r="I41" s="3">
-        <v>23400</v>
+        <v>16500</v>
       </c>
       <c r="J41" s="3">
+        <v>23600</v>
+      </c>
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>3200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>4400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>6400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>2600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1200</v>
       </c>
-      <c r="Q41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="R41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2241,8 +2331,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2253,75 +2346,78 @@
         <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>1300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>900</v>
       </c>
       <c r="J43" s="3">
         <v>900</v>
       </c>
       <c r="K43" s="3">
+        <v>900</v>
+      </c>
+      <c r="L43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>100</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R43" s="3">
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E44" s="3">
         <v>1000</v>
-      </c>
-      <c r="E44" s="3">
-        <v>600</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>700</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>200</v>
@@ -2330,119 +2426,128 @@
         <v>200</v>
       </c>
       <c r="O44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="G45" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="E45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G45" s="3">
-        <v>4700</v>
-      </c>
-      <c r="H45" s="3">
-        <v>5400</v>
-      </c>
       <c r="I45" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J45" s="3">
         <v>3200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>800</v>
-      </c>
-      <c r="L45" s="3">
-        <v>600</v>
       </c>
       <c r="M45" s="3">
         <v>600</v>
       </c>
       <c r="N45" s="3">
+        <v>600</v>
+      </c>
+      <c r="O45" s="3">
         <v>700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>200</v>
       </c>
-      <c r="Q45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R45" s="3">
+      <c r="R45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>45000</v>
+        <v>84400</v>
       </c>
       <c r="E46" s="3">
-        <v>11500</v>
+        <v>45500</v>
       </c>
       <c r="F46" s="3">
-        <v>14400</v>
+        <v>11600</v>
       </c>
       <c r="G46" s="3">
-        <v>18000</v>
+        <v>14500</v>
       </c>
       <c r="H46" s="3">
-        <v>23800</v>
+        <v>18200</v>
       </c>
       <c r="I46" s="3">
-        <v>28000</v>
+        <v>24100</v>
       </c>
       <c r="J46" s="3">
+        <v>28400</v>
+      </c>
+      <c r="K46" s="3">
         <v>17400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>10600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>5500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>7400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>3100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R46" s="3">
+      <c r="R46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2480,86 +2585,92 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
         <v>200</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>100</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>7500</v>
+        <v>9000</v>
       </c>
       <c r="E48" s="3">
+        <v>7600</v>
+      </c>
+      <c r="F48" s="3">
         <v>7400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>7600</v>
       </c>
       <c r="G48" s="3">
         <v>7700</v>
       </c>
       <c r="H48" s="3">
-        <v>6200</v>
+        <v>7800</v>
       </c>
       <c r="I48" s="3">
-        <v>5700</v>
+        <v>6300</v>
       </c>
       <c r="J48" s="3">
+        <v>5800</v>
+      </c>
+      <c r="K48" s="3">
         <v>4100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1000</v>
-      </c>
-      <c r="O48" s="3">
-        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
         <v>900</v>
@@ -2580,19 +2691,22 @@
         <v>900</v>
       </c>
       <c r="O49" s="3">
+        <v>900</v>
+      </c>
+      <c r="P49" s="3">
         <v>100</v>
       </c>
-      <c r="P49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2641,8 +2755,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2691,19 +2808,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G52" s="3">
         <v>100</v>
@@ -2726,8 +2846,8 @@
       <c r="M52" s="3">
         <v>100</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>4</v>
+      <c r="N52" s="3">
+        <v>100</v>
       </c>
       <c r="O52" s="3" t="s">
         <v>4</v>
@@ -2741,8 +2861,11 @@
       <c r="R52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2791,58 +2914,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>53700</v>
+        <v>94600</v>
       </c>
       <c r="E54" s="3">
-        <v>20100</v>
+        <v>54300</v>
       </c>
       <c r="F54" s="3">
-        <v>23000</v>
+        <v>20300</v>
       </c>
       <c r="G54" s="3">
-        <v>26800</v>
+        <v>23300</v>
       </c>
       <c r="H54" s="3">
-        <v>31000</v>
+        <v>27100</v>
       </c>
       <c r="I54" s="3">
-        <v>34700</v>
+        <v>31400</v>
       </c>
       <c r="J54" s="3">
+        <v>35100</v>
+      </c>
+      <c r="K54" s="3">
         <v>22400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>15300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1900</v>
       </c>
-      <c r="Q54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R54" s="3">
+      <c r="R54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2861,8 +2990,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2881,58 +3011,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
-        <v>1100</v>
-      </c>
       <c r="F57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>800</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>400</v>
       </c>
-      <c r="Q57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2940,10 +3074,10 @@
         <v>500</v>
       </c>
       <c r="E58" s="3">
+        <v>500</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
-      </c>
-      <c r="F58" s="3">
-        <v>500</v>
       </c>
       <c r="G58" s="3">
         <v>500</v>
@@ -2955,7 +3089,7 @@
         <v>500</v>
       </c>
       <c r="J58" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2967,45 +3101,48 @@
         <v>0</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>1200</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>200</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
-      </c>
-      <c r="J59" s="3">
-        <v>400</v>
       </c>
       <c r="K59" s="3">
         <v>400</v>
@@ -3020,93 +3157,99 @@
         <v>400</v>
       </c>
       <c r="O59" s="3">
+        <v>400</v>
+      </c>
+      <c r="P59" s="3">
         <v>1100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2600</v>
       </c>
-      <c r="G60" s="3">
-        <v>1800</v>
-      </c>
       <c r="H60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I60" s="3">
         <v>1400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="3">
         <v>1600</v>
       </c>
-      <c r="J60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>800</v>
       </c>
-      <c r="Q60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>600</v>
       </c>
       <c r="F61" s="3">
+        <v>600</v>
+      </c>
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1100</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -3131,58 +3274,64 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>7600</v>
+        <v>8200</v>
       </c>
       <c r="E62" s="3">
-        <v>2300</v>
+        <v>7700</v>
       </c>
       <c r="F62" s="3">
+        <v>2400</v>
+      </c>
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7400</v>
       </c>
-      <c r="I62" s="3">
-        <v>13900</v>
-      </c>
       <c r="J62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="K62" s="3">
         <v>3600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1800</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>2400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>2700</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3231,8 +3380,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3281,8 +3433,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3331,58 +3486,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>9900</v>
+        <v>11700</v>
       </c>
       <c r="E66" s="3">
-        <v>5400</v>
+        <v>10000</v>
       </c>
       <c r="F66" s="3">
-        <v>8600</v>
+        <v>5500</v>
       </c>
       <c r="G66" s="3">
+        <v>8700</v>
+      </c>
+      <c r="H66" s="3">
         <v>8400</v>
       </c>
-      <c r="H66" s="3">
-        <v>9600</v>
-      </c>
       <c r="I66" s="3">
-        <v>16600</v>
+        <v>9800</v>
       </c>
       <c r="J66" s="3">
+        <v>16800</v>
+      </c>
+      <c r="K66" s="3">
         <v>5000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>5200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>800</v>
       </c>
-      <c r="Q66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3401,8 +3562,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3451,8 +3613,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3501,8 +3666,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3551,8 +3719,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3601,58 +3772,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-58600</v>
+        <v>-70700</v>
       </c>
       <c r="E72" s="3">
-        <v>-48700</v>
+        <v>-59200</v>
       </c>
       <c r="F72" s="3">
-        <v>-47300</v>
+        <v>-49300</v>
       </c>
       <c r="G72" s="3">
-        <v>-41100</v>
+        <v>-47800</v>
       </c>
       <c r="H72" s="3">
-        <v>-37100</v>
+        <v>-41600</v>
       </c>
       <c r="I72" s="3">
-        <v>-39600</v>
+        <v>-37500</v>
       </c>
       <c r="J72" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-23900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-21300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-19800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-17900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-15900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-12400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R72" s="3">
+      <c r="R72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3701,8 +3878,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3751,8 +3931,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3801,58 +3984,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43800</v>
+        <v>82900</v>
       </c>
       <c r="E76" s="3">
-        <v>14700</v>
+        <v>44300</v>
       </c>
       <c r="F76" s="3">
-        <v>14400</v>
+        <v>14800</v>
       </c>
       <c r="G76" s="3">
-        <v>18500</v>
+        <v>14600</v>
       </c>
       <c r="H76" s="3">
-        <v>21400</v>
+        <v>18700</v>
       </c>
       <c r="I76" s="3">
-        <v>18200</v>
+        <v>21600</v>
       </c>
       <c r="J76" s="3">
+        <v>18400</v>
+      </c>
+      <c r="K76" s="3">
         <v>17400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>12200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>6000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>4400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3901,113 +4090,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9800</v>
+        <v>-11500</v>
       </c>
       <c r="E81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-1500</v>
       </c>
-      <c r="F81" s="3">
-        <v>-6100</v>
-      </c>
       <c r="G81" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="H81" s="3">
         <v>-4100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2500</v>
       </c>
-      <c r="I81" s="3">
-        <v>-15700</v>
-      </c>
       <c r="J81" s="3">
+        <v>-15900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-2100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-3400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4026,13 +4224,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4050,7 +4249,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -4059,7 +4258,7 @@
         <v>100</v>
       </c>
       <c r="M83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>0</v>
@@ -4076,8 +4275,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4126,8 +4328,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4176,8 +4381,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4226,8 +4434,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4276,8 +4487,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4326,58 +4540,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-4400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-2500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-3700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-6300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-4100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-3600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4396,58 +4616,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-900</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-800</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4496,8 +4720,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4546,58 +4773,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
-        <v>-1600</v>
-      </c>
       <c r="H94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-800</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1300</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="R94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4616,8 +4849,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4666,8 +4900,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4716,8 +4953,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4766,8 +5006,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4816,58 +5059,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>37700</v>
+        <v>44200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>38100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>14100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>14300</v>
+      </c>
+      <c r="K100" s="3">
         <v>9500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>10100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>7300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2600</v>
-      </c>
-      <c r="P100" s="3">
-        <v>300</v>
       </c>
       <c r="Q100" s="3">
         <v>300</v>
       </c>
       <c r="R100" s="3">
+        <v>300</v>
+      </c>
+      <c r="S100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4875,11 +5124,11 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>-200</v>
       </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -4892,8 +5141,8 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>4</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>4</v>
@@ -4901,8 +5150,8 @@
       <c r="M101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -4916,54 +5165,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>33300</v>
+        <v>38300</v>
       </c>
       <c r="E102" s="3">
+        <v>33700</v>
+      </c>
+      <c r="F102" s="3">
         <v>-2700</v>
-      </c>
-      <c r="F102" s="3">
-        <v>-3900</v>
       </c>
       <c r="G102" s="3">
         <v>-3900</v>
       </c>
       <c r="H102" s="3">
-        <v>-7100</v>
+        <v>-4000</v>
       </c>
       <c r="I102" s="3">
-        <v>9000</v>
+        <v>-7200</v>
       </c>
       <c r="J102" s="3">
+        <v>9100</v>
+      </c>
+      <c r="K102" s="3">
         <v>5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>3800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>1400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-500</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-1300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,109 +665,112 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>200</v>
-      </c>
       <c r="H8" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="I8" s="3">
         <v>200</v>
       </c>
       <c r="J8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -776,13 +779,13 @@
         <v>100</v>
       </c>
       <c r="M8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3" t="s">
-        <v>4</v>
+      <c r="O8" s="3">
+        <v>200</v>
       </c>
       <c r="P8" s="3" t="s">
         <v>4</v>
@@ -796,31 +799,34 @@
       <c r="S8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="E9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F9" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>200</v>
       </c>
       <c r="H9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
         <v>100</v>
       </c>
       <c r="J9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -834,8 +840,8 @@
       <c r="N9" s="3">
         <v>100</v>
       </c>
-      <c r="O9" s="3" t="s">
-        <v>4</v>
+      <c r="O9" s="3">
+        <v>100</v>
       </c>
       <c r="P9" s="3" t="s">
         <v>4</v>
@@ -849,28 +855,31 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
         <v>-100</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
       </c>
       <c r="H10" s="3">
         <v>100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -882,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3" t="s">
-        <v>4</v>
+      <c r="O10" s="3">
+        <v>100</v>
       </c>
       <c r="P10" s="3" t="s">
         <v>4</v>
@@ -902,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -923,61 +935,65 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1600</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G12" s="3">
         <v>1500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
+        <v>2900</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M12" s="3">
+        <v>700</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O12" s="3">
         <v>1200</v>
       </c>
-      <c r="G12" s="3">
-        <v>2300</v>
-      </c>
-      <c r="H12" s="3">
-        <v>2500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="K12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L12" s="3">
-        <v>700</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>600</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>500</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>1000</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,19 +1045,22 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E14" s="3">
-        <v>-400</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>-500</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
@@ -1055,11 +1074,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1067,12 +1086,12 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>1000</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1082,16 +1101,19 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
@@ -1100,16 +1122,16 @@
         <v>200</v>
       </c>
       <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>300</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
-      </c>
-      <c r="I15" s="3">
-        <v>200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>200</v>
-      </c>
-      <c r="K15" s="3">
-        <v>100</v>
       </c>
       <c r="L15" s="3">
         <v>100</v>
@@ -1118,7 +1140,7 @@
         <v>100</v>
       </c>
       <c r="N15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1135,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1153,100 +1178,104 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>27500</v>
+      </c>
+      <c r="E17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="F17" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G17" s="3">
         <v>7000</v>
       </c>
-      <c r="E17" s="3">
-        <v>4300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>5400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>6600</v>
-      </c>
       <c r="H17" s="3">
-        <v>6200</v>
+        <v>8600</v>
       </c>
       <c r="I17" s="3">
-        <v>3900</v>
+        <v>8000</v>
       </c>
       <c r="J17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="K17" s="3">
         <v>4900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6800</v>
+        <v>-26900</v>
       </c>
       <c r="E18" s="3">
-        <v>-4300</v>
+        <v>-8800</v>
       </c>
       <c r="F18" s="3">
-        <v>-5300</v>
+        <v>-5600</v>
       </c>
       <c r="G18" s="3">
-        <v>-6400</v>
+        <v>-6900</v>
       </c>
       <c r="H18" s="3">
-        <v>-6000</v>
+        <v>-8300</v>
       </c>
       <c r="I18" s="3">
-        <v>-3800</v>
+        <v>-7800</v>
       </c>
       <c r="J18" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="K18" s="3">
         <v>-4800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-2800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2700</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1259,8 +1288,11 @@
       <c r="S18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1280,47 +1312,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-4700</v>
+        <v>-36200</v>
       </c>
       <c r="E20" s="3">
-        <v>-5600</v>
+        <v>-6100</v>
       </c>
       <c r="F20" s="3">
-        <v>3800</v>
+        <v>-7300</v>
       </c>
       <c r="G20" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H20" s="3">
         <v>200</v>
       </c>
-      <c r="H20" s="3">
-        <v>1900</v>
-      </c>
       <c r="I20" s="3">
-        <v>6300</v>
+        <v>2500</v>
       </c>
       <c r="J20" s="3">
+        <v>8200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-11100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>1400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1333,47 +1366,50 @@
       <c r="S20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-11000</v>
+        <v>-61500</v>
       </c>
       <c r="E21" s="3">
-        <v>-9800</v>
+        <v>-14300</v>
       </c>
       <c r="F21" s="3">
-        <v>-1300</v>
+        <v>-12700</v>
       </c>
       <c r="G21" s="3">
-        <v>-6000</v>
+        <v>-1700</v>
       </c>
       <c r="H21" s="3">
-        <v>-3900</v>
+        <v>-7800</v>
       </c>
       <c r="I21" s="3">
-        <v>2700</v>
+        <v>-5100</v>
       </c>
       <c r="J21" s="3">
+        <v>3600</v>
+      </c>
+      <c r="K21" s="3">
         <v>-15700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-2100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1900</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1386,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1406,8 +1445,8 @@
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
+      <c r="I22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1424,76 +1463,82 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="3">
         <v>100</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-11500</v>
+        <v>-63100</v>
       </c>
       <c r="E23" s="3">
-        <v>-10000</v>
+        <v>-14900</v>
       </c>
       <c r="F23" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="G23" s="3">
-        <v>-6200</v>
+        <v>-1900</v>
       </c>
       <c r="H23" s="3">
-        <v>-4100</v>
+        <v>-8100</v>
       </c>
       <c r="I23" s="3">
-        <v>2500</v>
+        <v>-5300</v>
       </c>
       <c r="J23" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-15900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-2100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-3400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1510,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -1521,8 +1566,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>4</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>4</v>
@@ -1530,8 +1575,8 @@
       <c r="N24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O24" s="3">
-        <v>0</v>
+      <c r="O24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P24" s="3">
         <v>0</v>
@@ -1545,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1598,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-11500</v>
+        <v>-63000</v>
       </c>
       <c r="E26" s="3">
-        <v>-10000</v>
+        <v>-14900</v>
       </c>
       <c r="F26" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="G26" s="3">
-        <v>-6200</v>
+        <v>-1900</v>
       </c>
       <c r="H26" s="3">
-        <v>-4100</v>
+        <v>-8100</v>
       </c>
       <c r="I26" s="3">
-        <v>2500</v>
+        <v>-5300</v>
       </c>
       <c r="J26" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-15900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-2100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-3400</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-11500</v>
+        <v>-63000</v>
       </c>
       <c r="E27" s="3">
-        <v>-10000</v>
+        <v>-14900</v>
       </c>
       <c r="F27" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="G27" s="3">
-        <v>-6200</v>
+        <v>-1900</v>
       </c>
       <c r="H27" s="3">
-        <v>-4100</v>
+        <v>-8100</v>
       </c>
       <c r="I27" s="3">
-        <v>2500</v>
+        <v>-5300</v>
       </c>
       <c r="J27" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-15900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-2100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-3400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1757,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1810,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1863,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1916,47 +1982,50 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>4700</v>
+        <v>36200</v>
       </c>
       <c r="E32" s="3">
-        <v>5600</v>
+        <v>6100</v>
       </c>
       <c r="F32" s="3">
-        <v>-3800</v>
+        <v>7300</v>
       </c>
       <c r="G32" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="H32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>-1900</v>
-      </c>
       <c r="I32" s="3">
-        <v>-6300</v>
+        <v>-2500</v>
       </c>
       <c r="J32" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K32" s="3">
         <v>11100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-1400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P32" s="3" t="s">
         <v>4</v>
       </c>
@@ -1969,61 +2038,67 @@
       <c r="S32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-11500</v>
+        <v>-63000</v>
       </c>
       <c r="E33" s="3">
-        <v>-10000</v>
+        <v>-14900</v>
       </c>
       <c r="F33" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="G33" s="3">
-        <v>-6200</v>
+        <v>-1900</v>
       </c>
       <c r="H33" s="3">
-        <v>-4100</v>
+        <v>-8100</v>
       </c>
       <c r="I33" s="3">
-        <v>2500</v>
+        <v>-5300</v>
       </c>
       <c r="J33" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-15900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-2100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-3400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2075,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-11500</v>
+        <v>-63000</v>
       </c>
       <c r="E35" s="3">
-        <v>-10000</v>
+        <v>-14900</v>
       </c>
       <c r="F35" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="G35" s="3">
-        <v>-6200</v>
+        <v>-1900</v>
       </c>
       <c r="H35" s="3">
-        <v>-4100</v>
+        <v>-8100</v>
       </c>
       <c r="I35" s="3">
-        <v>2500</v>
+        <v>-5300</v>
       </c>
       <c r="J35" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-15900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-2100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-3400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2207,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2228,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>77800</v>
+        <v>129500</v>
       </c>
       <c r="E41" s="3">
-        <v>39500</v>
+        <v>101100</v>
       </c>
       <c r="F41" s="3">
-        <v>5800</v>
+        <v>51300</v>
       </c>
       <c r="G41" s="3">
-        <v>8500</v>
+        <v>7500</v>
       </c>
       <c r="H41" s="3">
-        <v>12500</v>
+        <v>11100</v>
       </c>
       <c r="I41" s="3">
-        <v>16500</v>
+        <v>16200</v>
       </c>
       <c r="J41" s="3">
+        <v>21400</v>
+      </c>
+      <c r="K41" s="3">
         <v>23600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>3200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>4400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>6400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>2600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>1200</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="S41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2334,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2343,84 +2435,87 @@
         <v>200</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>200</v>
       </c>
       <c r="G43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>1300</v>
+        <v>400</v>
       </c>
       <c r="J43" s="3">
-        <v>900</v>
+        <v>1700</v>
       </c>
       <c r="K43" s="3">
         <v>900</v>
       </c>
       <c r="L43" s="3">
+        <v>900</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>100</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
-      <c r="R43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
+        <v>800</v>
+      </c>
+      <c r="I44" s="3">
+        <v>900</v>
+      </c>
+      <c r="J44" s="3">
         <v>1100</v>
       </c>
-      <c r="E44" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F44" s="3">
-        <v>600</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>700</v>
       </c>
-      <c r="I44" s="3">
-        <v>800</v>
-      </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
+        <v>300</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>200</v>
       </c>
       <c r="N44" s="3">
         <v>200</v>
@@ -2429,125 +2524,134 @@
         <v>200</v>
       </c>
       <c r="P44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5300</v>
+        <v>5000</v>
       </c>
       <c r="E45" s="3">
-        <v>4900</v>
+        <v>6900</v>
       </c>
       <c r="F45" s="3">
-        <v>5100</v>
+        <v>6300</v>
       </c>
       <c r="G45" s="3">
-        <v>5100</v>
+        <v>6600</v>
       </c>
       <c r="H45" s="3">
-        <v>4800</v>
+        <v>6600</v>
       </c>
       <c r="I45" s="3">
-        <v>5500</v>
+        <v>6200</v>
       </c>
       <c r="J45" s="3">
+        <v>7100</v>
+      </c>
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>800</v>
-      </c>
-      <c r="M45" s="3">
-        <v>600</v>
       </c>
       <c r="N45" s="3">
         <v>600</v>
       </c>
       <c r="O45" s="3">
+        <v>600</v>
+      </c>
+      <c r="P45" s="3">
         <v>700</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>200</v>
       </c>
-      <c r="R45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S45" s="3">
+      <c r="S45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>84400</v>
+        <v>135300</v>
       </c>
       <c r="E46" s="3">
-        <v>45500</v>
+        <v>109600</v>
       </c>
       <c r="F46" s="3">
-        <v>11600</v>
+        <v>59100</v>
       </c>
       <c r="G46" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="H46" s="3">
-        <v>18200</v>
+        <v>18900</v>
       </c>
       <c r="I46" s="3">
-        <v>24100</v>
+        <v>23700</v>
       </c>
       <c r="J46" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K46" s="3">
         <v>28400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>17400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>10600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>4400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>5500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>7400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>3100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1500</v>
       </c>
-      <c r="R46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S46" s="3">
+      <c r="S46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2588,72 +2692,78 @@
         <v>0</v>
       </c>
       <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
         <v>200</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>100</v>
       </c>
-      <c r="R47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>9000</v>
+        <v>9300</v>
       </c>
       <c r="E48" s="3">
-        <v>7600</v>
+        <v>11700</v>
       </c>
       <c r="F48" s="3">
-        <v>7400</v>
+        <v>9900</v>
       </c>
       <c r="G48" s="3">
-        <v>7700</v>
+        <v>9700</v>
       </c>
       <c r="H48" s="3">
-        <v>7800</v>
+        <v>10000</v>
       </c>
       <c r="I48" s="3">
-        <v>6300</v>
+        <v>10200</v>
       </c>
       <c r="J48" s="3">
+        <v>8100</v>
+      </c>
+      <c r="K48" s="3">
         <v>5800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>4100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1000</v>
-      </c>
-      <c r="P48" s="3">
-        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2661,22 +2771,22 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="F49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="H49" s="3">
-        <v>1000</v>
+        <v>1200</v>
       </c>
       <c r="I49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="J49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="K49" s="3">
         <v>900</v>
@@ -2694,19 +2804,22 @@
         <v>900</v>
       </c>
       <c r="P49" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q49" s="3">
         <v>100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2758,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2811,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2823,13 +2942,13 @@
         <v>300</v>
       </c>
       <c r="F52" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="G52" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="H52" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>100</v>
@@ -2849,8 +2968,8 @@
       <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>4</v>
+      <c r="O52" s="3">
+        <v>100</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>4</v>
@@ -2864,8 +2983,11 @@
       <c r="S52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2917,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>94600</v>
+        <v>145800</v>
       </c>
       <c r="E54" s="3">
-        <v>54300</v>
+        <v>122800</v>
       </c>
       <c r="F54" s="3">
-        <v>20300</v>
+        <v>70600</v>
       </c>
       <c r="G54" s="3">
-        <v>23300</v>
+        <v>26400</v>
       </c>
       <c r="H54" s="3">
-        <v>27100</v>
+        <v>30300</v>
       </c>
       <c r="I54" s="3">
-        <v>31400</v>
+        <v>35200</v>
       </c>
       <c r="J54" s="3">
+        <v>40700</v>
+      </c>
+      <c r="K54" s="3">
         <v>35100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>22400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>15300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>9000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1900</v>
       </c>
-      <c r="R54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S54" s="3">
+      <c r="S54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2991,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3012,88 +3141,92 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>1000</v>
       </c>
       <c r="E57" s="3">
         <v>500</v>
       </c>
       <c r="F57" s="3">
+        <v>700</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>500</v>
+      </c>
+      <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
+        <v>500</v>
+      </c>
+      <c r="L57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M57" s="3">
+        <v>900</v>
+      </c>
+      <c r="N57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O57" s="3">
         <v>1200</v>
       </c>
-      <c r="G57" s="3">
-        <v>500</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="P57" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>700</v>
+      </c>
+      <c r="R57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
-      </c>
-      <c r="M57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>800</v>
-      </c>
-      <c r="P57" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>400</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S57" s="3">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>700</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
-        <v>500</v>
-      </c>
-      <c r="F58" s="3">
-        <v>400</v>
-      </c>
-      <c r="G58" s="3">
-        <v>500</v>
-      </c>
-      <c r="H58" s="3">
-        <v>500</v>
-      </c>
-      <c r="I58" s="3">
-        <v>500</v>
-      </c>
-      <c r="J58" s="3">
-        <v>500</v>
-      </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
       <c r="L58" s="3">
         <v>0</v>
       </c>
@@ -3104,48 +3237,51 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
         <v>1200</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>200</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="F59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G59" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="I59" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>800</v>
+      </c>
+      <c r="K59" s="3">
         <v>700</v>
-      </c>
-      <c r="F59" s="3">
-        <v>900</v>
-      </c>
-      <c r="G59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="H59" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>600</v>
-      </c>
-      <c r="J59" s="3">
-        <v>700</v>
-      </c>
-      <c r="K59" s="3">
-        <v>400</v>
       </c>
       <c r="L59" s="3">
         <v>400</v>
@@ -3160,72 +3296,78 @@
         <v>400</v>
       </c>
       <c r="P59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3000</v>
+        <v>4600</v>
       </c>
       <c r="E60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="L60" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="O60" s="3">
+        <v>1600</v>
+      </c>
+      <c r="P60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="Q60" s="3">
         <v>1700</v>
       </c>
-      <c r="K60" s="3">
-        <v>1400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>800</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S60" s="3">
+      <c r="S60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3233,25 +3375,25 @@
         <v>500</v>
       </c>
       <c r="E61" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F61" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="G61" s="3">
         <v>700</v>
       </c>
       <c r="H61" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="I61" s="3">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="J61" s="3">
         <v>1100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3277,61 +3419,67 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>8200</v>
+        <v>18000</v>
       </c>
       <c r="E62" s="3">
-        <v>7700</v>
+        <v>10600</v>
       </c>
       <c r="F62" s="3">
+        <v>10000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>7100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>7600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>9700</v>
+      </c>
+      <c r="K62" s="3">
+        <v>14000</v>
+      </c>
+      <c r="L62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="M62" s="3">
+        <v>1800</v>
+      </c>
+      <c r="N62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O62" s="3">
         <v>2400</v>
       </c>
-      <c r="G62" s="3">
-        <v>5400</v>
-      </c>
-      <c r="H62" s="3">
-        <v>5800</v>
-      </c>
-      <c r="I62" s="3">
-        <v>7400</v>
-      </c>
-      <c r="J62" s="3">
-        <v>14000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="L62" s="3">
-        <v>1800</v>
-      </c>
-      <c r="M62" s="3">
-        <v>1000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2700</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3383,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3436,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3489,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>11700</v>
+        <v>23100</v>
       </c>
       <c r="E66" s="3">
-        <v>10000</v>
+        <v>15200</v>
       </c>
       <c r="F66" s="3">
-        <v>5500</v>
+        <v>13000</v>
       </c>
       <c r="G66" s="3">
-        <v>8700</v>
+        <v>7100</v>
       </c>
       <c r="H66" s="3">
-        <v>8400</v>
+        <v>11300</v>
       </c>
       <c r="I66" s="3">
-        <v>9800</v>
+        <v>11000</v>
       </c>
       <c r="J66" s="3">
+        <v>12700</v>
+      </c>
+      <c r="K66" s="3">
         <v>16800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>5200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>800</v>
       </c>
-      <c r="R66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S66" s="3">
+      <c r="S66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3563,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3616,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3669,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3722,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3775,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-70700</v>
+        <v>-110300</v>
       </c>
       <c r="E72" s="3">
-        <v>-59200</v>
+        <v>-91900</v>
       </c>
       <c r="F72" s="3">
-        <v>-49300</v>
+        <v>-77000</v>
       </c>
       <c r="G72" s="3">
-        <v>-47800</v>
+        <v>-64000</v>
       </c>
       <c r="H72" s="3">
-        <v>-41600</v>
+        <v>-62100</v>
       </c>
       <c r="I72" s="3">
-        <v>-37500</v>
+        <v>-54100</v>
       </c>
       <c r="J72" s="3">
+        <v>-48700</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-23900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-21300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-19800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-17900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-15900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-10200</v>
       </c>
-      <c r="R72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S72" s="3">
+      <c r="S72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3881,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3934,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3987,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>82900</v>
+        <v>122700</v>
       </c>
       <c r="E76" s="3">
-        <v>44300</v>
+        <v>107700</v>
       </c>
       <c r="F76" s="3">
-        <v>14800</v>
+        <v>57600</v>
       </c>
       <c r="G76" s="3">
-        <v>14600</v>
+        <v>19300</v>
       </c>
       <c r="H76" s="3">
-        <v>18700</v>
+        <v>19000</v>
       </c>
       <c r="I76" s="3">
-        <v>21600</v>
+        <v>24300</v>
       </c>
       <c r="J76" s="3">
+        <v>28100</v>
+      </c>
+      <c r="K76" s="3">
         <v>18400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>17400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>12200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>6000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>4400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S76" s="3">
+      <c r="S76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4093,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-11500</v>
+        <v>-63000</v>
       </c>
       <c r="E81" s="3">
-        <v>-10000</v>
+        <v>-14900</v>
       </c>
       <c r="F81" s="3">
-        <v>-1500</v>
+        <v>-12900</v>
       </c>
       <c r="G81" s="3">
-        <v>-6200</v>
+        <v>-1900</v>
       </c>
       <c r="H81" s="3">
-        <v>-4100</v>
+        <v>-8100</v>
       </c>
       <c r="I81" s="3">
-        <v>2500</v>
+        <v>-5300</v>
       </c>
       <c r="J81" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-15900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-2100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-3400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4225,16 +4422,17 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>500</v>
+        <v>1600</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="F83" s="3">
         <v>200</v>
@@ -4243,16 +4441,16 @@
         <v>200</v>
       </c>
       <c r="H83" s="3">
+        <v>300</v>
+      </c>
+      <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>300</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
-      </c>
-      <c r="I83" s="3">
-        <v>200</v>
-      </c>
-      <c r="J83" s="3">
-        <v>200</v>
-      </c>
-      <c r="K83" s="3">
-        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>100</v>
@@ -4261,7 +4459,7 @@
         <v>100</v>
       </c>
       <c r="N83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4278,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4331,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4384,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4437,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4490,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4543,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-5600</v>
+        <v>-22500</v>
       </c>
       <c r="E89" s="3">
-        <v>-4400</v>
+        <v>-7200</v>
       </c>
       <c r="F89" s="3">
-        <v>-2500</v>
+        <v>-5700</v>
       </c>
       <c r="G89" s="3">
-        <v>-3700</v>
+        <v>-3200</v>
       </c>
       <c r="H89" s="3">
-        <v>-2100</v>
+        <v>-4800</v>
       </c>
       <c r="I89" s="3">
-        <v>-6300</v>
+        <v>-2800</v>
       </c>
       <c r="J89" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-5100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-4100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-3600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-2200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4617,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-400</v>
+        <v>-1400</v>
       </c>
       <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
-        <v>-1700</v>
-      </c>
       <c r="I91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P91" s="3">
         <v>-800</v>
       </c>
-      <c r="J91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-900</v>
-      </c>
-      <c r="O91" s="3">
-        <v>-800</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
       <c r="R91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4723,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4776,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-400</v>
+        <v>-1400</v>
       </c>
       <c r="E94" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L94" s="3">
         <v>-200</v>
       </c>
-      <c r="H94" s="3">
-        <v>-1700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-800</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="N94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4850,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4903,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4956,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5009,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5062,78 +5304,84 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>44200</v>
+        <v>138900</v>
       </c>
       <c r="E100" s="3">
-        <v>38100</v>
+        <v>57400</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>49600</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>14300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>9500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>7300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2600</v>
-      </c>
-      <c r="Q100" s="3">
-        <v>300</v>
       </c>
       <c r="R100" s="3">
         <v>300</v>
       </c>
       <c r="S100" s="3">
+        <v>300</v>
+      </c>
+      <c r="T100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>5800</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="G101" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="H101" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I101" s="3">
         <v>0</v>
@@ -5144,8 +5392,8 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>4</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>4</v>
@@ -5153,8 +5401,8 @@
       <c r="N101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5168,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>38300</v>
+        <v>120900</v>
       </c>
       <c r="E102" s="3">
-        <v>33700</v>
+        <v>49800</v>
       </c>
       <c r="F102" s="3">
-        <v>-2700</v>
+        <v>43700</v>
       </c>
       <c r="G102" s="3">
-        <v>-3900</v>
+        <v>-3600</v>
       </c>
       <c r="H102" s="3">
-        <v>-4000</v>
+        <v>-5100</v>
       </c>
       <c r="I102" s="3">
-        <v>-7200</v>
+        <v>-5200</v>
       </c>
       <c r="J102" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="K102" s="3">
         <v>9100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-1200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-2100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>3800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>1400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-500</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-1300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>200</v>
+      </c>
+      <c r="E8" s="3">
         <v>600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>300</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
-      </c>
-      <c r="I8" s="3">
-        <v>200</v>
       </c>
       <c r="J8" s="3">
         <v>200</v>
       </c>
       <c r="K8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L8" s="3">
         <v>100</v>
@@ -782,13 +786,13 @@
         <v>100</v>
       </c>
       <c r="N8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>4</v>
+      <c r="P8" s="3">
+        <v>200</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>4</v>
@@ -802,34 +806,37 @@
       <c r="T8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>200</v>
+      </c>
+      <c r="E9" s="3">
         <v>700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>300</v>
       </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>100</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
+        <v>100</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
-      </c>
-      <c r="I9" s="3">
-        <v>100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
       </c>
       <c r="L9" s="3">
         <v>100</v>
@@ -843,8 +850,8 @@
       <c r="O9" s="3">
         <v>100</v>
       </c>
-      <c r="P9" s="3" t="s">
-        <v>4</v>
+      <c r="P9" s="3">
+        <v>100</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>4</v>
@@ -858,31 +865,34 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>-100</v>
       </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
       <c r="F10" s="3">
         <v>0</v>
       </c>
       <c r="G10" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>100</v>
       </c>
       <c r="J10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>0</v>
@@ -894,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3" t="s">
-        <v>4</v>
+      <c r="P10" s="3">
+        <v>100</v>
       </c>
       <c r="Q10" s="3" t="s">
         <v>4</v>
@@ -914,8 +924,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,64 +949,68 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>1900</v>
       </c>
-      <c r="G12" s="3">
-        <v>1500</v>
-      </c>
       <c r="H12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="I12" s="3">
         <v>2900</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>700</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1200</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>600</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>500</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>1000</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,23 +1065,26 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>-300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-500</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1077,11 +1097,11 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
@@ -1089,12 +1109,12 @@
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3">
         <v>1000</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1104,25 +1124,28 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
-      </c>
-      <c r="F15" s="3">
-        <v>200</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
       <c r="H15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I15" s="3">
         <v>300</v>
@@ -1131,10 +1154,10 @@
         <v>300</v>
       </c>
       <c r="K15" s="3">
+        <v>300</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
-      </c>
-      <c r="L15" s="3">
-        <v>100</v>
       </c>
       <c r="M15" s="3">
         <v>100</v>
@@ -1143,7 +1166,7 @@
         <v>100</v>
       </c>
       <c r="O15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P15" s="3">
         <v>0</v>
@@ -1160,8 +1183,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,106 +1205,110 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E17" s="3">
         <v>27500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5600</v>
       </c>
-      <c r="G17" s="3">
-        <v>7000</v>
-      </c>
       <c r="H17" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-26900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-6900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-5100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-8300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-7800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-4900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-2800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-3400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-2700</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1291,8 +1321,11 @@
       <c r="T18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,50 +1346,51 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E20" s="3">
         <v>-36200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-6100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-7300</v>
       </c>
-      <c r="G20" s="3">
-        <v>5000</v>
-      </c>
       <c r="H20" s="3">
+        <v>3700</v>
+      </c>
+      <c r="I20" s="3">
         <v>200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>8200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-11100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>2100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>1400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>900</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1369,50 +1403,53 @@
       <c r="T20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-61500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-14300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-12700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-1700</v>
-      </c>
       <c r="H21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="I21" s="3">
         <v>-7800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-5100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>3600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-15700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-2100</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-1900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1425,8 +1462,11 @@
       <c r="T21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1448,8 +1488,8 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
+      <c r="J22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1466,79 +1506,85 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q22" s="3">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3">
         <v>100</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-63100</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-12900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I23" s="3">
         <v>-8100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>3300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-2100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-2200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1555,11 +1601,11 @@
         <v>0</v>
       </c>
       <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
@@ -1569,8 +1615,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>4</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>4</v>
@@ -1578,8 +1624,8 @@
       <c r="O24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
@@ -1593,8 +1639,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1698,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-63000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-14900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5300</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>3300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-2100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-2200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-63000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-14900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-12900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5300</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>3300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-2100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-2200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1875,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1934,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1993,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,50 +2052,53 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="E32" s="3">
         <v>36200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>6100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>7300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-5000</v>
-      </c>
       <c r="H32" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-8200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>11100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-2100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-1400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-900</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2041,64 +2111,70 @@
       <c r="T32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-63000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-14900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-12900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5300</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>3300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-2100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-2200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2229,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-63000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-14900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-12900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5300</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>3300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-2100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-2200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2377,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2400,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>260400</v>
+      </c>
+      <c r="E41" s="3">
         <v>129500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>101100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>51300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>7500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>11100</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>21400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>23600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>14400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>8800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>3200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>4400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>6400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>2600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1200</v>
       </c>
-      <c r="S41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T41" s="3">
+      <c r="T41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,64 +2516,70 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>300</v>
-      </c>
-      <c r="F43" s="3">
-        <v>200</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>400</v>
       </c>
       <c r="J43" s="3">
+        <v>400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1700</v>
-      </c>
-      <c r="K43" s="3">
-        <v>900</v>
       </c>
       <c r="L43" s="3">
         <v>900</v>
       </c>
       <c r="M43" s="3">
+        <v>900</v>
+      </c>
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>100</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T43" s="3">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+      <c r="T43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2491,34 +2587,34 @@
         <v>600</v>
       </c>
       <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>1400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>1300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>800</v>
       </c>
       <c r="H44" s="3">
         <v>800</v>
       </c>
       <c r="I44" s="3">
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>1100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>700</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>200</v>
       </c>
       <c r="O44" s="3">
         <v>200</v>
@@ -2527,131 +2623,140 @@
         <v>200</v>
       </c>
       <c r="Q44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E45" s="3">
         <v>5000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>6900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6300</v>
-      </c>
-      <c r="G45" s="3">
-        <v>6600</v>
       </c>
       <c r="H45" s="3">
         <v>6600</v>
       </c>
       <c r="I45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J45" s="3">
         <v>6200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>3200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>800</v>
-      </c>
-      <c r="N45" s="3">
-        <v>600</v>
       </c>
       <c r="O45" s="3">
         <v>600</v>
       </c>
       <c r="P45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q45" s="3">
         <v>700</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>400</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>200</v>
       </c>
-      <c r="S45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T45" s="3">
+      <c r="T45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>274800</v>
+      </c>
+      <c r="E46" s="3">
         <v>135300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>109600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>59100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>15100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>31300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>28400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>17400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>10600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>4400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>5500</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>7400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1500</v>
       </c>
-      <c r="S46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T46" s="3">
+      <c r="T46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2695,75 +2800,81 @@
         <v>0</v>
       </c>
       <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
         <v>200</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>100</v>
       </c>
-      <c r="S47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T47" s="3">
+      <c r="T47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E48" s="3">
         <v>9300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>11700</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>9900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>10000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>8100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>4100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1000</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2771,7 +2882,7 @@
         <v>1000</v>
       </c>
       <c r="E49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="F49" s="3">
         <v>1200</v>
@@ -2789,7 +2900,7 @@
         <v>1200</v>
       </c>
       <c r="K49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="L49" s="3">
         <v>900</v>
@@ -2807,19 +2918,22 @@
         <v>900</v>
       </c>
       <c r="Q49" s="3">
+        <v>900</v>
+      </c>
+      <c r="R49" s="3">
         <v>100</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2988,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3047,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2939,19 +3059,19 @@
         <v>200</v>
       </c>
       <c r="E52" s="3">
+        <v>200</v>
+      </c>
+      <c r="F52" s="3">
         <v>300</v>
-      </c>
-      <c r="F52" s="3">
-        <v>400</v>
       </c>
       <c r="G52" s="3">
         <v>400</v>
       </c>
       <c r="H52" s="3">
+        <v>400</v>
+      </c>
+      <c r="I52" s="3">
         <v>200</v>
-      </c>
-      <c r="I52" s="3">
-        <v>100</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2971,8 +3091,8 @@
       <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
+      <c r="P52" s="3">
+        <v>100</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>4</v>
@@ -2986,8 +3106,11 @@
       <c r="T52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3165,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>286500</v>
+      </c>
+      <c r="E54" s="3">
         <v>145800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>122800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>70600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>26400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>30300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>40700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>22400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>15300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>9000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>9400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1900</v>
       </c>
-      <c r="S54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T54" s="3">
+      <c r="T54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3249,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,75 +3272,79 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
         <v>1000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>800</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>400</v>
       </c>
-      <c r="S57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T57" s="3">
+      <c r="T57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>700</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -3225,11 +3359,11 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
       <c r="M58" s="3">
         <v>0</v>
       </c>
@@ -3240,51 +3374,54 @@
         <v>0</v>
       </c>
       <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>1200</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>200</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E59" s="3">
         <v>3000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>700</v>
-      </c>
-      <c r="L59" s="3">
-        <v>400</v>
       </c>
       <c r="M59" s="3">
         <v>400</v>
@@ -3299,104 +3436,110 @@
         <v>400</v>
       </c>
       <c r="Q59" s="3">
+        <v>400</v>
+      </c>
+      <c r="R59" s="3">
         <v>1100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>3800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>800</v>
       </c>
-      <c r="S60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T60" s="3">
+      <c r="T60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>700</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1000</v>
-      </c>
-      <c r="J61" s="3">
-        <v>1100</v>
       </c>
       <c r="K61" s="3">
         <v>1100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3422,64 +3565,70 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>11800</v>
+      </c>
+      <c r="E62" s="3">
         <v>18000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>10600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>3100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>9700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>14000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>2400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2700</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3683,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3742,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3801,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>17300</v>
+      </c>
+      <c r="E66" s="3">
         <v>23100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>15200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>13000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>7100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>11300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>16800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>5200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>800</v>
       </c>
-      <c r="S66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="T66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3885,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3942,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4001,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4060,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4119,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-110500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-91900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-77000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-64000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-48700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-40000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-23900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-21300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-19800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-17900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-12400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-10200</v>
       </c>
-      <c r="S72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T72" s="3">
+      <c r="T72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4237,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4296,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4355,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>269200</v>
+      </c>
+      <c r="E76" s="3">
         <v>122700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>107700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>57600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>19300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>24300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>28100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>18400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>17400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>12200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>6000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T76" s="3">
+      <c r="T76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4473,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-63000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-14900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-12900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5300</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>3300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-2100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-2200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,25 +4621,26 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>600</v>
-      </c>
-      <c r="F83" s="3">
-        <v>200</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
       <c r="H83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I83" s="3">
         <v>300</v>
@@ -4450,10 +4649,10 @@
         <v>300</v>
       </c>
       <c r="K83" s="3">
+        <v>300</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
-      </c>
-      <c r="L83" s="3">
-        <v>100</v>
       </c>
       <c r="M83" s="3">
         <v>100</v>
@@ -4462,7 +4661,7 @@
         <v>100</v>
       </c>
       <c r="O83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4479,8 +4678,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4737,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4796,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4855,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4914,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4973,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-22500</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7200</v>
       </c>
-      <c r="F89" s="3">
-        <v>-5700</v>
-      </c>
       <c r="G89" s="3">
-        <v>-3200</v>
+        <v>-6600</v>
       </c>
       <c r="H89" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-4800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-2800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-8200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-5100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-4100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-3600</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-2200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-1700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-1100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-1400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5057,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="K91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="J91" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-900</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-800</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
         <v>0</v>
       </c>
       <c r="S91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5173,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5232,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="N94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="T94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5316,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5373,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5432,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5491,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,85 +5550,91 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E100" s="3">
         <v>138900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>57400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>49600</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>14300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>9500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>2300</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>7300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2600</v>
-      </c>
-      <c r="R100" s="3">
-        <v>300</v>
       </c>
       <c r="S100" s="3">
         <v>300</v>
       </c>
       <c r="T100" s="3">
+        <v>300</v>
+      </c>
+      <c r="U100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>5800</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
       </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
       <c r="J101" s="3">
         <v>0</v>
       </c>
@@ -5395,8 +5644,8 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>4</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>4</v>
@@ -5404,8 +5653,8 @@
       <c r="O101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5419,60 +5668,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>130900</v>
+      </c>
+      <c r="E102" s="3">
         <v>120900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>49800</v>
       </c>
-      <c r="F102" s="3">
-        <v>43700</v>
-      </c>
       <c r="G102" s="3">
-        <v>-3600</v>
+        <v>43400</v>
       </c>
       <c r="H102" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-9300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>9100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>5200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-1200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>3800</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>1400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-500</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-1300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,126 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>300</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>300</v>
-      </c>
-      <c r="J8" s="3">
-        <v>200</v>
       </c>
       <c r="K8" s="3">
         <v>200</v>
       </c>
       <c r="L8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3">
         <v>100</v>
@@ -789,13 +793,13 @@
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3" t="s">
-        <v>4</v>
+      <c r="Q8" s="3">
+        <v>200</v>
       </c>
       <c r="R8" s="3" t="s">
         <v>4</v>
@@ -809,37 +813,40 @@
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3">
         <v>200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>300</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
       <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
       </c>
       <c r="M9" s="3">
         <v>100</v>
@@ -853,8 +860,8 @@
       <c r="P9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>4</v>
+      <c r="Q9" s="3">
+        <v>100</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>4</v>
@@ -868,8 +875,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -877,11 +887,11 @@
         <v>0</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>-100</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
@@ -889,13 +899,13 @@
         <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>100</v>
       </c>
       <c r="K10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L10" s="3">
         <v>0</v>
@@ -907,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>4</v>
+      <c r="Q10" s="3">
+        <v>100</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>4</v>
@@ -927,8 +937,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -950,67 +963,71 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E12" s="3">
         <v>2300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2100</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1900</v>
       </c>
       <c r="H12" s="3">
         <v>1400</v>
       </c>
       <c r="I12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J12" s="3">
         <v>2900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1100</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>700</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>1300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="Q12" s="3">
         <v>1200</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>600</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>500</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1000</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1068,26 +1085,29 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>-300</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-500</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1100,11 +1120,11 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1112,12 +1132,12 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>1000</v>
       </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1127,28 +1147,31 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E15" s="3">
         <v>900</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>200</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
       <c r="I15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>300</v>
@@ -1157,10 +1180,10 @@
         <v>300</v>
       </c>
       <c r="L15" s="3">
+        <v>300</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>100</v>
       </c>
       <c r="N15" s="3">
         <v>100</v>
@@ -1169,7 +1192,7 @@
         <v>100</v>
       </c>
       <c r="P15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -1186,8 +1209,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1206,112 +1232,116 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>15600</v>
+      </c>
+      <c r="E17" s="3">
         <v>9100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>27500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>9100</v>
       </c>
-      <c r="G17" s="3">
-        <v>5600</v>
-      </c>
       <c r="H17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I17" s="3">
         <v>5200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>8600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>8000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>4900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-15300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-8900</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-26900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8800</v>
       </c>
-      <c r="G18" s="3">
-        <v>-5600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-4400</v>
+      </c>
+      <c r="I18" s="3">
         <v>-5100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-8300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-7800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-4900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-4800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-2800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-3400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Q18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1324,8 +1354,11 @@
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,53 +1380,54 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E20" s="3">
         <v>8700</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-36200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-6100</v>
       </c>
-      <c r="G20" s="3">
-        <v>-7300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="I20" s="3">
         <v>3700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>8200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-11100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>2100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>1400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>900</v>
       </c>
-      <c r="Q20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1406,53 +1440,56 @@
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-61500</v>
       </c>
-      <c r="F21" s="3">
-        <v>-14300</v>
-      </c>
       <c r="G21" s="3">
-        <v>-12700</v>
+        <v>-14200</v>
       </c>
       <c r="H21" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-1300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>3600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-15700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-2100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1465,8 +1502,11 @@
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1491,8 +1531,8 @@
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1509,82 +1549,88 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S22" s="3">
         <v>100</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-63100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-1400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-8100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-5300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>3300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-15900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-2100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-2000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-3400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-2200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-1200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1604,11 +1650,11 @@
         <v>0</v>
       </c>
       <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
         <v>-100</v>
       </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1618,8 +1664,8 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>4</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>4</v>
@@ -1627,8 +1673,8 @@
       <c r="P24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
@@ -1642,8 +1688,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1701,126 +1750,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-63000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-14900</v>
       </c>
-      <c r="G26" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-1400</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-5300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>3300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-15900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-2100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-3400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-2200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-1200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-63000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-14900</v>
       </c>
-      <c r="G27" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I27" s="3">
         <v>-1400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-5300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>3300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-15900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-2100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-3400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-2200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-1200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1878,8 +1936,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1937,8 +1998,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1996,8 +2060,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2055,53 +2122,56 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-8700</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>36200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>6100</v>
       </c>
-      <c r="G32" s="3">
-        <v>7300</v>
-      </c>
       <c r="H32" s="3">
+        <v>4900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-3700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-8200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>11100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-2100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-1400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-900</v>
       </c>
-      <c r="Q32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2114,67 +2184,73 @@
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-63000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-14900</v>
       </c>
-      <c r="G33" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I33" s="3">
         <v>-1400</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-8100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-5300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>3300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-15900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-2100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-3400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-2200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-1200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2232,131 +2308,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-63000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-14900</v>
       </c>
-      <c r="G35" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I35" s="3">
         <v>-1400</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-8100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-5300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>3300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-15900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-2100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-3400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-2200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-1200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2378,8 +2463,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2401,67 +2487,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>250000</v>
+      </c>
+      <c r="E41" s="3">
         <v>260400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>129500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>101100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>51300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>7500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>11100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>16200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>21400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>23600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>14400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>8800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>3200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>4400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>6400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>2600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1200</v>
       </c>
-      <c r="T41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U41" s="3">
+      <c r="U41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2519,67 +2609,73 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>1700</v>
-      </c>
-      <c r="L43" s="3">
-        <v>900</v>
       </c>
       <c r="M43" s="3">
         <v>900</v>
       </c>
       <c r="N43" s="3">
+        <v>900</v>
+      </c>
+      <c r="O43" s="3">
         <v>300</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U43" s="3">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2590,34 +2686,34 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>1400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>1300</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
       <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>700</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>700</v>
-      </c>
-      <c r="O44" s="3">
-        <v>200</v>
       </c>
       <c r="P44" s="3">
         <v>200</v>
@@ -2626,137 +2722,146 @@
         <v>200</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>13500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>6900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6300</v>
-      </c>
-      <c r="H45" s="3">
-        <v>6600</v>
       </c>
       <c r="I45" s="3">
         <v>6600</v>
       </c>
       <c r="J45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K45" s="3">
         <v>6200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>3200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>800</v>
-      </c>
-      <c r="O45" s="3">
-        <v>600</v>
       </c>
       <c r="P45" s="3">
         <v>600</v>
       </c>
       <c r="Q45" s="3">
+        <v>600</v>
+      </c>
+      <c r="R45" s="3">
         <v>700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>400</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>200</v>
       </c>
-      <c r="T45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U45" s="3">
+      <c r="U45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>263200</v>
+      </c>
+      <c r="E46" s="3">
         <v>274800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>135300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>109600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>59100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>15100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>23700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>31300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>28400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>17400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>10600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>4400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>5500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>7400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>3100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1500</v>
       </c>
-      <c r="T46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U46" s="3">
+      <c r="U46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2803,78 +2908,84 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
         <v>200</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>100</v>
       </c>
-      <c r="T47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E48" s="3">
         <v>10500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>9300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>11700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>9900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>9700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>10000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>10200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>8100</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>4100</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1000</v>
-      </c>
-      <c r="R48" s="3">
-        <v>200</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="T48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2885,7 +2996,7 @@
         <v>1000</v>
       </c>
       <c r="F49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="G49" s="3">
         <v>1200</v>
@@ -2903,7 +3014,7 @@
         <v>1200</v>
       </c>
       <c r="L49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="M49" s="3">
         <v>900</v>
@@ -2921,19 +3032,22 @@
         <v>900</v>
       </c>
       <c r="R49" s="3">
+        <v>900</v>
+      </c>
+      <c r="S49" s="3">
         <v>100</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
-      </c>
-      <c r="T49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2991,8 +3105,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3050,8 +3167,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3062,19 +3182,19 @@
         <v>200</v>
       </c>
       <c r="F52" s="3">
+        <v>200</v>
+      </c>
+      <c r="G52" s="3">
         <v>300</v>
-      </c>
-      <c r="G52" s="3">
-        <v>400</v>
       </c>
       <c r="H52" s="3">
         <v>400</v>
       </c>
       <c r="I52" s="3">
+        <v>400</v>
+      </c>
+      <c r="J52" s="3">
         <v>200</v>
-      </c>
-      <c r="J52" s="3">
-        <v>100</v>
       </c>
       <c r="K52" s="3">
         <v>100</v>
@@ -3094,8 +3214,8 @@
       <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>4</v>
+      <c r="Q52" s="3">
+        <v>100</v>
       </c>
       <c r="R52" s="3" t="s">
         <v>4</v>
@@ -3109,8 +3229,11 @@
       <c r="U52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3168,67 +3291,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>275200</v>
+      </c>
+      <c r="E54" s="3">
         <v>286500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>145800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>122800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>70600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>26400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>30300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>40700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>35100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>22400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>15300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>8400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>9400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1900</v>
       </c>
-      <c r="T54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U54" s="3">
+      <c r="U54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3250,8 +3379,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3273,81 +3403,85 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>800</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>600</v>
+      </c>
+      <c r="E58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>700</v>
-      </c>
-      <c r="G58" s="3">
-        <v>600</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
@@ -3362,11 +3496,11 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
       <c r="N58" s="3">
         <v>0</v>
       </c>
@@ -3377,54 +3511,57 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>1200</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>200</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U58" s="3">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>1800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>3000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>700</v>
-      </c>
-      <c r="M59" s="3">
-        <v>400</v>
       </c>
       <c r="N59" s="3">
         <v>400</v>
@@ -3439,78 +3576,84 @@
         <v>400</v>
       </c>
       <c r="R59" s="3">
+        <v>400</v>
+      </c>
+      <c r="S59" s="3">
         <v>1100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>200</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E60" s="3">
         <v>4000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>800</v>
       </c>
-      <c r="T60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U60" s="3">
+      <c r="U60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3518,31 +3661,31 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>700</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1000</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1100</v>
       </c>
       <c r="L61" s="3">
         <v>1100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -3568,67 +3711,73 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E62" s="3">
         <v>11800</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>18000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>10600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>10000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>3100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>7100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>7600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>9700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>14000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>3600</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1800</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>1000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>2400</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>2700</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="T62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="U62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3686,8 +3835,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3745,8 +3897,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3804,67 +3959,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E66" s="3">
         <v>17300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>23100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>15200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>13000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>7100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>16800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>5000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>5200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>800</v>
       </c>
-      <c r="T66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U66" s="3">
+      <c r="U66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3886,8 +4047,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3945,8 +4107,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4004,8 +4169,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4063,8 +4231,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4122,67 +4293,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-110500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-110300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-91900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-77000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-48700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-40000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-23900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-21300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-19800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-15900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-12400</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-10200</v>
       </c>
-      <c r="T72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U72" s="3">
+      <c r="U72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4240,8 +4417,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4299,8 +4479,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4358,67 +4541,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>259900</v>
+      </c>
+      <c r="E76" s="3">
         <v>269200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>122700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>107700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>57600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>19300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>19000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>24300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>28100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>18400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>17400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>12200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>6000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>4200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="T76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U76" s="3">
+      <c r="U76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4476,131 +4665,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-63000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-14900</v>
       </c>
-      <c r="G81" s="3">
-        <v>-12900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="I81" s="3">
         <v>-1400</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-8100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-5300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>3300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-15900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-2100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-3400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-2200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-1200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4622,28 +4820,29 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>600</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J83" s="3">
         <v>300</v>
@@ -4652,10 +4851,10 @@
         <v>300</v>
       </c>
       <c r="L83" s="3">
+        <v>300</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>100</v>
       </c>
       <c r="N83" s="3">
         <v>100</v>
@@ -4664,7 +4863,7 @@
         <v>100</v>
       </c>
       <c r="P83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4681,8 +4880,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4740,8 +4942,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4799,8 +5004,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4858,8 +5066,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4917,8 +5128,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4976,67 +5190,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-22500</v>
       </c>
-      <c r="F89" s="3">
-        <v>-7200</v>
-      </c>
       <c r="G89" s="3">
-        <v>-6600</v>
+        <v>-9700</v>
       </c>
       <c r="H89" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2400</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-4800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-2800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-8200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-4100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-3600</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-2200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-1100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-1400</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5058,67 +5278,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-1400</v>
       </c>
-      <c r="F91" s="3">
-        <v>-500</v>
-      </c>
       <c r="G91" s="3">
-        <v>-300</v>
+        <v>-600</v>
       </c>
       <c r="H91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-2100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-700</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-1300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-900</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-800</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5176,8 +5400,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5235,67 +5462,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-500</v>
-      </c>
       <c r="G94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="L94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="P94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="R94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N94" s="3">
-        <v>-700</v>
-      </c>
-      <c r="O94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="P94" s="3">
-        <v>-1000</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="R94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="U94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5317,8 +5550,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5376,8 +5610,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5435,8 +5672,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5494,8 +5734,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5553,67 +5796,73 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>500</v>
+      </c>
+      <c r="E100" s="3">
         <v>147600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>138900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>57400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>49600</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>14300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>9500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>10100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>2300</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>7300</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>2600</v>
-      </c>
-      <c r="S100" s="3">
-        <v>300</v>
       </c>
       <c r="T100" s="3">
         <v>300</v>
       </c>
       <c r="U100" s="3">
+        <v>300</v>
+      </c>
+      <c r="V100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5621,23 +5870,23 @@
         <v>0</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>5800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
+        <v>-200</v>
+      </c>
+      <c r="H101" s="3">
+        <v>400</v>
+      </c>
+      <c r="I101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
-        <v>100</v>
-      </c>
-      <c r="H101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I101" s="3">
-        <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
       <c r="K101" s="3">
         <v>0</v>
       </c>
@@ -5647,8 +5896,8 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>4</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>4</v>
@@ -5656,8 +5905,8 @@
       <c r="P101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5671,63 +5920,69 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-10300</v>
+      </c>
+      <c r="E102" s="3">
         <v>130900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>120900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>49800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>43400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-3200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-5200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-9300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>5200</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>5700</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-1200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>3800</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>1400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-500</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-1300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,197 +665,217 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>300</v>
+        <v>1000</v>
       </c>
       <c r="E8" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F8" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="G8" s="3">
         <v>300</v>
       </c>
       <c r="H8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I8" s="3">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>300</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>100</v>
+      </c>
+      <c r="M8" s="3">
+        <v>300</v>
+      </c>
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <v>200</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>300</v>
+        <v>2900</v>
       </c>
       <c r="E9" s="3">
-        <v>200</v>
+        <v>3800</v>
       </c>
       <c r="F9" s="3">
-        <v>700</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
+        <v>300</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
-      </c>
-      <c r="K9" s="3">
-        <v>100</v>
-      </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
-      <c r="M9" s="3">
-        <v>100</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -863,14 +883,14 @@
       <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>4</v>
+      <c r="R9" s="3">
+        <v>100</v>
+      </c>
+      <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>100</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>4</v>
@@ -878,70 +898,88 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>0</v>
+        <v>-1900</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-2300</v>
       </c>
       <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
         <v>-100</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0</v>
-      </c>
       <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>100</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
       <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>0</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0</v>
+      </c>
+      <c r="S10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="T10" s="3">
         <v>100</v>
       </c>
-      <c r="R10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -964,70 +1002,82 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>5300</v>
+      </c>
+      <c r="G12" s="3">
         <v>4400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="H12" s="3">
         <v>2300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="I12" s="3">
         <v>7900</v>
       </c>
-      <c r="G12" s="3">
+      <c r="J12" s="3">
         <v>2100</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>1400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>1400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>2900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="N12" s="3">
         <v>3300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="O12" s="3">
         <v>2300</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="N12" s="3">
-        <v>1100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>700</v>
       </c>
       <c r="P12" s="3">
         <v>1300</v>
       </c>
       <c r="Q12" s="3">
+        <v>1100</v>
+      </c>
+      <c r="R12" s="3">
+        <v>700</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="T12" s="3">
         <v>1200</v>
       </c>
-      <c r="R12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
-      </c>
-      <c r="S12" s="3">
-        <v>600</v>
-      </c>
-      <c r="T12" s="3">
-        <v>500</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1000</v>
       </c>
       <c r="V12" s="3">
         <v>600</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3">
+        <v>500</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1088,43 +1138,52 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3">
+      <c r="E14" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
         <v>-300</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-500</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
@@ -1132,77 +1191,86 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
         <v>1000</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G15" s="3">
         <v>1000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>1600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="J15" s="3">
         <v>600</v>
       </c>
-      <c r="H15" s="3">
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="Q15" s="3">
         <v>100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="R15" s="3">
         <v>100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="S15" s="3">
         <v>100</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1212,8 +1280,17 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1233,132 +1310,153 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>19100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>20700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>17300</v>
+      </c>
+      <c r="G17" s="3">
         <v>15600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>9100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>27500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>9100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>4400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>5200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>8600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>8000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>5100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>4900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="R17" s="3">
         <v>3000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="S17" s="3">
         <v>3600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="T17" s="3">
         <v>2800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="S17" s="3">
+      <c r="V17" s="3">
         <v>1600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="W17" s="3">
         <v>1200</v>
       </c>
-      <c r="U17" s="3">
+      <c r="X17" s="3">
         <v>1600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Y17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-19200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-17200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-15300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-8900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-26900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-8800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-4400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-5100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-8300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-7800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-4900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-4800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="R18" s="3">
         <v>-2800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="S18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="T18" s="3">
         <v>-2700</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1381,132 +1479,153 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>4300</v>
+      </c>
+      <c r="G20" s="3">
         <v>3900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>8700</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>-36200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-6100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>-4900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>3700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>8200</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-11100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="Q20" s="3">
         <v>2100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="R20" s="3">
         <v>700</v>
       </c>
-      <c r="P20" s="3">
+      <c r="S20" s="3">
         <v>1400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="T20" s="3">
         <v>900</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-16600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-15600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-61500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-14200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-9200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-1300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-7800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-5100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>3600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-15700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="R21" s="3">
         <v>-2100</v>
       </c>
-      <c r="P21" s="3">
+      <c r="S21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1534,14 +1653,14 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1552,90 +1671,108 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-      <c r="R22" s="3" t="s">
-        <v>4</v>
+      <c r="R22" s="3">
+        <v>0</v>
       </c>
       <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V22" s="3">
         <v>100</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-11400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-63100</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-14900</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-9300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-1400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-8100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-5300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>3300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-15900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="R23" s="3">
         <v>-2100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="S23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="T23" s="3">
         <v>-1800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="U23" s="3">
         <v>-3400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="V23" s="3">
         <v>-2200</v>
       </c>
-      <c r="T23" s="3">
+      <c r="W23" s="3">
         <v>-1200</v>
       </c>
-      <c r="U23" s="3">
+      <c r="X23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="Y23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
+      <c r="D24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1653,37 +1790,37 @@
         <v>0</v>
       </c>
       <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
         <v>-100</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" s="3">
-        <v>0</v>
-      </c>
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
@@ -1691,8 +1828,17 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1753,132 +1899,159 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G26" s="3">
         <v>-11400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-63000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-14900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-9300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-1400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-8100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-5300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>3300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-15900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="R26" s="3">
         <v>-2100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="S26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="T26" s="3">
         <v>-1800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="U26" s="3">
         <v>-3400</v>
       </c>
-      <c r="S26" s="3">
+      <c r="V26" s="3">
         <v>-2200</v>
       </c>
-      <c r="T26" s="3">
+      <c r="W26" s="3">
         <v>-1200</v>
       </c>
-      <c r="U26" s="3">
+      <c r="X26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="Y26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G27" s="3">
         <v>-11400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-63000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-14900</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-9300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-1400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-8100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-5300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>3300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-15900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="O27" s="3">
+      <c r="R27" s="3">
         <v>-2100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="S27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="T27" s="3">
         <v>-1800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="U27" s="3">
         <v>-3400</v>
       </c>
-      <c r="S27" s="3">
+      <c r="V27" s="3">
         <v>-2200</v>
       </c>
-      <c r="T27" s="3">
+      <c r="W27" s="3">
         <v>-1200</v>
       </c>
-      <c r="U27" s="3">
+      <c r="X27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Y27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1939,8 +2112,17 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2001,8 +2183,17 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2063,8 +2254,17 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2125,132 +2325,159 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-3900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-8700</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>36200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>6100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>4900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-3700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>-2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>-8200</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>11100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="Q32" s="3">
         <v>-2100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="R32" s="3">
         <v>-700</v>
       </c>
-      <c r="P32" s="3">
+      <c r="S32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="T32" s="3">
         <v>-900</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G33" s="3">
         <v>-11400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-63000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-14900</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-9300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-1400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-8100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-5300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>3300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-15900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="O33" s="3">
+      <c r="R33" s="3">
         <v>-2100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="S33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="T33" s="3">
         <v>-1800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="U33" s="3">
         <v>-3400</v>
       </c>
-      <c r="S33" s="3">
+      <c r="V33" s="3">
         <v>-2200</v>
       </c>
-      <c r="T33" s="3">
+      <c r="W33" s="3">
         <v>-1200</v>
       </c>
-      <c r="U33" s="3">
+      <c r="X33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Y33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2311,137 +2538,164 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G35" s="3">
         <v>-11400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-63000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-14900</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-9300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-1400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-8100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-5300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>3300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-15900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="O35" s="3">
+      <c r="R35" s="3">
         <v>-2100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="S35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="T35" s="3">
         <v>-1800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="U35" s="3">
         <v>-3400</v>
       </c>
-      <c r="S35" s="3">
+      <c r="V35" s="3">
         <v>-2200</v>
       </c>
-      <c r="T35" s="3">
+      <c r="W35" s="3">
         <v>-1200</v>
       </c>
-      <c r="U35" s="3">
+      <c r="X35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Y35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2464,8 +2718,11 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2488,70 +2745,82 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>194700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>221900</v>
+      </c>
+      <c r="F41" s="3">
+        <v>228800</v>
+      </c>
+      <c r="G41" s="3">
         <v>250000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>260400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>129500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>101100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>51300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>7500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>11100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>16200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>21400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>23600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>14400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>8800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>3200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>4400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="U41" s="3">
         <v>6400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="V41" s="3">
         <v>2600</v>
       </c>
-      <c r="T41" s="3">
+      <c r="W41" s="3">
         <v>1200</v>
       </c>
-      <c r="U41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2612,256 +2881,301 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>300</v>
       </c>
       <c r="H43" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
+        <v>200</v>
+      </c>
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="O43" s="3">
         <v>1700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="P43" s="3">
         <v>900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="Q43" s="3">
         <v>900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="S43" s="3">
         <v>500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="U43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E44" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G44" s="3">
         <v>600</v>
       </c>
-      <c r="E44" s="3">
+      <c r="H44" s="3">
         <v>600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="I44" s="3">
         <v>600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="J44" s="3">
         <v>1400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="K44" s="3">
         <v>1300</v>
       </c>
-      <c r="I44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="M44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="N44" s="3">
         <v>900</v>
       </c>
-      <c r="L44" s="3">
+      <c r="O44" s="3">
         <v>1100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="P44" s="3">
         <v>700</v>
       </c>
-      <c r="N44" s="3">
+      <c r="Q44" s="3">
         <v>300</v>
       </c>
-      <c r="O44" s="3">
+      <c r="R44" s="3">
         <v>700</v>
       </c>
-      <c r="P44" s="3">
+      <c r="S44" s="3">
         <v>200</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="T44" s="3">
         <v>200</v>
       </c>
-      <c r="R44" s="3">
+      <c r="U44" s="3">
         <v>200</v>
       </c>
-      <c r="S44" s="3">
-        <v>0</v>
-      </c>
-      <c r="T44" s="3">
-        <v>0</v>
-      </c>
-      <c r="U44" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F45" s="3">
+        <v>15400</v>
+      </c>
+      <c r="G45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>13500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>5000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>6900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>6300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>6600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>6600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>6200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="O45" s="3">
         <v>7100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="P45" s="3">
         <v>3200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="Q45" s="3">
         <v>1700</v>
       </c>
-      <c r="O45" s="3">
+      <c r="R45" s="3">
         <v>800</v>
       </c>
-      <c r="P45" s="3">
+      <c r="S45" s="3">
         <v>600</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="T45" s="3">
         <v>600</v>
       </c>
-      <c r="R45" s="3">
+      <c r="U45" s="3">
         <v>700</v>
       </c>
-      <c r="S45" s="3">
+      <c r="V45" s="3">
         <v>400</v>
       </c>
-      <c r="T45" s="3">
+      <c r="W45" s="3">
         <v>200</v>
       </c>
-      <c r="U45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>221300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>240300</v>
+      </c>
+      <c r="F46" s="3">
+        <v>247800</v>
+      </c>
+      <c r="G46" s="3">
         <v>263200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>274800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>135300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>109600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>59100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>15100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>18900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>23700</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>31300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>28400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>17400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>10600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>4400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>5500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="U46" s="3">
         <v>7400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="V46" s="3">
         <v>3100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="W46" s="3">
         <v>1500</v>
       </c>
-      <c r="U46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2911,81 +3225,99 @@
         <v>0</v>
       </c>
       <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
         <v>200</v>
       </c>
-      <c r="T47" s="3">
+      <c r="W47" s="3">
         <v>100</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V47" s="3">
+      <c r="X47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>9700</v>
+      </c>
+      <c r="G48" s="3">
         <v>10900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>10500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>9300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>11700</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>9900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>10000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>10200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>8100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>5800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>4100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>3700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="S48" s="3">
         <v>3500</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="T48" s="3">
         <v>1900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="U48" s="3">
         <v>1000</v>
-      </c>
-      <c r="S48" s="3">
-        <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
-      </c>
-      <c r="U48" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>200</v>
+      </c>
+      <c r="X48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2999,13 +3331,13 @@
         <v>1000</v>
       </c>
       <c r="G49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="H49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="J49" s="3">
         <v>1200</v>
@@ -3017,13 +3349,13 @@
         <v>1200</v>
       </c>
       <c r="M49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="N49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="O49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="P49" s="3">
         <v>900</v>
@@ -3035,19 +3367,28 @@
         <v>900</v>
       </c>
       <c r="S49" s="3">
+        <v>900</v>
+      </c>
+      <c r="T49" s="3">
+        <v>900</v>
+      </c>
+      <c r="U49" s="3">
+        <v>900</v>
+      </c>
+      <c r="V49" s="3">
         <v>100</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3108,8 +3449,17 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3170,40 +3520,49 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="F52" s="3">
         <v>200</v>
       </c>
       <c r="G52" s="3">
+        <v>200</v>
+      </c>
+      <c r="H52" s="3">
+        <v>200</v>
+      </c>
+      <c r="I52" s="3">
+        <v>200</v>
+      </c>
+      <c r="J52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>200</v>
-      </c>
-      <c r="K52" s="3">
-        <v>100</v>
-      </c>
-      <c r="L52" s="3">
-        <v>100</v>
-      </c>
-      <c r="M52" s="3">
-        <v>100</v>
       </c>
       <c r="N52" s="3">
         <v>100</v>
@@ -3217,14 +3576,14 @@
       <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
+      <c r="R52" s="3">
+        <v>100</v>
+      </c>
+      <c r="S52" s="3">
+        <v>100</v>
+      </c>
+      <c r="T52" s="3">
+        <v>100</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>4</v>
@@ -3232,8 +3591,17 @@
       <c r="V52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3294,70 +3662,88 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>235800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>252900</v>
+      </c>
+      <c r="F54" s="3">
+        <v>258700</v>
+      </c>
+      <c r="G54" s="3">
         <v>275200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>286500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>145800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>122800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>70600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>26400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>30300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>35200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>40700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>35100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>22400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>15300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>9000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>8400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="U54" s="3">
         <v>9400</v>
-      </c>
-      <c r="S54" s="3">
-        <v>3600</v>
-      </c>
-      <c r="T54" s="3">
-        <v>1900</v>
-      </c>
-      <c r="U54" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="V54" s="3">
         <v>3600</v>
       </c>
-    </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W54" s="3">
+        <v>1900</v>
+      </c>
+      <c r="X54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3380,8 +3766,11 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3404,70 +3793,82 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F57" s="3">
         <v>1000</v>
       </c>
       <c r="G57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="Q57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="R57" s="3">
         <v>900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="S57" s="3">
         <v>1600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="T57" s="3">
         <v>1200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="U57" s="3">
         <v>800</v>
       </c>
-      <c r="S57" s="3">
+      <c r="V57" s="3">
         <v>700</v>
       </c>
-      <c r="T57" s="3">
+      <c r="W57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3475,22 +3876,22 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>500</v>
+        <v>1100</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>500</v>
+      </c>
+      <c r="I58" s="3">
+        <v>900</v>
+      </c>
+      <c r="J58" s="3">
         <v>700</v>
-      </c>
-      <c r="H58" s="3">
-        <v>600</v>
-      </c>
-      <c r="I58" s="3">
-        <v>600</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
@@ -3499,78 +3900,87 @@
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
+        <v>600</v>
+      </c>
+      <c r="O58" s="3">
+        <v>600</v>
+      </c>
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
-        <v>0</v>
-      </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
       <c r="Q58" s="3">
         <v>0</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>1200</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>200</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5500</v>
+      </c>
+      <c r="F59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G59" s="3">
         <v>3300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
-        <v>3000</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>2700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>1200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>1300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>700</v>
-      </c>
-      <c r="N59" s="3">
-        <v>400</v>
-      </c>
-      <c r="O59" s="3">
-        <v>400</v>
-      </c>
-      <c r="P59" s="3">
-        <v>400</v>
       </c>
       <c r="Q59" s="3">
         <v>400</v>
@@ -3579,123 +3989,141 @@
         <v>400</v>
       </c>
       <c r="S59" s="3">
+        <v>400</v>
+      </c>
+      <c r="T59" s="3">
+        <v>400</v>
+      </c>
+      <c r="U59" s="3">
+        <v>400</v>
+      </c>
+      <c r="V59" s="3">
         <v>1100</v>
       </c>
-      <c r="T59" s="3">
+      <c r="W59" s="3">
         <v>200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>7900</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="G60" s="3">
         <v>5800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>4000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>2300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>3300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>1900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>1700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>1400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>1300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>1600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="U60" s="3">
         <v>2500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="T60" s="3">
+      <c r="W60" s="3">
         <v>800</v>
       </c>
-      <c r="U60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1500</v>
+        <v>2400</v>
       </c>
       <c r="E61" s="3">
         <v>1500</v>
       </c>
       <c r="F61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>700</v>
       </c>
-      <c r="H61" s="3">
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>1100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>1100</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3714,70 +4142,88 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>400</v>
+      </c>
+      <c r="F62" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G62" s="3">
         <v>8100</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>11800</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>18000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>10600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="K62" s="3">
         <v>10000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>3100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>7100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>7600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>9700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>14000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="Q62" s="3">
         <v>3600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="R62" s="3">
         <v>1800</v>
       </c>
-      <c r="P62" s="3">
+      <c r="S62" s="3">
         <v>1000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="T62" s="3">
         <v>2400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="U62" s="3">
         <v>2700</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3838,8 +4284,17 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3900,8 +4355,17 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3962,70 +4426,88 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>9100</v>
+      </c>
+      <c r="E66" s="3">
+        <v>9700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>8800</v>
+      </c>
+      <c r="G66" s="3">
         <v>15400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>17300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>23100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>15200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>13000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>7100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>11300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>11000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>12700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>16800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>5000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>3100</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>3000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>4000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="U66" s="3">
         <v>5200</v>
       </c>
-      <c r="S66" s="3">
+      <c r="V66" s="3">
         <v>1700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="W66" s="3">
         <v>800</v>
       </c>
-      <c r="U66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4048,8 +4530,11 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4110,8 +4595,17 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4172,8 +4666,17 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4234,8 +4737,17 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4296,70 +4808,88 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-169500</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-151700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-134800</v>
+      </c>
+      <c r="G72" s="3">
         <v>-122000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-110500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-110300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-91900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-77000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-64000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-62100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-54100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-48700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-40000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-23900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-21300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-19800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-17900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="U72" s="3">
         <v>-15900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="V72" s="3">
         <v>-12400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="W72" s="3">
         <v>-10200</v>
       </c>
-      <c r="U72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4420,8 +4950,17 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4482,8 +5021,17 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4544,70 +5092,88 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>226700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>243100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>249800</v>
+      </c>
+      <c r="G76" s="3">
         <v>259900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>269200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>122700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>107700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>57600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>19300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>19000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>24300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>28100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>18400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>17400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>12200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>6000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>4400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="U76" s="3">
         <v>4200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="V76" s="3">
         <v>1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="W76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4668,137 +5234,164 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-16900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G81" s="3">
         <v>-11400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-63000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-14900</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-9300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-1400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-8100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-5300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>3300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-15900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="O81" s="3">
+      <c r="R81" s="3">
         <v>-2100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="S81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="T81" s="3">
         <v>-1800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="U81" s="3">
         <v>-3400</v>
       </c>
-      <c r="S81" s="3">
+      <c r="V81" s="3">
         <v>-2200</v>
       </c>
-      <c r="T81" s="3">
+      <c r="W81" s="3">
         <v>-1200</v>
       </c>
-      <c r="U81" s="3">
+      <c r="X81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="Y81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4821,59 +5414,62 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F83" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G83" s="3">
         <v>1000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="H83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="R83" s="3">
         <v>100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="S83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -4883,8 +5479,17 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4945,8 +5550,17 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5007,8 +5621,17 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5069,8 +5692,17 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5131,8 +5763,17 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5193,70 +5834,88 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-22100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-9400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-14900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-22500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-9700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-4200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-2400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-4800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-2800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-8200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-5100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-4100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="R89" s="3">
         <v>-3600</v>
       </c>
-      <c r="P89" s="3">
+      <c r="S89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="T89" s="3">
         <v>-1700</v>
       </c>
-      <c r="R89" s="3">
+      <c r="U89" s="3">
         <v>-2200</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-800</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-1400</v>
       </c>
       <c r="V89" s="3">
         <v>-1100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-800</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-1100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5279,70 +5938,82 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1300</v>
       </c>
-      <c r="E91" s="3">
+      <c r="H91" s="3">
         <v>-1700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-1400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="J91" s="3">
         <v>-600</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-2100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-1100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="R91" s="3">
         <v>-700</v>
       </c>
-      <c r="P91" s="3">
+      <c r="S91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="T91" s="3">
         <v>-900</v>
       </c>
-      <c r="R91" s="3">
+      <c r="U91" s="3">
         <v>-800</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5403,8 +6074,17 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5465,70 +6145,88 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-1400</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-2200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-1100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="S94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>-1000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="U94" s="3">
         <v>-1300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="Y94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5551,8 +6249,11 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5613,8 +6314,17 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5675,8 +6385,17 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5737,8 +6456,17 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5799,70 +6527,88 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
+        <v>8100</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G100" s="3">
         <v>500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>147600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>138900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>57400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>49600</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>14300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>9500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="R100" s="3">
         <v>10100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="S100" s="3">
         <v>2300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="T100" s="3">
         <v>600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="U100" s="3">
         <v>7300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="V100" s="3">
         <v>2600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="W100" s="3">
         <v>300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="X100" s="3">
         <v>300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="Y100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5873,49 +6619,49 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
         <v>5800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="J101" s="3">
         <v>-200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="K101" s="3">
         <v>400</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
-      <c r="T101" s="3">
-        <v>0</v>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U101" s="3">
         <v>0</v>
@@ -5923,66 +6669,84 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-27300</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-6900</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-10300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>130900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>120900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>49800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>43400</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-3200</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-5100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-5200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-9300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>9100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="R102" s="3">
         <v>5700</v>
       </c>
-      <c r="P102" s="3">
+      <c r="S102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>-2100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="U102" s="3">
         <v>3800</v>
       </c>
-      <c r="S102" s="3">
+      <c r="V102" s="3">
         <v>1400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="W102" s="3">
         <v>-500</v>
       </c>
-      <c r="U102" s="3">
+      <c r="X102" s="3">
         <v>-1300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="Y102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,168 +665,176 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="E8" s="3">
         <v>1500</v>
       </c>
       <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1500</v>
+      </c>
+      <c r="H8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>200</v>
-      </c>
-      <c r="P8" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>100</v>
       </c>
       <c r="R8" s="3">
         <v>100</v>
       </c>
       <c r="S8" s="3">
+        <v>100</v>
+      </c>
+      <c r="T8" s="3">
+        <v>100</v>
+      </c>
+      <c r="U8" s="3">
         <v>200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>200</v>
       </c>
-      <c r="U8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W8" s="3" t="s">
         <v>4</v>
       </c>
@@ -836,40 +844,46 @@
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F9" s="3">
         <v>2900</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>100</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>100</v>
-      </c>
       <c r="M9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N9" s="3">
         <v>100</v>
@@ -881,7 +895,7 @@
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>100</v>
@@ -892,11 +906,11 @@
       <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="U9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>4</v>
+      <c r="U9" s="3">
+        <v>100</v>
+      </c>
+      <c r="V9" s="3">
+        <v>100</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>4</v>
@@ -907,50 +921,56 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="G10" s="3">
         <v>-2300</v>
       </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
       <c r="H10" s="3">
         <v>0</v>
       </c>
       <c r="I10" s="3">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="3">
         <v>-100</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>100</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
-      <c r="P10" s="3">
-        <v>0</v>
-      </c>
       <c r="Q10" s="3">
         <v>0</v>
       </c>
@@ -958,17 +978,17 @@
         <v>0</v>
       </c>
       <c r="S10" s="3">
+        <v>0</v>
+      </c>
+      <c r="T10" s="3">
+        <v>0</v>
+      </c>
+      <c r="U10" s="3">
         <v>100</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>100</v>
       </c>
-      <c r="U10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W10" s="3" t="s">
         <v>4</v>
       </c>
@@ -978,8 +998,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1005,79 +1031,87 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E12" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F12" s="3">
         <v>4700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5400</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>5300</v>
       </c>
-      <c r="G12" s="3">
+      <c r="I12" s="3">
         <v>4400</v>
       </c>
-      <c r="H12" s="3">
+      <c r="J12" s="3">
         <v>2300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>7900</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2100</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>1400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>1400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>2900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>3300</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2300</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>1300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>1100</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>700</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="T12" s="3">
-        <v>1200</v>
       </c>
       <c r="U12" s="3">
         <v>1300</v>
       </c>
       <c r="V12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="X12" s="3">
         <v>600</v>
       </c>
-      <c r="W12" s="3">
+      <c r="Y12" s="3">
         <v>500</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Z12" s="3">
         <v>1000</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1147,41 +1181,47 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>-200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-300</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-500</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1191,91 +1231,97 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
+      <c r="S14" s="3">
+        <v>0</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
         <v>1000</v>
       </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F15" s="3">
         <v>1300</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1200</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>1000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>200</v>
-      </c>
-      <c r="M15" s="3">
-        <v>300</v>
-      </c>
-      <c r="N15" s="3">
-        <v>300</v>
       </c>
       <c r="O15" s="3">
         <v>300</v>
       </c>
       <c r="P15" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>300</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
-      </c>
-      <c r="Q15" s="3">
-        <v>100</v>
-      </c>
-      <c r="R15" s="3">
-        <v>100</v>
       </c>
       <c r="S15" s="3">
         <v>100</v>
       </c>
       <c r="T15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>0</v>
@@ -1289,8 +1335,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1313,139 +1365,147 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>23400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>21800</v>
+      </c>
+      <c r="F17" s="3">
         <v>19100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>20700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>17300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>15600</v>
-      </c>
-      <c r="H17" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I17" s="3">
-        <v>27500</v>
       </c>
       <c r="J17" s="3">
         <v>9100</v>
       </c>
       <c r="K17" s="3">
+        <v>27500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="M17" s="3">
         <v>4400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>5200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>8600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>8000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>5100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>4900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>3700</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>3000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>2800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3700</v>
-      </c>
-      <c r="V17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="W17" s="3">
-        <v>1200</v>
       </c>
       <c r="X17" s="3">
         <v>1600</v>
       </c>
       <c r="Y17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AA17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F18" s="3">
         <v>-18100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-19200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-17200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-15300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-8900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-26900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-4400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-5100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-8300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-7800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-4900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-3700</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-2800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2700</v>
       </c>
-      <c r="U18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1455,8 +1515,14 @@
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1482,68 +1548,70 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>900</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
+        <v>300</v>
+      </c>
+      <c r="G20" s="3">
         <v>2400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>4300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>3900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>8700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-36200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-6100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-4900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>3700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>8200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-11100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>2100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>700</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>1400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>900</v>
       </c>
-      <c r="U20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1553,68 +1621,74 @@
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-18600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-16600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-15600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-11700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-10500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-61500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-14200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-9200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-1300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-5100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>3600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-15700</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-1600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-2100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1900</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-1800</v>
       </c>
-      <c r="U21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1624,16 +1698,22 @@
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>500</v>
+      </c>
+      <c r="E22" s="3">
+        <v>300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1662,11 +1742,11 @@
       <c r="N22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -1680,105 +1760,117 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>4</v>
+      <c r="U22" s="3">
+        <v>0</v>
       </c>
       <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X22" s="3">
         <v>100</v>
       </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F23" s="3">
         <v>-17800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-16900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-12800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-11400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-63100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-14900</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-9300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-1400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-8100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-5300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>3300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-1600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-2100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-2000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-1800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-3400</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-2200</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-1200</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>4</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1799,34 +1891,34 @@
         <v>0</v>
       </c>
       <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
         <v>-100</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
       <c r="P24" s="3">
         <v>0</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>4</v>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
@@ -1837,8 +1929,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1908,150 +2006,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F26" s="3">
         <v>-17800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-16900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-11400</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-63000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-14900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-9300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-1400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-8100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-5300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>3300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-1600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-2100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-2000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-1800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-3400</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-2200</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-1200</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F27" s="3">
         <v>-17800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-16900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-12800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-11400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-63000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-14900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-9300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-1400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-8100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-5300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>3300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-1600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-2100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-2000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-1800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-3400</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-2200</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-1200</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2121,8 +2237,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2192,8 +2314,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2263,8 +2391,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2334,68 +2468,74 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G32" s="3">
         <v>-2400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-4300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-3900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-8700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>36200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>6100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>4900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-3700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-8200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>11100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-2100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-700</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-1400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-900</v>
       </c>
-      <c r="U32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2405,79 +2545,91 @@
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F33" s="3">
         <v>-17800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-16900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-12800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-11400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-63000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-14900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-1400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-8100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-5300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>3300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-1600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-2100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-2000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-1800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-3400</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-2200</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-1200</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2547,155 +2699,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F35" s="3">
         <v>-17800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-16900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-12800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-11400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-63000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-14900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-1400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-8100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-5300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>3300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-1600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-2100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-2000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-1800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-3400</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-2200</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-1200</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2721,8 +2891,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2748,79 +2920,87 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>153900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>176400</v>
+      </c>
+      <c r="F41" s="3">
         <v>194700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>221900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>228800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>250000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>260400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>129500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>101100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>51300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>7500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>11100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>16200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>21400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>23600</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>14400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>8800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>3200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>4400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>6400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>2600</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>1200</v>
       </c>
-      <c r="X41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2890,292 +3070,322 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>200</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>200</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
+        <v>200</v>
+      </c>
+      <c r="O43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>1700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>900</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>900</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
-      </c>
-      <c r="S43" s="3">
-        <v>500</v>
       </c>
       <c r="T43" s="3">
         <v>300</v>
       </c>
       <c r="U43" s="3">
+        <v>500</v>
+      </c>
+      <c r="V43" s="3">
+        <v>300</v>
+      </c>
+      <c r="W43" s="3">
         <v>200</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
-      <c r="X43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>8800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F44" s="3">
         <v>6200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>3600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>3300</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>1400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>1300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>800</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>800</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>900</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>1100</v>
-      </c>
-      <c r="P44" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>700</v>
       </c>
       <c r="S44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T44" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="U44" s="3">
         <v>200</v>
       </c>
       <c r="V44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
-      </c>
-      <c r="X44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
       </c>
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E45" s="3">
+        <v>18300</v>
+      </c>
+      <c r="F45" s="3">
         <v>20300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>14400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>15400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>12300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13500</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>6900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>6300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6600</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6200</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>7100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>3200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>1700</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>800</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>600</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>600</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>400</v>
-      </c>
-      <c r="W45" s="3">
-        <v>200</v>
-      </c>
-      <c r="X45" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>179900</v>
+      </c>
+      <c r="E46" s="3">
+        <v>203400</v>
+      </c>
+      <c r="F46" s="3">
         <v>221300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>240300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>247800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>263200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>274800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>135300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>109600</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>59100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>15100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>18900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>23700</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>31300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>28400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>17400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>10600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>4400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>5500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>7400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>3100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1500</v>
       </c>
-      <c r="X46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3234,90 +3444,102 @@
         <v>0</v>
       </c>
       <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
         <v>200</v>
-      </c>
-      <c r="W47" s="3">
-        <v>100</v>
-      </c>
-      <c r="X47" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>28600</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25100</v>
+      </c>
+      <c r="F48" s="3">
         <v>11300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>10100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>9700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>10900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>10500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>9300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>11700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>9700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>10000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>10200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>8100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>5800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>4100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>1900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>1000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>200</v>
-      </c>
-      <c r="W48" s="3">
-        <v>200</v>
-      </c>
-      <c r="X48" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="Y48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3340,10 +3562,10 @@
         <v>1000</v>
       </c>
       <c r="J49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="K49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>1200</v>
@@ -3358,10 +3580,10 @@
         <v>1200</v>
       </c>
       <c r="P49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="Q49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="R49" s="3">
         <v>900</v>
@@ -3376,19 +3598,25 @@
         <v>900</v>
       </c>
       <c r="V49" s="3">
+        <v>900</v>
+      </c>
+      <c r="W49" s="3">
+        <v>900</v>
+      </c>
+      <c r="X49" s="3">
         <v>100</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3458,8 +3686,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3529,22 +3763,28 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>1500</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
-      </c>
-      <c r="G52" s="3">
-        <v>200</v>
       </c>
       <c r="H52" s="3">
         <v>200</v>
@@ -3553,22 +3793,22 @@
         <v>200</v>
       </c>
       <c r="J52" s="3">
+        <v>200</v>
+      </c>
+      <c r="K52" s="3">
+        <v>200</v>
+      </c>
+      <c r="L52" s="3">
         <v>300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>200</v>
-      </c>
-      <c r="N52" s="3">
-        <v>100</v>
-      </c>
-      <c r="O52" s="3">
-        <v>100</v>
       </c>
       <c r="P52" s="3">
         <v>100</v>
@@ -3585,11 +3825,11 @@
       <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
+      <c r="U52" s="3">
+        <v>100</v>
+      </c>
+      <c r="V52" s="3">
+        <v>100</v>
       </c>
       <c r="W52" s="3" t="s">
         <v>4</v>
@@ -3600,8 +3840,14 @@
       <c r="Y52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3671,79 +3917,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>211300</v>
+      </c>
+      <c r="E54" s="3">
+        <v>233500</v>
+      </c>
+      <c r="F54" s="3">
         <v>235800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>252900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>258700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>275200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>286500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>145800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>122800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>70600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>26400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>30300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>35200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>40700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>22400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>15300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>9000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>8400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>3600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>1900</v>
       </c>
-      <c r="X54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3769,8 +4027,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3796,108 +4056,116 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="3">
         <v>1200</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>1500</v>
       </c>
       <c r="M57" s="3">
         <v>700</v>
       </c>
       <c r="N57" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="O57" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="P57" s="3">
         <v>500</v>
       </c>
       <c r="Q57" s="3">
+        <v>400</v>
+      </c>
+      <c r="R57" s="3">
+        <v>500</v>
+      </c>
+      <c r="S57" s="3">
         <v>1000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>1200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>800</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>700</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>400</v>
       </c>
-      <c r="X57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>1300</v>
       </c>
       <c r="E58" s="3">
-        <v>1100</v>
+        <v>900</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H58" s="3">
         <v>600</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>700</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>600</v>
       </c>
       <c r="M58" s="3">
         <v>600</v>
@@ -3909,14 +4177,14 @@
         <v>600</v>
       </c>
       <c r="P58" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>600</v>
+      </c>
+      <c r="R58" s="3">
         <v>500</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
-      </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
@@ -3924,69 +4192,75 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>1200</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
-      <c r="W58" s="3">
-        <v>200</v>
-      </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
+      <c r="X58" s="3">
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5700</v>
+      </c>
+      <c r="F59" s="3">
         <v>3900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>3300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>1200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>400</v>
-      </c>
-      <c r="R59" s="3">
-        <v>400</v>
       </c>
       <c r="S59" s="3">
         <v>400</v>
@@ -3998,138 +4272,150 @@
         <v>400</v>
       </c>
       <c r="V59" s="3">
+        <v>400</v>
+      </c>
+      <c r="W59" s="3">
+        <v>400</v>
+      </c>
+      <c r="X59" s="3">
         <v>1100</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>6800</v>
+      </c>
+      <c r="E60" s="3">
+        <v>8300</v>
+      </c>
+      <c r="F60" s="3">
         <v>6300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>7900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>5800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>4000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1900</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2500</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1700</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>800</v>
       </c>
-      <c r="X60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>16600</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2400</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>1600</v>
       </c>
       <c r="G61" s="3">
         <v>1500</v>
       </c>
       <c r="H61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I61" s="3">
         <v>1500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>800</v>
       </c>
       <c r="L61" s="3">
         <v>700</v>
       </c>
       <c r="M61" s="3">
+        <v>800</v>
+      </c>
+      <c r="N61" s="3">
+        <v>700</v>
+      </c>
+      <c r="O61" s="3">
         <v>900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1100</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
       <c r="S61" s="3">
         <v>0</v>
       </c>
@@ -4151,8 +4437,14 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4160,70 +4452,76 @@
         <v>300</v>
       </c>
       <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>3700</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>8100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>11800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>18000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>10600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>10000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>3100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>7100</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>7600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>9700</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>14000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>3600</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>1800</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>1000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>2400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>2700</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4293,8 +4591,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4364,8 +4668,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4435,79 +4745,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>23600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F66" s="3">
         <v>9100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>9700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>8800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>15400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>17300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>23100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>15200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>13000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>7100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>11000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>12700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>16800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>5000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>4000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>5200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>1700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>800</v>
       </c>
-      <c r="X66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4533,8 +4855,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4604,8 +4928,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4675,8 +5005,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4746,8 +5082,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4817,79 +5159,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-211300</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-189800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-169500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-151700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-134800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-122000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-110500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-110300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-91900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-77000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-64000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-62100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-54100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-48700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-40000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-23900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-21300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-19800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-17900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-15900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-12400</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-10200</v>
       </c>
-      <c r="X72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4959,8 +5313,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5390,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5101,79 +5467,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>187700</v>
+      </c>
+      <c r="E76" s="3">
+        <v>208000</v>
+      </c>
+      <c r="F76" s="3">
         <v>226700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>243100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>249800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>259900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>269200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>122700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>107700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>57600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>19300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>19000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>24300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>28100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>18400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>17400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>12200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>6000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>4400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>4200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1100</v>
       </c>
-      <c r="X76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5243,155 +5621,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F81" s="3">
         <v>-17800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-16900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-12800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-11400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-63000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-14900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-1400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-8100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-5300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>3300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-1600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-2100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-2000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-1800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-3400</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-2200</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-1200</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5417,64 +5813,66 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E83" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F83" s="3">
         <v>1300</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1200</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1600</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>200</v>
-      </c>
-      <c r="M83" s="3">
-        <v>300</v>
-      </c>
-      <c r="N83" s="3">
-        <v>300</v>
       </c>
       <c r="O83" s="3">
         <v>300</v>
       </c>
       <c r="P83" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>300</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>100</v>
-      </c>
-      <c r="R83" s="3">
-        <v>100</v>
       </c>
       <c r="S83" s="3">
         <v>100</v>
       </c>
       <c r="T83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>0</v>
@@ -5488,8 +5886,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5559,8 +5963,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5630,8 +6040,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5701,8 +6117,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5772,8 +6194,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5843,79 +6271,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-26300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-13900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-22100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-9400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-14900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-22500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-9700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-4200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-2400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-8200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-4100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-3600</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-1700</v>
       </c>
       <c r="U89" s="3">
         <v>-2200</v>
       </c>
       <c r="V89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="W89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="X89" s="3">
         <v>-1100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>-800</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5941,8 +6381,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5950,70 +6392,76 @@
         <v>-1100</v>
       </c>
       <c r="E91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-1000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-700</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-1300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-1700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-600</v>
-      </c>
-      <c r="K91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="L91" s="3">
-        <v>-100</v>
       </c>
       <c r="M91" s="3">
         <v>-200</v>
       </c>
       <c r="N91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P91" s="3">
         <v>-2100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-1100</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-700</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-1300</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-900</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-800</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6083,8 +6531,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6154,8 +6608,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6163,70 +6623,76 @@
         <v>-1100</v>
       </c>
       <c r="E94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F94" s="3">
         <v>-1100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-1700</v>
       </c>
       <c r="I94" s="3">
         <v>-1400</v>
       </c>
       <c r="J94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="K94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-2200</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-1100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-200</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-700</v>
-      </c>
-      <c r="S94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-1000</v>
       </c>
       <c r="U94" s="3">
         <v>-1300</v>
       </c>
       <c r="V94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="W94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-200</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6252,8 +6718,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6323,8 +6791,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6394,8 +6868,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6465,8 +6945,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6536,84 +7022,96 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
+        <v>100</v>
+      </c>
+      <c r="G100" s="3">
         <v>8100</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>1600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>147600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>138900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>57400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>49600</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>14300</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>9500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>10100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>2300</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>600</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>7300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>2600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
@@ -6628,46 +7126,46 @@
         <v>0</v>
       </c>
       <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3">
         <v>5800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-300</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>100</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3">
-        <v>0</v>
-      </c>
       <c r="P101" s="3">
         <v>0</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>4</v>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
       </c>
       <c r="T101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U101" s="3">
-        <v>0</v>
-      </c>
-      <c r="V101" s="3">
-        <v>0</v>
+      <c r="U101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W101" s="3">
         <v>0</v>
@@ -6678,75 +7176,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="F102" s="3">
         <v>-27300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-6900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-21200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-10300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>130900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>120900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>49800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>43400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-3200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-5100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-5200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-9300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>9100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>5200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>5700</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-1200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-2100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>3800</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>1400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-500</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,182 +665,189 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F8" s="3">
         <v>1400</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1000</v>
       </c>
       <c r="G8" s="3">
         <v>1500</v>
       </c>
       <c r="H8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
         <v>100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>200</v>
-      </c>
-      <c r="R8" s="3">
-        <v>100</v>
-      </c>
-      <c r="S8" s="3">
-        <v>100</v>
       </c>
       <c r="T8" s="3">
         <v>100</v>
       </c>
       <c r="U8" s="3">
+        <v>100</v>
+      </c>
+      <c r="V8" s="3">
+        <v>100</v>
+      </c>
+      <c r="W8" s="3">
         <v>200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="W8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X8" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y8" s="3" t="s">
         <v>4</v>
       </c>
@@ -850,46 +857,52 @@
       <c r="AA8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>3400</v>
       </c>
-      <c r="F9" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G9" s="3">
-        <v>3800</v>
-      </c>
       <c r="H9" s="3">
+        <v>4400</v>
+      </c>
+      <c r="I9" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J9" s="3">
         <v>100</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>700</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>100</v>
-      </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
@@ -901,7 +914,7 @@
         <v>100</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
@@ -912,11 +925,11 @@
       <c r="V9" s="3">
         <v>100</v>
       </c>
-      <c r="W9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X9" s="3" t="s">
-        <v>4</v>
+      <c r="W9" s="3">
+        <v>100</v>
+      </c>
+      <c r="X9" s="3">
+        <v>100</v>
       </c>
       <c r="Y9" s="3" t="s">
         <v>4</v>
@@ -927,56 +940,62 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="F10" s="3">
         <v>-1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>-1900</v>
       </c>
-      <c r="F10" s="3">
-        <v>-1900</v>
-      </c>
-      <c r="G10" s="3">
-        <v>-2300</v>
-      </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-3400</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-4300</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
       </c>
       <c r="K10" s="3">
+        <v>0</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="3">
         <v>-100</v>
       </c>
-      <c r="L10" s="3">
-        <v>0</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
       <c r="N10" s="3">
         <v>0</v>
       </c>
       <c r="O10" s="3">
+        <v>0</v>
+      </c>
+      <c r="P10" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="3">
         <v>100</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>100</v>
       </c>
-      <c r="Q10" s="3">
-        <v>0</v>
-      </c>
-      <c r="R10" s="3">
-        <v>0</v>
-      </c>
       <c r="S10" s="3">
         <v>0</v>
       </c>
@@ -984,17 +1003,17 @@
         <v>0</v>
       </c>
       <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="3">
+        <v>0</v>
+      </c>
+      <c r="W10" s="3">
         <v>100</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="W10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
@@ -1004,8 +1023,14 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1033,85 +1058,93 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>22000</v>
+      </c>
+      <c r="F12" s="3">
         <v>6500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>5600</v>
       </c>
-      <c r="F12" s="3">
-        <v>4700</v>
-      </c>
-      <c r="G12" s="3">
-        <v>5400</v>
-      </c>
       <c r="H12" s="3">
+        <v>8500</v>
+      </c>
+      <c r="I12" s="3">
+        <v>21300</v>
+      </c>
+      <c r="J12" s="3">
         <v>5300</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>4400</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>2300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>7900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>2100</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>1400</v>
       </c>
-      <c r="N12" s="3">
+      <c r="P12" s="3">
         <v>1400</v>
       </c>
-      <c r="O12" s="3">
+      <c r="Q12" s="3">
         <v>2900</v>
       </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3">
         <v>3300</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="S12" s="3">
         <v>2300</v>
       </c>
-      <c r="R12" s="3">
+      <c r="T12" s="3">
         <v>1300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="U12" s="3">
         <v>1100</v>
       </c>
-      <c r="T12" s="3">
+      <c r="V12" s="3">
         <v>700</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1300</v>
-      </c>
-      <c r="V12" s="3">
-        <v>1200</v>
       </c>
       <c r="W12" s="3">
         <v>1300</v>
       </c>
       <c r="X12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1300</v>
+      </c>
+      <c r="Z12" s="3">
         <v>600</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="AA12" s="3">
         <v>500</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AB12" s="3">
         <v>1000</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AC12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1187,47 +1220,53 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
+        <v>34300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>-200</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1500</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-300</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-500</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1237,97 +1276,103 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3">
+        <v>0</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y14" s="3">
         <v>1000</v>
       </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="F15" s="3">
         <v>1600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>1400</v>
       </c>
-      <c r="F15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1200</v>
-      </c>
       <c r="H15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="J15" s="3">
         <v>1100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>1000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>1600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>200</v>
-      </c>
-      <c r="O15" s="3">
-        <v>300</v>
-      </c>
-      <c r="P15" s="3">
-        <v>300</v>
       </c>
       <c r="Q15" s="3">
         <v>300</v>
       </c>
       <c r="R15" s="3">
+        <v>300</v>
+      </c>
+      <c r="S15" s="3">
+        <v>300</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
-      </c>
-      <c r="S15" s="3">
-        <v>100</v>
-      </c>
-      <c r="T15" s="3">
-        <v>100</v>
       </c>
       <c r="U15" s="3">
         <v>100</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X15" s="3">
         <v>0</v>
@@ -1341,8 +1386,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1367,151 +1418,159 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>132800</v>
+      </c>
+      <c r="F17" s="3">
         <v>23400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>21800</v>
       </c>
-      <c r="F17" s="3">
-        <v>19100</v>
-      </c>
-      <c r="G17" s="3">
-        <v>20700</v>
-      </c>
       <c r="H17" s="3">
+        <v>19300</v>
+      </c>
+      <c r="I17" s="3">
+        <v>60400</v>
+      </c>
+      <c r="J17" s="3">
         <v>17300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>15600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>9100</v>
-      </c>
-      <c r="K17" s="3">
-        <v>27500</v>
       </c>
       <c r="L17" s="3">
         <v>9100</v>
       </c>
       <c r="M17" s="3">
+        <v>27500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>9100</v>
+      </c>
+      <c r="O17" s="3">
         <v>4400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>5200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>8600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>8000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>5100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>4900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>3700</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>3000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>3600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>2800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>3700</v>
-      </c>
-      <c r="X17" s="3">
-        <v>1600</v>
-      </c>
-      <c r="Y17" s="3">
-        <v>1200</v>
       </c>
       <c r="Z17" s="3">
         <v>1600</v>
       </c>
       <c r="AA17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="AC17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-126000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-22000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-20300</v>
       </c>
-      <c r="F18" s="3">
-        <v>-18100</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-19200</v>
-      </c>
       <c r="H18" s="3">
+        <v>-18300</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-58300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-17200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-15300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-8900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-26900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-8800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-4400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-5100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-8300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-7800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-4900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-4800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-3700</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-2800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-3400</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-2700</v>
       </c>
-      <c r="W18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1521,8 +1580,14 @@
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1550,74 +1615,76 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E20" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F20" s="3">
         <v>900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
-        <v>300</v>
-      </c>
-      <c r="G20" s="3">
-        <v>2400</v>
-      </c>
       <c r="H20" s="3">
+        <v>400</v>
+      </c>
+      <c r="I20" s="3">
+        <v>19500</v>
+      </c>
+      <c r="J20" s="3">
         <v>4300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>3900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>8700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-36200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-6100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-4900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>3700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>200</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>2500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>8200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-11100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>2100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>700</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>1400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>900</v>
       </c>
-      <c r="W20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1627,74 +1694,80 @@
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-117900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-19500</v>
       </c>
-      <c r="E21" s="3">
-        <v>-18600</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-16600</v>
-      </c>
       <c r="G21" s="3">
-        <v>-15600</v>
+        <v>-18500</v>
       </c>
       <c r="H21" s="3">
+        <v>-16800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-35300</v>
+      </c>
+      <c r="J21" s="3">
         <v>-11700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-10500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-61500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-14200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-9200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-7800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>3600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-15700</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-1600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-2100</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-1900</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-1800</v>
       </c>
-      <c r="W21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1704,23 +1777,29 @@
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
         <v>500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>300</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1748,11 +1827,11 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1766,100 +1845,112 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-      <c r="W22" s="3" t="s">
-        <v>4</v>
+      <c r="W22" s="3">
+        <v>0</v>
       </c>
       <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="3">
         <v>100</v>
       </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="F23" s="3">
         <v>-21500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-20300</v>
       </c>
-      <c r="F23" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-12800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-11400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-63100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-14900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-9300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-1400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-8100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>3300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-15900</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-1600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-2100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-2000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-1800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-3400</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1869,8 +1960,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
@@ -1897,34 +1988,34 @@
         <v>0</v>
       </c>
       <c r="O24" s="3">
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
         <v>-100</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U24" s="3" t="s">
-        <v>4</v>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
       </c>
       <c r="V24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
+      <c r="W24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y24" s="3">
         <v>0</v>
@@ -1935,8 +2026,14 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2012,162 +2109,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-21500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-20300</v>
       </c>
-      <c r="F26" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-11400</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-63000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-14900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-9300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-1400</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-8100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>3300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-15900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-1600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-2100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-2000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-1800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-3400</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="F27" s="3">
         <v>-21500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-20300</v>
       </c>
-      <c r="F27" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-12800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-11400</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-63000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-14900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-9300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-1400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-8100</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>3300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-15900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-1600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-2100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-2000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-1800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-3400</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2243,8 +2358,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2320,8 +2441,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2397,8 +2524,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2474,74 +2607,80 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-2300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-2400</v>
-      </c>
       <c r="H32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="I32" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="J32" s="3">
         <v>-4300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-3900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-8700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>36200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>6100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>4900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-3700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-200</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>-2500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-8200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>11100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>-2100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>-700</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-1400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-900</v>
       </c>
-      <c r="W32" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2551,85 +2690,97 @@
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="F33" s="3">
         <v>-21500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-20300</v>
       </c>
-      <c r="F33" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-12800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-11400</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-63000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-14900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-9300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-1400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-8100</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>3300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-15900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-1600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-2100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-2000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-1800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-3400</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2705,167 +2856,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="F35" s="3">
         <v>-21500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-20300</v>
       </c>
-      <c r="F35" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-12800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-11400</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-63000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-14900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-9300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-1400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-8100</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>3300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-15900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-1600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-2100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-2000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-1800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-3400</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2893,8 +3062,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2922,85 +3093,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>111200</v>
+      </c>
+      <c r="E41" s="3">
+        <v>134300</v>
+      </c>
+      <c r="F41" s="3">
         <v>153900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>176400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>194700</v>
       </c>
-      <c r="G41" s="3">
-        <v>221900</v>
-      </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
+        <v>443900</v>
+      </c>
+      <c r="J41" s="3">
         <v>228800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>250000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>260400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>129500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>101100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>51300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>7500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>11100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>16200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>21400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>23600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>14400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>8800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>3200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>4400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>6400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>2600</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="AA41" s="3">
         <v>1200</v>
       </c>
-      <c r="Z41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3076,316 +3255,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>300</v>
+      </c>
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>1700</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>900</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>900</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>500</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>500</v>
+      </c>
+      <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4300</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F44" s="3">
         <v>8800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>8500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>6200</v>
       </c>
-      <c r="G44" s="3">
-        <v>3600</v>
-      </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="J44" s="3">
         <v>3300</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
       </c>
       <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
+        <v>600</v>
+      </c>
+      <c r="N44" s="3">
         <v>1400</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>1300</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>800</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>800</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>900</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>1100</v>
-      </c>
-      <c r="R44" s="3">
-        <v>700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>700</v>
       </c>
       <c r="U44" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V44" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="W44" s="3">
         <v>200</v>
       </c>
       <c r="X44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y44" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>15200</v>
+      </c>
+      <c r="E45" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F45" s="3">
         <v>17100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>18300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>20300</v>
       </c>
-      <c r="G45" s="3">
-        <v>14400</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>15000</v>
+      </c>
+      <c r="J45" s="3">
         <v>15400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>12300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>13500</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>5000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>6900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>6600</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>6600</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>6200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>7100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>3200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>1700</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>800</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>600</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>600</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>700</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>400</v>
-      </c>
-      <c r="Y45" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z45" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AA45" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>150200</v>
+      </c>
+      <c r="F46" s="3">
         <v>179900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>203400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>221300</v>
       </c>
-      <c r="G46" s="3">
-        <v>240300</v>
-      </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>240800</v>
+      </c>
+      <c r="J46" s="3">
         <v>247800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>263200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>274800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>135300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>109600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>59100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>15100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>18900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>23700</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>31300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>28400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>17400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>10600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>4400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>5500</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>7400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>3100</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>1500</v>
       </c>
-      <c r="Z46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3450,104 +3659,116 @@
         <v>0</v>
       </c>
       <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
         <v>200</v>
-      </c>
-      <c r="Y47" s="3">
-        <v>100</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AA47" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>25500</v>
+      </c>
+      <c r="F48" s="3">
         <v>28600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>25100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>11300</v>
       </c>
-      <c r="G48" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="J48" s="3">
         <v>9700</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>10900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>10500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>9300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>11700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>9900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>9700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>10000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>10200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>8100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>5800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>4100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3500</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>1900</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>1000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>200</v>
-      </c>
-      <c r="Y48" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z48" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="E49" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>1000</v>
@@ -3559,7 +3780,7 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
-        <v>1000</v>
+        <v>1900</v>
       </c>
       <c r="J49" s="3">
         <v>1000</v>
@@ -3568,10 +3789,10 @@
         <v>1000</v>
       </c>
       <c r="L49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="M49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="N49" s="3">
         <v>1200</v>
@@ -3586,10 +3807,10 @@
         <v>1200</v>
       </c>
       <c r="R49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="S49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="T49" s="3">
         <v>900</v>
@@ -3604,19 +3825,25 @@
         <v>900</v>
       </c>
       <c r="X49" s="3">
+        <v>900</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>900</v>
+      </c>
+      <c r="Z49" s="3">
         <v>100</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3692,8 +3919,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3769,28 +4002,34 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F52" s="3">
         <v>1900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>4000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>2200</v>
       </c>
-      <c r="G52" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H52" s="3">
-        <v>200</v>
-      </c>
       <c r="I52" s="3">
-        <v>200</v>
+        <v>4600</v>
       </c>
       <c r="J52" s="3">
         <v>200</v>
@@ -3799,22 +4038,22 @@
         <v>200</v>
       </c>
       <c r="L52" s="3">
+        <v>200</v>
+      </c>
+      <c r="M52" s="3">
+        <v>200</v>
+      </c>
+      <c r="N52" s="3">
         <v>300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>400</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>200</v>
-      </c>
-      <c r="P52" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>100</v>
       </c>
       <c r="R52" s="3">
         <v>100</v>
@@ -3831,11 +4070,11 @@
       <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
+      <c r="W52" s="3">
+        <v>100</v>
+      </c>
+      <c r="X52" s="3">
+        <v>100</v>
       </c>
       <c r="Y52" s="3" t="s">
         <v>4</v>
@@ -3846,8 +4085,14 @@
       <c r="AA52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3923,85 +4168,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>162200</v>
+      </c>
+      <c r="E54" s="3">
+        <v>181200</v>
+      </c>
+      <c r="F54" s="3">
         <v>211300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>233500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>235800</v>
       </c>
-      <c r="G54" s="3">
-        <v>252900</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>255400</v>
+      </c>
+      <c r="J54" s="3">
         <v>258700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>275200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>286500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>145800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>122800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>70600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>26400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>30300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>35200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>40700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>35100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>22400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>15300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>9000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>8400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>9400</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>3600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>1900</v>
       </c>
-      <c r="Z54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4029,8 +4286,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4058,120 +4317,128 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3800</v>
+      </c>
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1200</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>500</v>
-      </c>
-      <c r="M57" s="3">
-        <v>700</v>
-      </c>
-      <c r="N57" s="3">
-        <v>1500</v>
       </c>
       <c r="O57" s="3">
         <v>700</v>
       </c>
       <c r="P57" s="3">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="Q57" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="R57" s="3">
         <v>500</v>
       </c>
       <c r="S57" s="3">
+        <v>400</v>
+      </c>
+      <c r="T57" s="3">
+        <v>500</v>
+      </c>
+      <c r="U57" s="3">
         <v>1000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>900</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>1600</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>1200</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>800</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>700</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>400</v>
       </c>
-      <c r="Z57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F58" s="3">
         <v>1300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
-      </c>
-      <c r="F58" s="3">
-        <v>600</v>
-      </c>
-      <c r="G58" s="3">
-        <v>1100</v>
       </c>
       <c r="H58" s="3">
         <v>600</v>
       </c>
       <c r="I58" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>700</v>
-      </c>
-      <c r="M58" s="3">
-        <v>600</v>
-      </c>
-      <c r="N58" s="3">
-        <v>600</v>
       </c>
       <c r="O58" s="3">
         <v>600</v>
@@ -4183,14 +4450,14 @@
         <v>600</v>
       </c>
       <c r="R58" s="3">
+        <v>600</v>
+      </c>
+      <c r="S58" s="3">
+        <v>600</v>
+      </c>
+      <c r="T58" s="3">
         <v>500</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
-      </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
@@ -4198,75 +4465,81 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
         <v>1200</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>200</v>
-      </c>
-      <c r="Z58" s="3" t="s">
-        <v>4</v>
+      <c r="Z58" s="3">
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32400</v>
+      </c>
+      <c r="F59" s="3">
         <v>4400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>5700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>3900</v>
       </c>
-      <c r="G59" s="3">
-        <v>5500</v>
-      </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
+        <v>6600</v>
+      </c>
+      <c r="J59" s="3">
         <v>2100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2700</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2700</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>1000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>1200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2100</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>1300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>700</v>
-      </c>
-      <c r="S59" s="3">
-        <v>400</v>
-      </c>
-      <c r="T59" s="3">
-        <v>400</v>
       </c>
       <c r="U59" s="3">
         <v>400</v>
@@ -4278,150 +4551,162 @@
         <v>400</v>
       </c>
       <c r="X59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z59" s="3">
         <v>1100</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>200</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>36200</v>
+      </c>
+      <c r="F60" s="3">
         <v>6800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>8300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>6300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>7900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>5800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>4000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>3300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2500</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>1700</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>800</v>
       </c>
-      <c r="Z60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
         <v>16600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>17000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2400</v>
-      </c>
-      <c r="G61" s="3">
-        <v>1500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>1600</v>
       </c>
       <c r="I61" s="3">
         <v>1500</v>
       </c>
       <c r="J61" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="M61" s="3">
         <v>500</v>
-      </c>
-      <c r="L61" s="3">
-        <v>700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>800</v>
       </c>
       <c r="N61" s="3">
         <v>700</v>
       </c>
       <c r="O61" s="3">
+        <v>800</v>
+      </c>
+      <c r="P61" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q61" s="3">
         <v>900</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1100</v>
       </c>
-      <c r="S61" s="3">
-        <v>0</v>
-      </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
         <v>0</v>
       </c>
@@ -4443,85 +4728,97 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>17400</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>17700</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
       </c>
       <c r="G62" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1900</v>
+      </c>
+      <c r="J62" s="3">
         <v>3700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>8100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>11800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>18000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>10600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>10000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>3100</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>7100</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>7600</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>9700</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>14000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>3600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>1800</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>1000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>2400</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>2700</v>
       </c>
-      <c r="X62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AA62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4597,8 +4894,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4674,8 +4977,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4751,85 +5060,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>46300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>53900</v>
+      </c>
+      <c r="F66" s="3">
         <v>23600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>25500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>9100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>9700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>8800</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>15400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>17300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>23100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>15200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>13000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>7100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>11300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>11000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>12700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>16800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3100</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5200</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>1700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>800</v>
       </c>
-      <c r="Z66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4857,8 +5178,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4934,8 +5257,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5011,8 +5340,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5088,8 +5423,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5165,85 +5506,97 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-285100</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-272800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-211300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-189800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-169500</v>
       </c>
-      <c r="G72" s="3">
-        <v>-151700</v>
-      </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
+        <v>-149100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-134800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-122000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-110500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-110300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-91900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-77000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-64000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-62100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-54100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-48700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-40000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-23900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-21300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-19800</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-17900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-15900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-12400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-10200</v>
       </c>
-      <c r="Z72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5319,8 +5672,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5396,8 +5755,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5473,85 +5838,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>115900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>127300</v>
+      </c>
+      <c r="F76" s="3">
         <v>187700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>208000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>226700</v>
       </c>
-      <c r="G76" s="3">
-        <v>243100</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
+        <v>245700</v>
+      </c>
+      <c r="J76" s="3">
         <v>249800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>259900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>269200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>122700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>107700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>57600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>19300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>19000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>24300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>28100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>18400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>17400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>12200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>6000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>4400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>4200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1900</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1100</v>
       </c>
-      <c r="Z76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5627,167 +6004,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-123700</v>
+      </c>
+      <c r="F81" s="3">
         <v>-21500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-20300</v>
       </c>
-      <c r="F81" s="3">
-        <v>-17800</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-16900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-38800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-12800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-11400</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-63000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-14900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-9300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-1400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-8100</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-5300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>3300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-15900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-1600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-2100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-2000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-1800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-3400</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-1200</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5815,70 +6210,72 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>5800</v>
+      </c>
+      <c r="F83" s="3">
         <v>1600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>1400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>1300</v>
       </c>
-      <c r="G83" s="3">
-        <v>1200</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
+        <v>4300</v>
+      </c>
+      <c r="J83" s="3">
         <v>1100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>900</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>1600</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>600</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>300</v>
-      </c>
-      <c r="P83" s="3">
-        <v>300</v>
       </c>
       <c r="Q83" s="3">
         <v>300</v>
       </c>
       <c r="R83" s="3">
+        <v>300</v>
+      </c>
+      <c r="S83" s="3">
+        <v>300</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>100</v>
-      </c>
-      <c r="T83" s="3">
-        <v>100</v>
       </c>
       <c r="U83" s="3">
         <v>100</v>
       </c>
       <c r="V83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X83" s="3">
         <v>0</v>
@@ -5892,8 +6289,14 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5969,8 +6372,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6046,8 +6455,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6123,8 +6538,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6200,8 +6621,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6277,85 +6704,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21200</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-84400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-21700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-17000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-26300</v>
       </c>
-      <c r="G89" s="3">
-        <v>-13900</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
+        <v>-60400</v>
+      </c>
+      <c r="J89" s="3">
         <v>-22100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-9400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-14900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-22500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>-9700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-4200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-2400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>-4800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-8200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-5100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>-4100</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-3600</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-1700</v>
       </c>
       <c r="W89" s="3">
         <v>-2200</v>
       </c>
       <c r="X89" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="Y89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>-800</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6383,85 +6822,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="E91" s="3">
-        <v>-1100</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-1100</v>
       </c>
       <c r="G91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I91" s="3">
         <v>-1000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-700</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-1300</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-1700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-1400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-600</v>
-      </c>
-      <c r="M91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="N91" s="3">
-        <v>-100</v>
       </c>
       <c r="O91" s="3">
         <v>-200</v>
       </c>
       <c r="P91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R91" s="3">
         <v>-2100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-1100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-200</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-700</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-1300</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-900</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-800</v>
       </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6537,8 +6984,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6614,85 +7067,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1100</v>
+        <v>-700</v>
       </c>
       <c r="E94" s="3">
-        <v>-1300</v>
+        <v>-3400</v>
       </c>
       <c r="F94" s="3">
         <v>-1100</v>
       </c>
       <c r="G94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
-      </c>
-      <c r="I94" s="3">
-        <v>-1400</v>
-      </c>
-      <c r="J94" s="3">
-        <v>-1700</v>
       </c>
       <c r="K94" s="3">
         <v>-1400</v>
       </c>
       <c r="L94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="M94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-200</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-2200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-1100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-700</v>
-      </c>
-      <c r="U94" s="3">
-        <v>-1300</v>
-      </c>
-      <c r="V94" s="3">
-        <v>-1000</v>
       </c>
       <c r="W94" s="3">
         <v>-1300</v>
       </c>
       <c r="X94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Y94" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-200</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6720,8 +7185,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6797,8 +7264,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6874,8 +7347,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6951,8 +7430,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7028,97 +7513,109 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
-        <v>100</v>
-      </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>8100</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
+        <v>300</v>
+      </c>
+      <c r="I100" s="3">
+        <v>158000</v>
+      </c>
+      <c r="J100" s="3">
         <v>1600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>147600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>138900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>57400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>49600</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>14300</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>9500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>10100</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>2300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>600</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>7300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>2600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
       <c r="G101" s="3">
         <v>0</v>
       </c>
@@ -7132,46 +7629,46 @@
         <v>0</v>
       </c>
       <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
         <v>5800</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-300</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>100</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="3">
-        <v>0</v>
-      </c>
       <c r="R101" s="3">
         <v>0</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="U101" s="3" t="s">
-        <v>4</v>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+      <c r="U101" s="3">
+        <v>0</v>
       </c>
       <c r="V101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W101" s="3">
-        <v>0</v>
-      </c>
-      <c r="X101" s="3">
-        <v>0</v>
+      <c r="W101" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y101" s="3">
         <v>0</v>
@@ -7182,81 +7679,93 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-87400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-22500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-18300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-27300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-6900</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
+        <v>92600</v>
+      </c>
+      <c r="J102" s="3">
         <v>-21200</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-10300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>130900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>120900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>49800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>43400</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-3200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-5100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-9300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>9100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>5700</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-1200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-2100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>3800</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>1400</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-500</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,176 +665,180 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>6800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>300</v>
       </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
       <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
         <v>100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>300</v>
-      </c>
-      <c r="R8" s="3">
-        <v>200</v>
       </c>
       <c r="S8" s="3">
         <v>200</v>
       </c>
       <c r="T8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U8" s="3">
         <v>100</v>
@@ -843,13 +847,13 @@
         <v>100</v>
       </c>
       <c r="W8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X8" s="3">
         <v>200</v>
       </c>
-      <c r="Y8" s="3" t="s">
-        <v>4</v>
+      <c r="Y8" s="3">
+        <v>200</v>
       </c>
       <c r="Z8" s="3" t="s">
         <v>4</v>
@@ -863,61 +867,64 @@
       <c r="AC8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>19200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
-        <v>3400</v>
-      </c>
       <c r="H9" s="3">
+        <v>5500</v>
+      </c>
+      <c r="I9" s="3">
         <v>4400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>6400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>200</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
       <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>100</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>200</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>200</v>
-      </c>
-      <c r="T9" s="3">
-        <v>100</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
@@ -931,8 +938,8 @@
       <c r="X9" s="3">
         <v>100</v>
       </c>
-      <c r="Y9" s="3" t="s">
-        <v>4</v>
+      <c r="Y9" s="3">
+        <v>100</v>
       </c>
       <c r="Z9" s="3" t="s">
         <v>4</v>
@@ -946,32 +953,35 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10" s="3">
         <v>100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-12400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-1000</v>
       </c>
-      <c r="G10" s="3">
-        <v>-1900</v>
-      </c>
       <c r="H10" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I10" s="3">
         <v>-3400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-4300</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
       <c r="K10" s="3">
         <v>0</v>
       </c>
@@ -979,11 +989,11 @@
         <v>0</v>
       </c>
       <c r="M10" s="3">
+        <v>0</v>
+      </c>
+      <c r="N10" s="3">
         <v>-100</v>
       </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
       <c r="O10" s="3">
         <v>0</v>
       </c>
@@ -991,13 +1001,13 @@
         <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R10" s="3">
         <v>100</v>
       </c>
       <c r="S10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>0</v>
@@ -1009,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X10" s="3">
         <v>100</v>
       </c>
-      <c r="Y10" s="3" t="s">
-        <v>4</v>
+      <c r="Y10" s="3">
+        <v>100</v>
       </c>
       <c r="Z10" s="3" t="s">
         <v>4</v>
@@ -1029,8 +1039,11 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1060,91 +1073,95 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E12" s="3">
         <v>2600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>22000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6500</v>
       </c>
-      <c r="G12" s="3">
-        <v>5600</v>
-      </c>
       <c r="H12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="I12" s="3">
         <v>8500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>21300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>5300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>4400</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2300</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>7900</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>2100</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1400</v>
       </c>
       <c r="P12" s="3">
         <v>1400</v>
       </c>
       <c r="Q12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="R12" s="3">
         <v>2900</v>
       </c>
-      <c r="R12" s="3">
+      <c r="S12" s="3">
         <v>3300</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>2300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>1300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1100</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>700</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>1300</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1200</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1300</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>600</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>500</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>1000</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1226,31 +1243,34 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>34300</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="H14" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I14" s="3">
         <v>1500</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>1500</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
@@ -1258,18 +1278,18 @@
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>-300</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-500</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1282,11 +1302,11 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
@@ -1294,12 +1314,12 @@
       <c r="X14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Z14" s="3">
         <v>1000</v>
       </c>
-      <c r="Z14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1309,52 +1329,55 @@
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>800</v>
+      </c>
+      <c r="E15" s="3">
+        <v>900</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M15" s="3">
+        <v>900</v>
+      </c>
+      <c r="N15" s="3">
+        <v>1600</v>
+      </c>
+      <c r="O15" s="3">
         <v>600</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4900</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G15" s="3">
-        <v>1400</v>
-      </c>
-      <c r="H15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="I15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="J15" s="3">
-        <v>1100</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="L15" s="3">
-        <v>900</v>
-      </c>
-      <c r="M15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="N15" s="3">
-        <v>600</v>
-      </c>
-      <c r="O15" s="3">
-        <v>200</v>
       </c>
       <c r="P15" s="3">
         <v>200</v>
       </c>
       <c r="Q15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R15" s="3">
         <v>300</v>
@@ -1363,10 +1386,10 @@
         <v>300</v>
       </c>
       <c r="T15" s="3">
+        <v>300</v>
+      </c>
+      <c r="U15" s="3">
         <v>200</v>
-      </c>
-      <c r="U15" s="3">
-        <v>100</v>
       </c>
       <c r="V15" s="3">
         <v>100</v>
@@ -1375,7 +1398,7 @@
         <v>100</v>
       </c>
       <c r="X15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y15" s="3">
         <v>0</v>
@@ -1392,8 +1415,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1420,160 +1446,164 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>132800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>23400</v>
       </c>
-      <c r="G17" s="3">
-        <v>21800</v>
-      </c>
       <c r="H17" s="3">
+        <v>21200</v>
+      </c>
+      <c r="I17" s="3">
         <v>19300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>60400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>15600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>9100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>27500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>9100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>4400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>5200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>8600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>5100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>4900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>3700</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>2800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>3700</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1200</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-126000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-22000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H18" s="3">
+        <v>-19700</v>
+      </c>
+      <c r="I18" s="3">
         <v>-18300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-58300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-17200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-15300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-8900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-26900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-8800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-4400</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-5100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-8300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-7800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-4900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3700</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-2800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-3400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Y18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1586,8 +1616,11 @@
       <c r="AC18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1617,77 +1650,78 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E20" s="3">
         <v>1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>2300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>900</v>
-      </c>
-      <c r="G20" s="3">
-        <v>300</v>
       </c>
       <c r="H20" s="3">
         <v>400</v>
       </c>
       <c r="I20" s="3">
+        <v>400</v>
+      </c>
+      <c r="J20" s="3">
         <v>19500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>3900</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>8700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-36200</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-6100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4900</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>3700</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>200</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>2500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>8200</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-11100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>2100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>700</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>1400</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>900</v>
       </c>
-      <c r="Y20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1700,77 +1734,80 @@
       <c r="AC20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-11400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-117900</v>
       </c>
-      <c r="F21" s="3">
-        <v>-19500</v>
-      </c>
       <c r="G21" s="3">
-        <v>-18500</v>
+        <v>-19300</v>
       </c>
       <c r="H21" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-16800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-35300</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-11700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-10500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-61500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-14200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-9200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-7800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-5100</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>3600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-15700</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-1600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-2100</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-1900</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1783,8 +1820,11 @@
       <c r="AC21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1794,15 +1834,15 @@
       <c r="E22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="3">
         <v>500</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>300</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1833,8 +1873,8 @@
       <c r="R22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1851,106 +1891,112 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z22" s="3">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA22" s="3">
         <v>100</v>
       </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
       <c r="AB22" s="3">
         <v>0</v>
       </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-123700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-38800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-63100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-14900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-9300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-8100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-5300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>3300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-15900</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-1600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-2100</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1994,11 +2040,11 @@
         <v>0</v>
       </c>
       <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>-100</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -2008,8 +2054,8 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
-        <v>4</v>
+      <c r="V24" s="3">
+        <v>0</v>
       </c>
       <c r="W24" s="3" t="s">
         <v>4</v>
@@ -2017,8 +2063,8 @@
       <c r="X24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
@@ -2032,8 +2078,11 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2115,174 +2164,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-123700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H26" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I26" s="3">
         <v>-18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-38800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-12800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-11400</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-63000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-14900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-9300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>3300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-1600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-2100</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-123700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-21500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H27" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-38800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-12800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-11400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-63000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-14900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-9300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-8100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-5300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>3300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15900</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-1600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-2100</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2364,8 +2422,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2447,8 +2508,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2530,8 +2594,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2613,77 +2680,80 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>200</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-2300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-900</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-300</v>
       </c>
       <c r="H32" s="3">
         <v>-400</v>
       </c>
       <c r="I32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="J32" s="3">
         <v>-19500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-3900</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-8700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>36200</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>6100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4900</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-200</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-2500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-8200</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>11100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-2100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-700</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-1400</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-900</v>
       </c>
-      <c r="Y32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2696,91 +2766,97 @@
       <c r="AC32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-123700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-21500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H33" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-38800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-12800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-11400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-63000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-14900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-8100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-5300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>3300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15900</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-1600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-2100</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2862,179 +2938,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-123700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-21500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H35" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-38800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-12800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-11400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-63000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-14900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-8100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-5300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>3300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15900</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-1600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-2100</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3064,8 +3149,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3095,91 +3181,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E41" s="3">
         <v>111200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>134300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>153900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>176400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>194700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>443900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>228800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>250000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>260400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>129500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>101100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>51300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>7500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>11100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>16200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>21400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>23600</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>14400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>8800</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>3200</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>4400</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>6400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>2600</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>1200</v>
       </c>
-      <c r="AB41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AC41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3261,117 +3351,123 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>300</v>
       </c>
       <c r="F43" s="3">
+        <v>300</v>
+      </c>
+      <c r="G43" s="3">
         <v>100</v>
-      </c>
-      <c r="G43" s="3">
-        <v>200</v>
       </c>
       <c r="H43" s="3">
         <v>200</v>
       </c>
       <c r="I43" s="3">
+        <v>200</v>
+      </c>
+      <c r="J43" s="3">
         <v>400</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>300</v>
-      </c>
-      <c r="O43" s="3">
-        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
       </c>
       <c r="Q43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>400</v>
       </c>
       <c r="S43" s="3">
+        <v>400</v>
+      </c>
+      <c r="T43" s="3">
         <v>1700</v>
-      </c>
-      <c r="T43" s="3">
-        <v>900</v>
       </c>
       <c r="U43" s="3">
         <v>900</v>
       </c>
       <c r="V43" s="3">
+        <v>900</v>
+      </c>
+      <c r="W43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>500</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>200</v>
-      </c>
-      <c r="Z43" s="3">
-        <v>100</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AB43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC43" s="3">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E44" s="3">
         <v>4300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8500</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>6200</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>7200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>3300</v>
-      </c>
-      <c r="K44" s="3">
-        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>600</v>
@@ -3380,34 +3476,34 @@
         <v>600</v>
       </c>
       <c r="N44" s="3">
+        <v>600</v>
+      </c>
+      <c r="O44" s="3">
         <v>1400</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>1300</v>
-      </c>
-      <c r="P44" s="3">
-        <v>800</v>
       </c>
       <c r="Q44" s="3">
         <v>800</v>
       </c>
       <c r="R44" s="3">
+        <v>800</v>
+      </c>
+      <c r="S44" s="3">
         <v>900</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>1100</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>700</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>300</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>700</v>
-      </c>
-      <c r="W44" s="3">
-        <v>200</v>
       </c>
       <c r="X44" s="3">
         <v>200</v>
@@ -3416,185 +3512,194 @@
         <v>200</v>
       </c>
       <c r="Z44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-      <c r="AB44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E45" s="3">
         <v>15200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11400</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>17100</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>18300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>20300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>12300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>13500</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>5000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>6900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6300</v>
-      </c>
-      <c r="P45" s="3">
-        <v>6600</v>
       </c>
       <c r="Q45" s="3">
         <v>6600</v>
       </c>
       <c r="R45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="S45" s="3">
         <v>6200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>7100</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>3200</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>1700</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>800</v>
-      </c>
-      <c r="W45" s="3">
-        <v>600</v>
       </c>
       <c r="X45" s="3">
         <v>600</v>
       </c>
       <c r="Y45" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z45" s="3">
         <v>700</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>400</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>200</v>
       </c>
-      <c r="AB45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC45" s="3">
+      <c r="AC45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>97200</v>
+      </c>
+      <c r="E46" s="3">
         <v>131000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>150200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>179900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>203400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>221300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>240800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>247800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>263200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>274800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>109600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>59100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>15100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>18900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>23700</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>31300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>28400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>17400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>10600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>4400</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>5500</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>7400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>3100</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1500</v>
       </c>
-      <c r="AB46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC46" s="3">
+      <c r="AC46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3665,102 +3770,108 @@
         <v>0</v>
       </c>
       <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
         <v>200</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AB47" s="3">
         <v>100</v>
       </c>
-      <c r="AB47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>22100</v>
+      </c>
+      <c r="E48" s="3">
         <v>25000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25500</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>28600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>25100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>11300</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>6400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>9700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>10900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>9300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>11700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>9900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>10000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>8100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>4100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3700</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3500</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>1900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1000</v>
-      </c>
-      <c r="Z48" s="3">
-        <v>200</v>
       </c>
       <c r="AA48" s="3">
         <v>200</v>
       </c>
-      <c r="AB48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC48" s="3">
+      <c r="AB48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3771,7 +3882,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="G49" s="3">
         <v>1000</v>
@@ -3780,10 +3891,10 @@
         <v>1000</v>
       </c>
       <c r="I49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="3">
         <v>1900</v>
-      </c>
-      <c r="J49" s="3">
-        <v>1000</v>
       </c>
       <c r="K49" s="3">
         <v>1000</v>
@@ -3795,7 +3906,7 @@
         <v>1000</v>
       </c>
       <c r="N49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="O49" s="3">
         <v>1200</v>
@@ -3813,7 +3924,7 @@
         <v>1200</v>
       </c>
       <c r="T49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="U49" s="3">
         <v>900</v>
@@ -3831,19 +3942,22 @@
         <v>900</v>
       </c>
       <c r="Z49" s="3">
+        <v>900</v>
+      </c>
+      <c r="AA49" s="3">
         <v>100</v>
       </c>
-      <c r="AA49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3925,8 +4039,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4008,31 +4125,34 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>5600</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>4000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2200</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>4600</v>
-      </c>
-      <c r="J52" s="3">
-        <v>200</v>
       </c>
       <c r="K52" s="3">
         <v>200</v>
@@ -4044,19 +4164,19 @@
         <v>200</v>
       </c>
       <c r="N52" s="3">
+        <v>200</v>
+      </c>
+      <c r="O52" s="3">
         <v>300</v>
-      </c>
-      <c r="O52" s="3">
-        <v>400</v>
       </c>
       <c r="P52" s="3">
         <v>400</v>
       </c>
       <c r="Q52" s="3">
+        <v>400</v>
+      </c>
+      <c r="R52" s="3">
         <v>200</v>
-      </c>
-      <c r="R52" s="3">
-        <v>100</v>
       </c>
       <c r="S52" s="3">
         <v>100</v>
@@ -4076,8 +4196,8 @@
       <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
+      <c r="Y52" s="3">
+        <v>100</v>
       </c>
       <c r="Z52" s="3" t="s">
         <v>4</v>
@@ -4091,8 +4211,11 @@
       <c r="AC52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4174,91 +4297,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>125300</v>
+      </c>
+      <c r="E54" s="3">
         <v>162200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>181200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>211300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>233500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>235800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>255400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>258700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>275200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>286500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>145800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>122800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>70600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>26400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>30300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>40700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>22400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>15300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>9000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>8400</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>9400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>3600</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>1900</v>
       </c>
-      <c r="AB54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC54" s="3">
+      <c r="AC54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4288,8 +4417,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4319,91 +4449,95 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>900</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1700</v>
       </c>
       <c r="H57" s="3">
         <v>1700</v>
       </c>
       <c r="I57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="J57" s="3">
         <v>1200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>700</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>1500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>700</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>400</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>1600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>800</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>700</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>400</v>
       </c>
-      <c r="AB57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4413,35 +4547,35 @@
       <c r="E58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F58" s="3">
+      <c r="F58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>600</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1100</v>
-      </c>
-      <c r="J58" s="3">
-        <v>600</v>
       </c>
       <c r="K58" s="3">
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>700</v>
-      </c>
-      <c r="O58" s="3">
-        <v>600</v>
       </c>
       <c r="P58" s="3">
         <v>600</v>
@@ -4456,11 +4590,11 @@
         <v>600</v>
       </c>
       <c r="T58" s="3">
+        <v>600</v>
+      </c>
+      <c r="U58" s="3">
         <v>500</v>
       </c>
-      <c r="U58" s="3">
-        <v>0</v>
-      </c>
       <c r="V58" s="3">
         <v>0</v>
       </c>
@@ -4471,78 +4605,81 @@
         <v>0</v>
       </c>
       <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>1200</v>
       </c>
-      <c r="Z58" s="3">
-        <v>0</v>
-      </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>200</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC58" s="3">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E59" s="3">
         <v>28500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>4400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>2100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1800</v>
-      </c>
-      <c r="M59" s="3">
-        <v>2700</v>
       </c>
       <c r="N59" s="3">
         <v>2700</v>
       </c>
       <c r="O59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="P59" s="3">
         <v>1000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>1200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2100</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>1300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>700</v>
-      </c>
-      <c r="U59" s="3">
-        <v>400</v>
       </c>
       <c r="V59" s="3">
         <v>400</v>
@@ -4557,102 +4694,108 @@
         <v>400</v>
       </c>
       <c r="Z59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA59" s="3">
         <v>1100</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>200</v>
       </c>
-      <c r="AB59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC59" s="3">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E60" s="3">
         <v>28900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>36200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>8300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>6300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>5800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>4000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>3300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3400</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1700</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1400</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1300</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>2000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1600</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>2500</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1700</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>800</v>
       </c>
-      <c r="AB60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC60" s="3">
+      <c r="AC60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4663,52 +4806,52 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
+        <v>0</v>
+      </c>
+      <c r="G61" s="3">
         <v>16600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>17000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1600</v>
-      </c>
-      <c r="K61" s="3">
-        <v>1500</v>
       </c>
       <c r="L61" s="3">
         <v>1500</v>
       </c>
       <c r="M61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="N61" s="3">
         <v>500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>900</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1000</v>
-      </c>
-      <c r="S61" s="3">
-        <v>1100</v>
       </c>
       <c r="T61" s="3">
         <v>1100</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="V61" s="3">
         <v>0</v>
@@ -4734,19 +4877,22 @@
       <c r="AC61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16200</v>
+      </c>
+      <c r="E62" s="3">
         <v>17400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17700</v>
-      </c>
-      <c r="F62" s="3">
-        <v>300</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -4755,70 +4901,73 @@
         <v>300</v>
       </c>
       <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>1900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>8100</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>11800</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>18000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>10600</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>3100</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7600</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>9700</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>14000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>3600</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>1800</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>2400</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2700</v>
       </c>
-      <c r="Z62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AC62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4900,8 +5049,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4983,8 +5135,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5066,91 +5221,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E66" s="3">
         <v>46300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>53900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>23600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>25500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>9100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>8800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>15400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>17300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>23100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>15200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>13000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>7100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>11300</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>12700</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>16800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>5000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>5200</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>1700</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>800</v>
       </c>
-      <c r="AB66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC66" s="3">
+      <c r="AC66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5180,8 +5341,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5263,8 +5425,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5346,8 +5511,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5429,8 +5597,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5512,91 +5683,97 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-298000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-285100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-272800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-211300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-189800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-169500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-149100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-134800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-122000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-110500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-110300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-91900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-77000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-64000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-62100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-54100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-48700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-40000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-23900</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-21300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-19800</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-15900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-12400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-10200</v>
       </c>
-      <c r="AB72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC72" s="3">
+      <c r="AC72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5678,8 +5855,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5761,8 +5941,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5844,91 +6027,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>103900</v>
+      </c>
+      <c r="E76" s="3">
         <v>115900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>127300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>187700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>208000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>226700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>245700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>249800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>259900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>269200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>122700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>107700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>57600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>19300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>24300</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>28100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>18400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>17400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>12200</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>6000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>4400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4200</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1900</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1100</v>
       </c>
-      <c r="AB76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC76" s="3">
+      <c r="AC76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6010,179 +6199,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-123700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-21500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H81" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-38800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-12800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-11400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-63000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-14900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-8100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-5300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>3300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15900</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-1600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-2100</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-3400</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6212,52 +6410,53 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>800</v>
+      </c>
+      <c r="E83" s="3">
         <v>900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5800</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>1600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1400</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>4300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>900</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>1600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>600</v>
-      </c>
-      <c r="O83" s="3">
-        <v>200</v>
       </c>
       <c r="P83" s="3">
         <v>200</v>
       </c>
       <c r="Q83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R83" s="3">
         <v>300</v>
@@ -6266,10 +6465,10 @@
         <v>300</v>
       </c>
       <c r="T83" s="3">
+        <v>300</v>
+      </c>
+      <c r="U83" s="3">
         <v>200</v>
-      </c>
-      <c r="U83" s="3">
-        <v>100</v>
       </c>
       <c r="V83" s="3">
         <v>100</v>
@@ -6278,7 +6477,7 @@
         <v>100</v>
       </c>
       <c r="X83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y83" s="3">
         <v>0</v>
@@ -6295,8 +6494,11 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6378,8 +6580,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6461,8 +6666,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6544,8 +6752,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6627,8 +6838,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6710,91 +6924,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-84400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-21700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-17000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-26300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-60400</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-22100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-9400</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-14900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-22500</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-9700</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-4200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-2400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-4800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-2800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-8200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-5100</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-4100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-3600</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-2200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-800</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6824,19 +7044,20 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
-      </c>
-      <c r="F91" s="3">
-        <v>-1100</v>
       </c>
       <c r="G91" s="3">
         <v>-1100</v>
@@ -6845,70 +7066,73 @@
         <v>-1100</v>
       </c>
       <c r="I91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J91" s="3">
         <v>-1000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-700</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-1300</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1700</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-200</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-2100</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-1100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-200</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-700</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-1300</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-900</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-800</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AC91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6990,8 +7214,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7073,91 +7300,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-3400</v>
       </c>
-      <c r="F94" s="3">
-        <v>-1100</v>
-      </c>
       <c r="G94" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="H94" s="3">
         <v>-1100</v>
       </c>
       <c r="I94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="J94" s="3">
         <v>-4600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-200</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-100</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-2200</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-1100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-200</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-700</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-1300</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AC94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7187,8 +7420,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7270,8 +7504,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7353,8 +7590,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7436,8 +7676,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7519,8 +7762,11 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7528,97 +7774,100 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>400</v>
       </c>
       <c r="G100" s="3">
-        <v>-100</v>
+        <v>300</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>158000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>147600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>138900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>57400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>49600</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>14300</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>9500</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>10100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>2300</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>600</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>7300</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>2600</v>
-      </c>
-      <c r="AA100" s="3">
-        <v>300</v>
       </c>
       <c r="AB100" s="3">
         <v>300</v>
       </c>
       <c r="AC100" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E101" s="3">
         <v>0</v>
       </c>
       <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
         <v>-100</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
       <c r="H101" s="3">
         <v>0</v>
       </c>
@@ -7635,23 +7884,23 @@
         <v>0</v>
       </c>
       <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
         <v>5800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-200</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-300</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>100</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
-      </c>
       <c r="S101" s="3">
         <v>0</v>
       </c>
@@ -7661,8 +7910,8 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-      <c r="V101" s="3" t="s">
-        <v>4</v>
+      <c r="V101" s="3">
+        <v>0</v>
       </c>
       <c r="W101" s="3" t="s">
         <v>4</v>
@@ -7670,8 +7919,8 @@
       <c r="X101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y101" s="3">
-        <v>0</v>
+      <c r="Y101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z101" s="3">
         <v>0</v>
@@ -7685,87 +7934,93 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-21900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-87400</v>
       </c>
-      <c r="F102" s="3">
-        <v>-22500</v>
-      </c>
       <c r="G102" s="3">
-        <v>-18300</v>
+        <v>-22700</v>
       </c>
       <c r="H102" s="3">
+        <v>-18100</v>
+      </c>
+      <c r="I102" s="3">
         <v>-27300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>92600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>130900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>120900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>49800</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>43400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-3200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-5100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-9300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>9100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>5200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5700</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-1200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>3800</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>1400</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-500</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>2700</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SOLO_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="92">
   <si>
     <t>SOLO</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,183 +665,187 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="3">
         <v>100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>6800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>300</v>
       </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
       <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
         <v>100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>300</v>
-      </c>
-      <c r="S8" s="3">
-        <v>200</v>
       </c>
       <c r="T8" s="3">
         <v>200</v>
       </c>
       <c r="U8" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V8" s="3">
         <v>100</v>
@@ -850,13 +854,13 @@
         <v>100</v>
       </c>
       <c r="X8" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y8" s="3">
         <v>200</v>
       </c>
-      <c r="Z8" s="3" t="s">
-        <v>4</v>
+      <c r="Z8" s="3">
+        <v>200</v>
       </c>
       <c r="AA8" s="3" t="s">
         <v>4</v>
@@ -870,64 +874,67 @@
       <c r="AD8" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>19200</v>
       </c>
-      <c r="G9" s="3">
-        <v>2400</v>
-      </c>
       <c r="H9" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I9" s="3">
         <v>5500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>4400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>6400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>200</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
         <v>100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>200</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>200</v>
-      </c>
-      <c r="U9" s="3">
-        <v>100</v>
       </c>
       <c r="V9" s="3">
         <v>100</v>
@@ -941,8 +948,8 @@
       <c r="Y9" s="3">
         <v>100</v>
       </c>
-      <c r="Z9" s="3" t="s">
-        <v>4</v>
+      <c r="Z9" s="3">
+        <v>100</v>
       </c>
       <c r="AA9" s="3" t="s">
         <v>4</v>
@@ -956,35 +963,38 @@
       <c r="AD9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3">
         <v>100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-12400</v>
       </c>
-      <c r="G10" s="3">
-        <v>-1000</v>
-      </c>
       <c r="H10" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I10" s="3">
         <v>-4000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-3400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-4300</v>
       </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
       <c r="L10" s="3">
         <v>0</v>
       </c>
@@ -992,11 +1002,11 @@
         <v>0</v>
       </c>
       <c r="N10" s="3">
+        <v>0</v>
+      </c>
+      <c r="O10" s="3">
         <v>-100</v>
       </c>
-      <c r="O10" s="3">
-        <v>0</v>
-      </c>
       <c r="P10" s="3">
         <v>0</v>
       </c>
@@ -1004,13 +1014,13 @@
         <v>0</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S10" s="3">
         <v>100</v>
       </c>
       <c r="T10" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>0</v>
@@ -1022,13 +1032,13 @@
         <v>0</v>
       </c>
       <c r="X10" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="3">
         <v>100</v>
       </c>
-      <c r="Z10" s="3" t="s">
-        <v>4</v>
+      <c r="Z10" s="3">
+        <v>100</v>
       </c>
       <c r="AA10" s="3" t="s">
         <v>4</v>
@@ -1042,8 +1052,11 @@
       <c r="AD10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1074,94 +1087,98 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E12" s="3">
         <v>3700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>22000</v>
       </c>
-      <c r="G12" s="3">
-        <v>6500</v>
-      </c>
       <c r="H12" s="3">
+        <v>12500</v>
+      </c>
+      <c r="I12" s="3">
         <v>10500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>8500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>21300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4400</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2300</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>7900</v>
       </c>
-      <c r="O12" s="3">
+      <c r="P12" s="3">
         <v>2100</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1400</v>
       </c>
       <c r="Q12" s="3">
         <v>1400</v>
       </c>
       <c r="R12" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S12" s="3">
         <v>2900</v>
       </c>
-      <c r="S12" s="3">
+      <c r="T12" s="3">
         <v>3300</v>
       </c>
-      <c r="T12" s="3">
+      <c r="U12" s="3">
         <v>2300</v>
       </c>
-      <c r="U12" s="3">
+      <c r="V12" s="3">
         <v>1300</v>
       </c>
-      <c r="V12" s="3">
+      <c r="W12" s="3">
         <v>1100</v>
       </c>
-      <c r="W12" s="3">
+      <c r="X12" s="3">
         <v>700</v>
       </c>
-      <c r="X12" s="3">
+      <c r="Y12" s="3">
         <v>1300</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Z12" s="3">
         <v>1200</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="AA12" s="3">
         <v>1300</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AB12" s="3">
         <v>600</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AC12" s="3">
         <v>500</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AD12" s="3">
         <v>1000</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AE12" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1246,34 +1263,37 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>34300</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3">
+        <v>300</v>
+      </c>
+      <c r="I14" s="3">
         <v>1400</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1500</v>
       </c>
       <c r="J14" s="3">
         <v>1500</v>
       </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3">
+        <v>1500</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1281,18 +1301,18 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-300</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-500</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1305,11 +1325,11 @@
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V14" s="3">
-        <v>0</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>4</v>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>0</v>
       </c>
       <c r="X14" s="3" t="s">
         <v>4</v>
@@ -1317,12 +1337,12 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
         <v>1000</v>
       </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1332,55 +1352,58 @@
       <c r="AD14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>900</v>
+      </c>
+      <c r="E15" s="3">
         <v>800</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>4900</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="K15" s="3">
+        <v>4700</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1000</v>
+      </c>
+      <c r="N15" s="3">
+        <v>900</v>
+      </c>
+      <c r="O15" s="3">
         <v>1600</v>
       </c>
-      <c r="H15" s="3">
-        <v>1300</v>
-      </c>
-      <c r="I15" s="3">
-        <v>1200</v>
-      </c>
-      <c r="J15" s="3">
-        <v>4700</v>
-      </c>
-      <c r="K15" s="3">
-        <v>1100</v>
-      </c>
-      <c r="L15" s="3">
-        <v>1000</v>
-      </c>
-      <c r="M15" s="3">
-        <v>900</v>
-      </c>
-      <c r="N15" s="3">
-        <v>1600</v>
-      </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>600</v>
-      </c>
-      <c r="P15" s="3">
-        <v>200</v>
       </c>
       <c r="Q15" s="3">
         <v>200</v>
       </c>
       <c r="R15" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S15" s="3">
         <v>300</v>
@@ -1389,10 +1412,10 @@
         <v>300</v>
       </c>
       <c r="U15" s="3">
+        <v>300</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
-      </c>
-      <c r="V15" s="3">
-        <v>100</v>
       </c>
       <c r="W15" s="3">
         <v>100</v>
@@ -1401,7 +1424,7 @@
         <v>100</v>
       </c>
       <c r="Y15" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z15" s="3">
         <v>0</v>
@@ -1418,8 +1441,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1447,166 +1473,170 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E17" s="3">
         <v>12800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>132800</v>
       </c>
-      <c r="G17" s="3">
-        <v>23400</v>
-      </c>
       <c r="H17" s="3">
+        <v>22400</v>
+      </c>
+      <c r="I17" s="3">
         <v>21200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>19300</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>60400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>17300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>15600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>9100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>27500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>9100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>4400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>5200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>8600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>8000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>5100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>4900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>3700</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>3000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>3600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>2800</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>3700</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1200</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1600</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>4000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="3">
         <v>-12700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-126000</v>
       </c>
-      <c r="G18" s="3">
-        <v>-22000</v>
-      </c>
       <c r="H18" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-19700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-18300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-58300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-17200</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-15300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-8900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-26900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-8800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-4400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-5100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-8300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-7800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-4900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-4800</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-3700</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-2800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-3400</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-2700</v>
       </c>
-      <c r="Z18" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA18" s="3" t="s">
         <v>4</v>
       </c>
@@ -1619,8 +1649,11 @@
       <c r="AD18" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1651,80 +1684,81 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>2300</v>
       </c>
-      <c r="G20" s="3">
-        <v>900</v>
-      </c>
       <c r="H20" s="3">
-        <v>400</v>
+        <v>1300</v>
       </c>
       <c r="I20" s="3">
         <v>400</v>
       </c>
       <c r="J20" s="3">
+        <v>400</v>
+      </c>
+      <c r="K20" s="3">
         <v>19500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>3900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>8700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-36200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-6100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4900</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>3700</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>200</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>2500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>8200</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-11100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>2100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>700</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>1400</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>900</v>
       </c>
-      <c r="Z20" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA20" s="3" t="s">
         <v>4</v>
       </c>
@@ -1737,80 +1771,83 @@
       <c r="AD20" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="3">
         <v>-12100</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-11400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-117900</v>
       </c>
-      <c r="G21" s="3">
-        <v>-19300</v>
-      </c>
       <c r="H21" s="3">
+        <v>-18200</v>
+      </c>
+      <c r="I21" s="3">
         <v>-18000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-16800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-35300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-11700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-10500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>700</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-61500</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-14200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-7800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-5100</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>3600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-15700</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>-1600</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>-2100</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1823,8 +1860,11 @@
       <c r="AD21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1837,15 +1877,15 @@
       <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
         <v>500</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
       </c>
@@ -1876,8 +1916,8 @@
       <c r="S22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T22" s="3">
-        <v>0</v>
+      <c r="T22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U22" s="3">
         <v>0</v>
@@ -1894,109 +1934,115 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-      <c r="Z22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA22" s="3">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB22" s="3">
         <v>100</v>
       </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
       <c r="AC22" s="3">
         <v>0</v>
       </c>
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-12300</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-123700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-19500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-38800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-63100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-14900</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-8100</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-5300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>3300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-15900</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>-1600</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>-2100</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AD23" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD23" s="3">
+      <c r="AE23" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2043,11 +2089,11 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
         <v>-100</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
       <c r="T24" s="3">
         <v>0</v>
       </c>
@@ -2057,8 +2103,8 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>4</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>4</v>
@@ -2066,8 +2112,8 @@
       <c r="Y24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z24" s="3">
-        <v>0</v>
+      <c r="Z24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA24" s="3">
         <v>0</v>
@@ -2081,8 +2127,11 @@
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2167,180 +2216,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-123700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H26" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-19500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-18000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-38800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-11400</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-63000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-14900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1400</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>3300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-15900</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-1600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>-2100</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-12300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-123700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-19500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-38800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-12800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-11400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-63000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-14900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-8100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-5300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>3300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-15900</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-1600</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>-2100</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2425,8 +2483,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2511,8 +2572,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2597,8 +2661,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2683,80 +2750,83 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-2300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-900</v>
-      </c>
       <c r="H32" s="3">
-        <v>-400</v>
+        <v>-1300</v>
       </c>
       <c r="I32" s="3">
         <v>-400</v>
       </c>
       <c r="J32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K32" s="3">
         <v>-19500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-3900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-8700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>36200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>6100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4900</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-3700</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-200</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-2500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-8200</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>11100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>-2100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>-700</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>-1400</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>-900</v>
       </c>
-      <c r="Z32" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AA32" s="3" t="s">
         <v>4</v>
       </c>
@@ -2769,94 +2839,100 @@
       <c r="AD32" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-12300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-123700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H33" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-19500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-18000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-38800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-12800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-11400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-63000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-14900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-8100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-5300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>3300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-15900</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-1600</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>-2100</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2941,185 +3017,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-12300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-123700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H35" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-19500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-18000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-38800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-12800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-11400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-63000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-14900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-8100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-5300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>3300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-15900</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-1600</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>-2100</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3150,8 +3235,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3182,94 +3268,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>73500</v>
+      </c>
+      <c r="E41" s="3">
         <v>89300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>111200</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>134300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>153900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>176400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>194700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>443900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>228800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>250000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>260400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>129500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>101100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>51300</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>7500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>11100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>16200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>21400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>23600</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>14400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>8800</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>3200</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>4400</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>6400</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>2600</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>1200</v>
       </c>
-      <c r="AC41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD41" s="3">
+      <c r="AD41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE41" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,94 +3444,100 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
         <v>100</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>200</v>
       </c>
       <c r="J43" s="3">
+        <v>200</v>
+      </c>
+      <c r="K43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>300</v>
-      </c>
-      <c r="P43" s="3">
-        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
       </c>
       <c r="R43" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>400</v>
       </c>
       <c r="T43" s="3">
+        <v>400</v>
+      </c>
+      <c r="U43" s="3">
         <v>1700</v>
-      </c>
-      <c r="U43" s="3">
-        <v>900</v>
       </c>
       <c r="V43" s="3">
         <v>900</v>
       </c>
       <c r="W43" s="3">
+        <v>900</v>
+      </c>
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>500</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
-      </c>
-      <c r="AA43" s="3">
-        <v>100</v>
       </c>
       <c r="AB43" s="3">
         <v>100</v>
       </c>
-      <c r="AC43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD43" s="3">
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE43" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3449,28 +3545,28 @@
         <v>2800</v>
       </c>
       <c r="E44" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F44" s="3">
         <v>4300</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>8800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>8500</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>6200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>7200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3300</v>
-      </c>
-      <c r="L44" s="3">
-        <v>600</v>
       </c>
       <c r="M44" s="3">
         <v>600</v>
@@ -3479,34 +3575,34 @@
         <v>600</v>
       </c>
       <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>1400</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>800</v>
       </c>
       <c r="R44" s="3">
         <v>800</v>
       </c>
       <c r="S44" s="3">
+        <v>800</v>
+      </c>
+      <c r="T44" s="3">
         <v>900</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>1100</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>700</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>300</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>700</v>
-      </c>
-      <c r="X44" s="3">
-        <v>200</v>
       </c>
       <c r="Y44" s="3">
         <v>200</v>
@@ -3515,191 +3611,200 @@
         <v>200</v>
       </c>
       <c r="AA44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-      <c r="AC44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD44" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E45" s="3">
         <v>4700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>15200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>11400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>17100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>18300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>20300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>15400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>12300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>13500</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>5000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6900</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6300</v>
-      </c>
-      <c r="Q45" s="3">
-        <v>6600</v>
       </c>
       <c r="R45" s="3">
         <v>6600</v>
       </c>
       <c r="S45" s="3">
+        <v>6600</v>
+      </c>
+      <c r="T45" s="3">
         <v>6200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>7100</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3200</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>1700</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>800</v>
-      </c>
-      <c r="X45" s="3">
-        <v>600</v>
       </c>
       <c r="Y45" s="3">
         <v>600</v>
       </c>
       <c r="Z45" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA45" s="3">
         <v>700</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>400</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>200</v>
       </c>
-      <c r="AC45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD45" s="3">
+      <c r="AD45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE45" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E46" s="3">
         <v>97200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>131000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>150200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>179900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>203400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>221300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>240800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>247800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>263200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>274800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>135300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>109600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>59100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>15100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>18900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>23700</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>31300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>28400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>17400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>10600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>4400</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>5500</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>7400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>3100</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1500</v>
       </c>
-      <c r="AC46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD46" s="3">
+      <c r="AD46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE46" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3773,105 +3878,111 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
         <v>200</v>
       </c>
-      <c r="AB47" s="3">
+      <c r="AC47" s="3">
         <v>100</v>
       </c>
-      <c r="AC47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE47" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>21900</v>
+      </c>
+      <c r="E48" s="3">
         <v>22100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>25000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>25500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>28600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>25100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>11300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>6400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>9700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>10900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>10500</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>9300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>11700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>9900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>9700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>10000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>10200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>8100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>4100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3700</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3500</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>1900</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>1000</v>
-      </c>
-      <c r="AA48" s="3">
-        <v>200</v>
       </c>
       <c r="AB48" s="3">
         <v>200</v>
       </c>
-      <c r="AC48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD48" s="3">
+      <c r="AC48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3885,7 +3996,7 @@
         <v>0</v>
       </c>
       <c r="G49" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>1000</v>
@@ -3894,10 +4005,10 @@
         <v>1000</v>
       </c>
       <c r="J49" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1900</v>
-      </c>
-      <c r="K49" s="3">
-        <v>1000</v>
       </c>
       <c r="L49" s="3">
         <v>1000</v>
@@ -3909,7 +4020,7 @@
         <v>1000</v>
       </c>
       <c r="O49" s="3">
-        <v>1200</v>
+        <v>1000</v>
       </c>
       <c r="P49" s="3">
         <v>1200</v>
@@ -3927,7 +4038,7 @@
         <v>1200</v>
       </c>
       <c r="U49" s="3">
-        <v>900</v>
+        <v>1200</v>
       </c>
       <c r="V49" s="3">
         <v>900</v>
@@ -3945,19 +4056,22 @@
         <v>900</v>
       </c>
       <c r="AA49" s="3">
+        <v>900</v>
+      </c>
+      <c r="AB49" s="3">
         <v>100</v>
       </c>
-      <c r="AB49" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD49" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4042,8 +4156,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4128,34 +4245,37 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>6300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>5600</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>4000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2200</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>4600</v>
-      </c>
-      <c r="K52" s="3">
-        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>200</v>
@@ -4167,19 +4287,19 @@
         <v>200</v>
       </c>
       <c r="O52" s="3">
+        <v>200</v>
+      </c>
+      <c r="P52" s="3">
         <v>300</v>
-      </c>
-      <c r="P52" s="3">
-        <v>400</v>
       </c>
       <c r="Q52" s="3">
         <v>400</v>
       </c>
       <c r="R52" s="3">
+        <v>400</v>
+      </c>
+      <c r="S52" s="3">
         <v>200</v>
-      </c>
-      <c r="S52" s="3">
-        <v>100</v>
       </c>
       <c r="T52" s="3">
         <v>100</v>
@@ -4199,8 +4319,8 @@
       <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="Z52" s="3" t="s">
-        <v>4</v>
+      <c r="Z52" s="3">
+        <v>100</v>
       </c>
       <c r="AA52" s="3" t="s">
         <v>4</v>
@@ -4214,8 +4334,11 @@
       <c r="AD52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4300,94 +4423,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>107000</v>
+      </c>
+      <c r="E54" s="3">
         <v>125300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>162200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>181200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>211300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>233500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>235800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>255400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>258700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>275200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>286500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>145800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>122800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>70600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>26400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>30300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>40700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>35100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>22400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>15300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>9000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>8400</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>9400</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>3600</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>1900</v>
       </c>
-      <c r="AC54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD54" s="3">
+      <c r="AD54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE54" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4418,8 +4547,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4450,94 +4580,98 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1100</v>
-      </c>
-      <c r="H57" s="3">
-        <v>1700</v>
       </c>
       <c r="I57" s="3">
         <v>1700</v>
       </c>
       <c r="J57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="K57" s="3">
         <v>1200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>500</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>700</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>700</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>400</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>500</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>900</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>1600</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>1200</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>800</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>700</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>400</v>
       </c>
-      <c r="AC57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE57" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4550,35 +4684,35 @@
       <c r="F58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H58" s="3">
         <v>1300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>900</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1100</v>
-      </c>
-      <c r="K58" s="3">
-        <v>600</v>
       </c>
       <c r="L58" s="3">
         <v>600</v>
       </c>
       <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>700</v>
-      </c>
-      <c r="P58" s="3">
-        <v>600</v>
       </c>
       <c r="Q58" s="3">
         <v>600</v>
@@ -4593,11 +4727,11 @@
         <v>600</v>
       </c>
       <c r="U58" s="3">
+        <v>600</v>
+      </c>
+      <c r="V58" s="3">
         <v>500</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
-      </c>
       <c r="W58" s="3">
         <v>0</v>
       </c>
@@ -4608,81 +4742,84 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>1200</v>
       </c>
-      <c r="AA58" s="3">
-        <v>0</v>
-      </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
         <v>200</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD58" s="3">
+      <c r="AD58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE58" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E59" s="3">
         <v>4200</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>28500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>4400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>1800</v>
-      </c>
-      <c r="N59" s="3">
-        <v>2700</v>
       </c>
       <c r="O59" s="3">
         <v>2700</v>
       </c>
       <c r="P59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="Q59" s="3">
         <v>1000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>1200</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2100</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>1300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>700</v>
-      </c>
-      <c r="V59" s="3">
-        <v>400</v>
       </c>
       <c r="W59" s="3">
         <v>400</v>
@@ -4697,105 +4834,111 @@
         <v>400</v>
       </c>
       <c r="AA59" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB59" s="3">
         <v>1100</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>200</v>
       </c>
-      <c r="AC59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD59" s="3">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E60" s="3">
         <v>5200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>28900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>36200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>8300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>5800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>4600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>3800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>3300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1900</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1700</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>2000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1600</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>2500</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1700</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>800</v>
       </c>
-      <c r="AC60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD60" s="3">
+      <c r="AD60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE60" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4809,52 +4952,52 @@
         <v>0</v>
       </c>
       <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>16600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>17000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1600</v>
-      </c>
-      <c r="L61" s="3">
-        <v>1500</v>
       </c>
       <c r="M61" s="3">
         <v>1500</v>
       </c>
       <c r="N61" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O61" s="3">
         <v>500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>900</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1000</v>
-      </c>
-      <c r="T61" s="3">
-        <v>1100</v>
       </c>
       <c r="U61" s="3">
         <v>1100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4880,22 +5023,25 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>16100</v>
+      </c>
+      <c r="E62" s="3">
         <v>16200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17700</v>
-      </c>
-      <c r="G62" s="3">
-        <v>300</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -4904,70 +5050,73 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>8100</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>11800</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>18000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>10600</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>10000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>3100</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7100</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7600</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>9700</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>14000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>3600</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>1800</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>1000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>2400</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>2700</v>
       </c>
-      <c r="AA62" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AD62" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5052,8 +5201,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5138,8 +5290,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5224,94 +5379,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E66" s="3">
         <v>21400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>46300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>53900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>23600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>25500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>9100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>9700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>8800</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>15400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>17300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>23100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>15200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>13000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>7100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>11300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>11000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>12700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>16800</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>5000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3100</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>4000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>5200</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>1700</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>800</v>
       </c>
-      <c r="AC66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD66" s="3">
+      <c r="AD66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE66" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5342,8 +5503,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5428,8 +5590,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5514,8 +5679,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5600,8 +5768,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5686,94 +5857,100 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-316800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-298000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-285100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-272800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-211300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-189800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-169500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-149100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-134800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-122000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-110500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-110300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-91900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-77000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-64000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-62100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-54100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-48700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-40000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-23900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-21300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-19800</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-17900</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-15900</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-12400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-10200</v>
       </c>
-      <c r="AC72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD72" s="3">
+      <c r="AD72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE72" s="3">
         <v>-7400</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5858,8 +6035,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5944,8 +6124,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6030,94 +6213,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>85900</v>
+      </c>
+      <c r="E76" s="3">
         <v>103900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>115900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>127300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>187700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>208000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>226700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>245700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>249800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>259900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>269200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>122700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>107700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>57600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>19300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>19000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>24300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>28100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>18400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>17400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>12200</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>6000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>4400</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>4200</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1900</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1100</v>
       </c>
-      <c r="AC76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD76" s="3">
+      <c r="AD76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE76" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6202,185 +6391,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-12300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-123700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-21500</v>
-      </c>
       <c r="H81" s="3">
+        <v>-20100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-19500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-18000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-38800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-12800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-11400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-63000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-14900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-8100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-5300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>3300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-15900</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-1600</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>-2100</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-2000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>-1800</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>-3400</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-2200</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-1200</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>-1600</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>-4000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6411,55 +6609,56 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>900</v>
+      </c>
+      <c r="E83" s="3">
         <v>800</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>5800</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>1600</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>1400</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>1300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>4300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>1100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>1000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>900</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>1600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>600</v>
-      </c>
-      <c r="P83" s="3">
-        <v>200</v>
       </c>
       <c r="Q83" s="3">
         <v>200</v>
       </c>
       <c r="R83" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S83" s="3">
         <v>300</v>
@@ -6468,10 +6667,10 @@
         <v>300</v>
       </c>
       <c r="U83" s="3">
+        <v>300</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
-      </c>
-      <c r="V83" s="3">
-        <v>100</v>
       </c>
       <c r="W83" s="3">
         <v>100</v>
@@ -6480,7 +6679,7 @@
         <v>100</v>
       </c>
       <c r="Y83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z83" s="3">
         <v>0</v>
@@ -6497,8 +6696,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6583,8 +6785,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6669,8 +6874,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6755,8 +6963,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6841,8 +7052,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6927,94 +7141,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-21800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-84400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-21700</v>
-      </c>
       <c r="H89" s="3">
+        <v>-21400</v>
+      </c>
+      <c r="I89" s="3">
         <v>-17000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-26300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-60400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-22100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-9400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-14900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-22500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-9700</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-4200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-2400</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-4800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-2800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-8200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-5100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-4100</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-3600</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-2200</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-1700</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-2200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-800</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>-1400</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>-1100</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7045,22 +7265,23 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-100</v>
-      </c>
-      <c r="G91" s="3">
-        <v>-1100</v>
       </c>
       <c r="H91" s="3">
         <v>-1100</v>
@@ -7069,70 +7290,73 @@
         <v>-1100</v>
       </c>
       <c r="J91" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-1000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-700</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-1300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-1700</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-1400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-200</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-2100</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-1100</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-200</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-700</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-900</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-800</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
       <c r="AB91" s="3">
         <v>0</v>
       </c>
       <c r="AC91" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AD91" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7217,8 +7441,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7303,22 +7530,25 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E94" s="3">
         <v>100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-3400</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-1400</v>
       </c>
       <c r="H94" s="3">
         <v>-1100</v>
@@ -7327,70 +7557,73 @@
         <v>-1100</v>
       </c>
       <c r="J94" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-4600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-1400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-200</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-2200</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-1100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-200</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-700</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-1300</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-1300</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
       <c r="AC94" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="AD94" s="3">
         <v>-200</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>-200</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7421,8 +7654,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7507,8 +7741,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7593,8 +7830,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7679,8 +7919,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7765,8 +8008,11 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -7777,100 +8023,103 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>158000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>147600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>138900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>57400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>49600</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>14300</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>9500</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>10100</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>2300</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>600</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>7300</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>2600</v>
-      </c>
-      <c r="AB100" s="3">
-        <v>300</v>
       </c>
       <c r="AC100" s="3">
         <v>300</v>
       </c>
       <c r="AD100" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE100" s="3">
         <v>4100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>-100</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
       <c r="F101" s="3">
         <v>0</v>
       </c>
       <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
       <c r="I101" s="3">
         <v>0</v>
       </c>
@@ -7887,23 +8136,23 @@
         <v>0</v>
       </c>
       <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
         <v>5800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-200</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-300</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>100</v>
       </c>
-      <c r="S101" s="3">
-        <v>0</v>
-      </c>
       <c r="T101" s="3">
         <v>0</v>
       </c>
@@ -7913,8 +8162,8 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-      <c r="W101" s="3" t="s">
-        <v>4</v>
+      <c r="W101" s="3">
+        <v>0</v>
       </c>
       <c r="X101" s="3" t="s">
         <v>4</v>
@@ -7922,8 +8171,8 @@
       <c r="Y101" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z101" s="3">
-        <v>0</v>
+      <c r="Z101" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AA101" s="3">
         <v>0</v>
@@ -7937,90 +8186,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-16500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-21900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-21800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-87400</v>
       </c>
-      <c r="G102" s="3">
-        <v>-22700</v>
-      </c>
       <c r="H102" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="I102" s="3">
         <v>-18100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-27300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>92600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>130900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>120900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>49800</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>43400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-3200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-5100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-5200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-9300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>9100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>5200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>5700</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-1200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-2100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>3800</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>1400</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-500</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-1300</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>2700</v>
       </c>
     </row>
